--- a/EnergyNet Lots - Minerals Master.xlsx
+++ b/EnergyNet Lots - Minerals Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40560" yWindow="3840" windowWidth="33800" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="42640" yWindow="6960" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Draft Minerals Spreadsheet" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="1094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1098">
   <si>
     <t>Lot #</t>
   </si>
@@ -3323,6 +3323,20 @@
   </si>
   <si>
     <t>Mishaun: Multiple referalls back to source deeds - will take a long time to complete this package</t>
+  </si>
+  <si>
+    <t>R&amp;R Mineral Purchases</t>
+  </si>
+  <si>
+    <t>Mishaun: ORRI in tract at 2 different depths</t>
+  </si>
+  <si>
+    <t>S/2 Section 21, T16S-R37E, N.M.P.M., Lea County, New Mexico
+SURFACE TO THE BASE OF THE ATOKA FORMATION</t>
+  </si>
+  <si>
+    <t>S/2 Section 21, T16S-R37E, N.M.P.M., Lea County, New Mexico
+BELOW THE BASE OF THE ATOKA FORMATION</t>
   </si>
 </sst>
 </file>
@@ -3333,7 +3347,7 @@
     <numFmt numFmtId="164" formatCode="[$$-F0000]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -3394,8 +3408,14 @@
       <color theme="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="28"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3436,6 +3456,42 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -3784,12 +3840,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3998,31 +4060,448 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="69">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC4D79B"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$$-F0000]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -4268,313 +4747,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$$-F0000]#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9580,7 +9752,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="1" showAll="0"/>
@@ -10132,8 +10304,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:O127" totalsRowShown="0" headerRowDxfId="59" headerRowBorderDxfId="58">
-  <autoFilter ref="B3:O127"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:O128" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32">
+  <autoFilter ref="B3:O128">
+    <filterColumn colId="0">
+      <colorFilter dxfId="8"/>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" name="Lot #"/>
     <tableColumn id="2" name="Name"/>
@@ -10142,12 +10318,12 @@
     <tableColumn id="5" name="Conveyance"/>
     <tableColumn id="6" name="Invoice"/>
     <tableColumn id="7" name="Contains &quot;BLM&quot; Y/N"/>
-    <tableColumn id="8" name="Mishaun/Anish Comments"/>
-    <tableColumn id="9" name="Plot (Y/N/Maybe)"/>
-    <tableColumn id="14" name="Tract Number"/>
+    <tableColumn id="8" name="Mishaun/Anish Comments" dataDxfId="11"/>
+    <tableColumn id="9" name="Plot (Y/N/Maybe)" dataDxfId="9"/>
+    <tableColumn id="14" name="Tract Number" dataDxfId="10"/>
     <tableColumn id="10" name="Gross Mineral Acreage"/>
     <tableColumn id="11" name="Decimal Interest"/>
-    <tableColumn id="12" name="Net Mineral Acreage" dataDxfId="57">
+    <tableColumn id="12" name="Net Mineral Acreage" dataDxfId="31">
       <calculatedColumnFormula>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="Description"/>
@@ -10157,7 +10333,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:L501" totalsRowCount="1" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:L501" totalsRowCount="1" headerRowDxfId="27">
   <autoFilter ref="A5:L500">
     <filterColumn colId="4">
       <filters>
@@ -10173,20 +10349,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="Lot #" totalsRowLabel="Total" dataDxfId="55"/>
+    <tableColumn id="1" name="Lot #" totalsRowLabel="Total" dataDxfId="26"/>
     <tableColumn id="2" name="Name" totalsRowFunction="count"/>
-    <tableColumn id="3" name="Sale Price *" dataDxfId="54"/>
+    <tableColumn id="3" name="Sale Price *" dataDxfId="25"/>
     <tableColumn id="4" name="Sale Date"/>
     <tableColumn id="5" name="Conveyance" totalsRowFunction="count"/>
     <tableColumn id="6" name="Invoice" totalsRowFunction="count"/>
-    <tableColumn id="7" name="Contains &quot;BLM&quot; Y/N" dataDxfId="53">
+    <tableColumn id="7" name="Contains &quot;BLM&quot; Y/N" dataDxfId="24">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("BLM",Table2[[#This Row],[Name]])), "Y", "N")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Mishaun/Anish Comments"/>
-    <tableColumn id="10" name="Plot (Y/N/Maybe)" dataDxfId="52"/>
-    <tableColumn id="12" name="Gross Mineral Acreage" dataDxfId="51"/>
-    <tableColumn id="13" name="Decimal Interest" dataDxfId="50"/>
-    <tableColumn id="11" name="Net Mineral Acreage" dataDxfId="49"/>
+    <tableColumn id="10" name="Plot (Y/N/Maybe)" dataDxfId="23"/>
+    <tableColumn id="12" name="Gross Mineral Acreage" dataDxfId="22"/>
+    <tableColumn id="13" name="Decimal Interest" dataDxfId="21"/>
+    <tableColumn id="11" name="Net Mineral Acreage" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10514,10 +10690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O127"/>
+  <dimension ref="B1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10528,7 +10704,7 @@
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="15.83203125" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" customWidth="1"/>
@@ -10539,6 +10715,24 @@
     <col min="15" max="15" width="60.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:15" ht="36">
+      <c r="B1" s="81" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+    </row>
     <row r="3" spans="2:15" ht="70" thickBot="1">
       <c r="B3" s="21" t="s">
         <v>0</v>
@@ -10583,7 +10777,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="71" thickTop="1">
+    <row r="4" spans="2:15" ht="71" hidden="1" thickTop="1">
       <c r="B4" s="24">
         <v>64094</v>
       </c>
@@ -10608,7 +10802,7 @@
       <c r="I4" s="29" t="s">
         <v>1054</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="86" t="s">
         <v>1047</v>
       </c>
       <c r="K4" s="29"/>
@@ -10620,7 +10814,7 @@
       </c>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="2:15" ht="42">
+    <row r="5" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B5" s="32">
         <v>64127</v>
       </c>
@@ -10645,7 +10839,7 @@
       <c r="I5" s="37" t="s">
         <v>1055</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="87" t="s">
         <v>1047</v>
       </c>
       <c r="K5" s="37"/>
@@ -10657,7 +10851,7 @@
       </c>
       <c r="O5" s="39"/>
     </row>
-    <row r="6" spans="2:15" ht="42">
+    <row r="6" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B6" s="24">
         <v>64126</v>
       </c>
@@ -10682,7 +10876,7 @@
       <c r="I6" s="29" t="s">
         <v>1055</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="86" t="s">
         <v>1047</v>
       </c>
       <c r="K6" s="29"/>
@@ -10694,7 +10888,7 @@
       </c>
       <c r="O6" s="31"/>
     </row>
-    <row r="7" spans="2:15" ht="28">
+    <row r="7" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B7" s="32">
         <v>64113</v>
       </c>
@@ -10719,7 +10913,7 @@
       <c r="I7" s="37" t="s">
         <v>1055</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="87" t="s">
         <v>1047</v>
       </c>
       <c r="K7" s="37"/>
@@ -10731,7 +10925,7 @@
       </c>
       <c r="O7" s="39"/>
     </row>
-    <row r="8" spans="2:15" ht="42">
+    <row r="8" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B8" s="24">
         <v>39896</v>
       </c>
@@ -10756,7 +10950,7 @@
       <c r="I8" s="29" t="s">
         <v>1061</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="86" t="s">
         <v>1057</v>
       </c>
       <c r="K8" s="29"/>
@@ -10768,7 +10962,7 @@
       </c>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="2:15" ht="42">
+    <row r="9" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B9" s="32">
         <v>39358</v>
       </c>
@@ -10793,7 +10987,7 @@
       <c r="I9" s="37" t="s">
         <v>1062</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="87" t="s">
         <v>1047</v>
       </c>
       <c r="K9" s="37"/>
@@ -10805,7 +10999,7 @@
       </c>
       <c r="O9" s="39"/>
     </row>
-    <row r="10" spans="2:15" ht="42">
+    <row r="10" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B10" s="24">
         <v>42567</v>
       </c>
@@ -10830,7 +11024,7 @@
       <c r="I10" s="29" t="s">
         <v>1063</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="86" t="s">
         <v>1057</v>
       </c>
       <c r="K10" s="29"/>
@@ -10842,7 +11036,7 @@
       </c>
       <c r="O10" s="31"/>
     </row>
-    <row r="11" spans="2:15" ht="42">
+    <row r="11" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B11" s="40">
         <v>41381</v>
       </c>
@@ -10867,7 +11061,7 @@
       <c r="I11" s="45" t="s">
         <v>1065</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="88" t="s">
         <v>1048</v>
       </c>
       <c r="K11" s="45">
@@ -10887,8 +11081,8 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="112">
-      <c r="B12" s="56">
+    <row r="12" spans="2:15" ht="113" hidden="1" thickTop="1">
+      <c r="B12" s="78">
         <v>41380</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -10912,7 +11106,7 @@
       <c r="I12" s="61" t="s">
         <v>1070</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="89" t="s">
         <v>1048</v>
       </c>
       <c r="K12" s="61">
@@ -10932,7 +11126,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="112">
+    <row r="13" spans="2:15" ht="113" hidden="1" thickTop="1">
       <c r="B13" s="64">
         <v>41380</v>
       </c>
@@ -10957,7 +11151,7 @@
       <c r="I13" s="29" t="s">
         <v>1070</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K13" s="29">
@@ -10977,7 +11171,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="112">
+    <row r="14" spans="2:15" ht="113" hidden="1" thickTop="1">
       <c r="B14" s="66">
         <v>41380</v>
       </c>
@@ -11002,7 +11196,7 @@
       <c r="I14" s="71" t="s">
         <v>1070</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="90" t="s">
         <v>1048</v>
       </c>
       <c r="K14" s="71">
@@ -11022,7 +11216,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="42">
+    <row r="15" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B15" s="48">
         <v>40353</v>
       </c>
@@ -11047,7 +11241,7 @@
       <c r="I15" s="53" t="s">
         <v>1055</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="91" t="s">
         <v>1047</v>
       </c>
       <c r="K15" s="53"/>
@@ -11059,7 +11253,7 @@
       </c>
       <c r="O15" s="55"/>
     </row>
-    <row r="16" spans="2:15" ht="42">
+    <row r="16" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B16" s="24">
         <v>40350</v>
       </c>
@@ -11084,7 +11278,7 @@
       <c r="I16" s="29" t="s">
         <v>1055</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="86" t="s">
         <v>1047</v>
       </c>
       <c r="K16" s="29"/>
@@ -11096,7 +11290,7 @@
       </c>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="2:15" ht="42">
+    <row r="17" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B17" s="32">
         <v>40352</v>
       </c>
@@ -11121,7 +11315,7 @@
       <c r="I17" s="37" t="s">
         <v>1055</v>
       </c>
-      <c r="J17" s="37" t="s">
+      <c r="J17" s="87" t="s">
         <v>1047</v>
       </c>
       <c r="K17" s="37"/>
@@ -11133,7 +11327,7 @@
       </c>
       <c r="O17" s="39"/>
     </row>
-    <row r="18" spans="2:15" ht="126">
+    <row r="18" spans="2:15" ht="127" hidden="1" thickTop="1">
       <c r="B18" s="24">
         <v>25270</v>
       </c>
@@ -11158,7 +11352,7 @@
       <c r="I18" s="75" t="s">
         <v>1073</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K18" s="29">
@@ -11178,8 +11372,8 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="56">
-      <c r="B19" s="32">
+    <row r="19" spans="2:15" ht="57" hidden="1" thickTop="1">
+      <c r="B19" s="79">
         <v>24005</v>
       </c>
       <c r="C19" s="33" t="s">
@@ -11203,7 +11397,7 @@
       <c r="I19" s="37" t="s">
         <v>1074</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="87" t="s">
         <v>1048</v>
       </c>
       <c r="K19" s="37"/>
@@ -11215,7 +11409,7 @@
       </c>
       <c r="O19" s="39"/>
     </row>
-    <row r="20" spans="2:15" ht="28">
+    <row r="20" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B20" s="56">
         <v>18225</v>
       </c>
@@ -11240,7 +11434,7 @@
       <c r="I20" s="61" t="s">
         <v>1084</v>
       </c>
-      <c r="J20" s="61" t="s">
+      <c r="J20" s="89" t="s">
         <v>1048</v>
       </c>
       <c r="K20" s="61">
@@ -11260,7 +11454,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="28">
+    <row r="21" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B21" s="64">
         <v>18225</v>
       </c>
@@ -11285,7 +11479,7 @@
       <c r="I21" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K21" s="29">
@@ -11305,7 +11499,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="28">
+    <row r="22" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B22" s="64">
         <v>18225</v>
       </c>
@@ -11330,7 +11524,7 @@
       <c r="I22" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K22" s="29">
@@ -11350,7 +11544,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="28">
+    <row r="23" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B23" s="64">
         <v>18225</v>
       </c>
@@ -11375,7 +11569,7 @@
       <c r="I23" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K23" s="29">
@@ -11395,7 +11589,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="28">
+    <row r="24" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B24" s="64">
         <v>18225</v>
       </c>
@@ -11420,7 +11614,7 @@
       <c r="I24" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K24" s="29">
@@ -11440,7 +11634,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="28">
+    <row r="25" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B25" s="64">
         <v>18225</v>
       </c>
@@ -11465,7 +11659,7 @@
       <c r="I25" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K25" s="29">
@@ -11485,7 +11679,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="28">
+    <row r="26" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B26" s="64">
         <v>18225</v>
       </c>
@@ -11510,7 +11704,7 @@
       <c r="I26" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K26" s="29">
@@ -11530,7 +11724,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="28">
+    <row r="27" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B27" s="64">
         <v>18225</v>
       </c>
@@ -11555,7 +11749,7 @@
       <c r="I27" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K27" s="29">
@@ -11575,7 +11769,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="28">
+    <row r="28" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B28" s="66">
         <v>18225</v>
       </c>
@@ -11600,7 +11794,7 @@
       <c r="I28" s="71" t="s">
         <v>1084</v>
       </c>
-      <c r="J28" s="71" t="s">
+      <c r="J28" s="90" t="s">
         <v>1048</v>
       </c>
       <c r="K28" s="71">
@@ -11620,7 +11814,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="70">
+    <row r="29" spans="2:15" ht="71" hidden="1" thickTop="1">
       <c r="B29" s="32">
         <v>17982</v>
       </c>
@@ -11645,7 +11839,7 @@
       <c r="I29" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="J29" s="37" t="s">
+      <c r="J29" s="87" t="s">
         <v>1048</v>
       </c>
       <c r="K29" s="37">
@@ -11665,7 +11859,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="70">
+    <row r="30" spans="2:15" ht="71" hidden="1" thickTop="1">
       <c r="B30" s="32">
         <v>17982</v>
       </c>
@@ -11690,7 +11884,7 @@
       <c r="I30" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="J30" s="37" t="s">
+      <c r="J30" s="87" t="s">
         <v>1048</v>
       </c>
       <c r="K30" s="37">
@@ -11710,7 +11904,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="70">
+    <row r="31" spans="2:15" ht="71" hidden="1" thickTop="1">
       <c r="B31" s="32">
         <v>17982</v>
       </c>
@@ -11735,7 +11929,7 @@
       <c r="I31" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="J31" s="37" t="s">
+      <c r="J31" s="87" t="s">
         <v>1048</v>
       </c>
       <c r="K31" s="37">
@@ -11755,7 +11949,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="70">
+    <row r="32" spans="2:15" ht="71" hidden="1" thickTop="1">
       <c r="B32" s="32">
         <v>17982</v>
       </c>
@@ -11780,7 +11974,7 @@
       <c r="I32" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="87" t="s">
         <v>1048</v>
       </c>
       <c r="K32" s="37">
@@ -11800,7 +11994,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="70">
+    <row r="33" spans="2:15" ht="71" hidden="1" thickTop="1">
       <c r="B33" s="32">
         <v>17982</v>
       </c>
@@ -11825,7 +12019,7 @@
       <c r="I33" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="J33" s="87" t="s">
         <v>1048</v>
       </c>
       <c r="K33" s="37">
@@ -11845,8 +12039,8 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="126">
-      <c r="B34" s="24">
+    <row r="34" spans="2:15" ht="127" hidden="1" thickTop="1">
+      <c r="B34" s="80">
         <v>16663</v>
       </c>
       <c r="C34" s="25" t="s">
@@ -11870,7 +12064,7 @@
       <c r="I34" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K34" s="29">
@@ -11890,7 +12084,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="42">
+    <row r="35" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B35" s="32">
         <v>14319</v>
       </c>
@@ -11913,7 +12107,7 @@
         <v>1047</v>
       </c>
       <c r="I35" s="37"/>
-      <c r="J35" s="37" t="s">
+      <c r="J35" s="87" t="s">
         <v>1047</v>
       </c>
       <c r="K35" s="37"/>
@@ -11925,7 +12119,7 @@
       </c>
       <c r="O35" s="39"/>
     </row>
-    <row r="36" spans="2:15" ht="42">
+    <row r="36" spans="2:15" ht="43" hidden="1" thickTop="1">
       <c r="B36" s="24">
         <v>14129</v>
       </c>
@@ -11948,7 +12142,7 @@
         <v>1047</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="J36" s="29" t="s">
+      <c r="J36" s="86" t="s">
         <v>1047</v>
       </c>
       <c r="K36" s="29"/>
@@ -11960,7 +12154,7 @@
       </c>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="2:15" ht="28">
+    <row r="37" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B37" s="32">
         <v>13305</v>
       </c>
@@ -11983,7 +12177,7 @@
         <v>1047</v>
       </c>
       <c r="I37" s="37"/>
-      <c r="J37" s="37" t="s">
+      <c r="J37" s="87" t="s">
         <v>1047</v>
       </c>
       <c r="K37" s="37"/>
@@ -11995,7 +12189,7 @@
       </c>
       <c r="O37" s="39"/>
     </row>
-    <row r="38" spans="2:15" ht="28">
+    <row r="38" spans="2:15" ht="29" hidden="1" thickTop="1">
       <c r="B38" s="24">
         <v>12527</v>
       </c>
@@ -12018,7 +12212,7 @@
         <v>1047</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="J38" s="29" t="s">
+      <c r="J38" s="86" t="s">
         <v>1047</v>
       </c>
       <c r="K38" s="29"/>
@@ -12030,7 +12224,7 @@
       </c>
       <c r="O38" s="31"/>
     </row>
-    <row r="39" spans="2:15" ht="70">
+    <row r="39" spans="2:15" ht="71" hidden="1" thickTop="1">
       <c r="B39" s="32">
         <v>11511</v>
       </c>
@@ -12052,10 +12246,10 @@
       <c r="H39" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I39" s="78" t="s">
+      <c r="I39" s="76" t="s">
         <v>1093</v>
       </c>
-      <c r="J39" s="37" t="s">
+      <c r="J39" s="87" t="s">
         <v>1048</v>
       </c>
       <c r="K39" s="37"/>
@@ -12065,10 +12259,10 @@
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O39" s="79"/>
-    </row>
-    <row r="40" spans="2:15" ht="42">
-      <c r="B40" s="24">
+      <c r="O39" s="77"/>
+    </row>
+    <row r="40" spans="2:15" ht="43" hidden="1" thickTop="1">
+      <c r="B40" s="80">
         <v>11405</v>
       </c>
       <c r="C40" s="25" t="s">
@@ -12089,3072 +12283,3168 @@
       <c r="H40" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29" t="s">
-        <v>1047</v>
-      </c>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
+      <c r="I40" s="29" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J40" s="86" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K40" s="29">
+        <v>1</v>
+      </c>
+      <c r="L40" s="29">
+        <v>320</v>
+      </c>
+      <c r="M40" s="29">
+        <v>8.0078000000000007E-3</v>
+      </c>
       <c r="N40" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="31"/>
-    </row>
-    <row r="41" spans="2:15" ht="28">
-      <c r="B41" s="32">
+        <v>2.5624960000000003</v>
+      </c>
+      <c r="O40" s="31" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" ht="43" hidden="1" thickTop="1">
+      <c r="B41" s="80">
+        <v>11405</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="D41" s="26">
+        <v>52176</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>874</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I41" s="29" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J41" s="86" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K41" s="29">
+        <v>2</v>
+      </c>
+      <c r="L41" s="29">
+        <v>320</v>
+      </c>
+      <c r="M41" s="29">
+        <v>0.112109</v>
+      </c>
+      <c r="N41" s="30">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>35.874879999999997</v>
+      </c>
+      <c r="O41" s="31" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="29" thickTop="1">
+      <c r="B42" s="84">
         <v>11421</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C42" s="33" t="s">
         <v>875</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D42" s="34">
         <v>97950</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E42" s="35" t="s">
         <v>876</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F42" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G42" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H42" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37" t="s">
+      <c r="I42" s="37"/>
+      <c r="J42" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="38">
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O41" s="39"/>
-    </row>
-    <row r="42" spans="2:15" ht="28">
-      <c r="B42" s="24">
+      <c r="O42" s="39"/>
+    </row>
+    <row r="43" spans="2:15" ht="28">
+      <c r="B43" s="85">
         <v>11417</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C43" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D43" s="26">
         <v>92550</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E43" s="27" t="s">
         <v>878</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F43" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G43" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="H43" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29" t="s">
+      <c r="I43" s="29"/>
+      <c r="J43" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="30">
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O42" s="31"/>
-    </row>
-    <row r="43" spans="2:15" ht="28">
-      <c r="B43" s="32">
+      <c r="O43" s="31"/>
+    </row>
+    <row r="44" spans="2:15" ht="28">
+      <c r="B44" s="84">
         <v>11415</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C44" s="33" t="s">
         <v>879</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D44" s="34">
         <v>38850</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E44" s="35" t="s">
         <v>880</v>
       </c>
-      <c r="F43" s="35" t="s">
+      <c r="F44" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G43" s="35" t="s">
+      <c r="G44" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="H44" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37" t="s">
+      <c r="I44" s="37"/>
+      <c r="J44" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="38">
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O43" s="39"/>
-    </row>
-    <row r="44" spans="2:15" ht="28">
-      <c r="B44" s="24">
+      <c r="O44" s="39"/>
+    </row>
+    <row r="45" spans="2:15" ht="28">
+      <c r="B45" s="85">
         <v>11379</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C45" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D45" s="26">
         <v>61450</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E45" s="27" t="s">
         <v>882</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F45" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G45" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H44" s="28" t="s">
+      <c r="H45" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29" t="s">
+      <c r="I45" s="29"/>
+      <c r="J45" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="30">
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O44" s="31"/>
-    </row>
-    <row r="45" spans="2:15" ht="28">
-      <c r="B45" s="32">
+      <c r="O45" s="31"/>
+    </row>
+    <row r="46" spans="2:15" ht="28" hidden="1">
+      <c r="B46" s="32">
         <v>11376</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C46" s="33" t="s">
         <v>883</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D46" s="34">
         <v>10855.6</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E46" s="35" t="s">
         <v>884</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F46" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G45" s="35" t="s">
+      <c r="G46" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H46" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37" t="s">
+      <c r="I46" s="37"/>
+      <c r="J46" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="38">
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O45" s="39"/>
-    </row>
-    <row r="46" spans="2:15" ht="28">
-      <c r="B46" s="24">
+      <c r="O46" s="39"/>
+    </row>
+    <row r="47" spans="2:15" ht="28">
+      <c r="B47" s="85">
         <v>11232</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C47" s="25" t="s">
         <v>885</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D47" s="26">
         <v>218350</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E47" s="27" t="s">
         <v>886</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F47" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G47" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H46" s="28" t="s">
+      <c r="H47" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29" t="s">
+      <c r="I47" s="29"/>
+      <c r="J47" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="30">
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O46" s="31"/>
-    </row>
-    <row r="47" spans="2:15" ht="28">
-      <c r="B47" s="32">
+      <c r="O47" s="31"/>
+    </row>
+    <row r="48" spans="2:15" ht="28">
+      <c r="B48" s="84">
         <v>11231</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C48" s="33" t="s">
         <v>887</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D48" s="34">
         <v>8200</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E48" s="35" t="s">
         <v>888</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F48" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G47" s="35" t="s">
+      <c r="G48" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H47" s="36" t="s">
+      <c r="H48" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37" t="s">
+      <c r="I48" s="37"/>
+      <c r="J48" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="38">
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O47" s="39"/>
-    </row>
-    <row r="48" spans="2:15" ht="28">
-      <c r="B48" s="24">
+      <c r="O48" s="39"/>
+    </row>
+    <row r="49" spans="2:15" ht="28">
+      <c r="B49" s="85">
         <v>11230</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C49" s="25" t="s">
         <v>889</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D49" s="26">
         <v>100550</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E49" s="27" t="s">
         <v>890</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F49" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G49" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H48" s="28" t="s">
+      <c r="H49" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29" t="s">
+      <c r="I49" s="29"/>
+      <c r="J49" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="29"/>
-      <c r="N48" s="30">
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O48" s="31"/>
-    </row>
-    <row r="49" spans="2:15" ht="28">
-      <c r="B49" s="32">
+      <c r="O49" s="31"/>
+    </row>
+    <row r="50" spans="2:15" ht="28">
+      <c r="B50" s="84">
         <v>11228</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C50" s="33" t="s">
         <v>891</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D50" s="34">
         <v>10300</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E50" s="35" t="s">
         <v>892</v>
       </c>
-      <c r="F49" s="35" t="s">
+      <c r="F50" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G49" s="35" t="s">
+      <c r="G50" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H49" s="36" t="s">
+      <c r="H50" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37" t="s">
+      <c r="I50" s="37"/>
+      <c r="J50" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="38">
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O49" s="39"/>
-    </row>
-    <row r="50" spans="2:15" ht="28">
-      <c r="B50" s="24">
+      <c r="O50" s="39"/>
+    </row>
+    <row r="51" spans="2:15" ht="28">
+      <c r="B51" s="85">
         <v>11225</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D51" s="26">
         <v>21550</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E51" s="27" t="s">
         <v>894</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F51" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G51" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H50" s="28" t="s">
+      <c r="H51" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29" t="s">
+      <c r="I51" s="29"/>
+      <c r="J51" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="30">
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O50" s="31"/>
-    </row>
-    <row r="51" spans="2:15" ht="28">
-      <c r="B51" s="32">
+      <c r="O51" s="31"/>
+    </row>
+    <row r="52" spans="2:15" ht="28" hidden="1">
+      <c r="B52" s="32">
         <v>11224</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C52" s="33" t="s">
         <v>895</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D52" s="34">
         <v>8362.75</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E52" s="35" t="s">
         <v>896</v>
       </c>
-      <c r="F51" s="35" t="s">
+      <c r="F52" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="35" t="s">
+      <c r="G52" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H51" s="36" t="s">
+      <c r="H52" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37" t="s">
+      <c r="I52" s="37"/>
+      <c r="J52" s="92" t="s">
         <v>1048</v>
       </c>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="38">
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O51" s="39"/>
-    </row>
-    <row r="52" spans="2:15" ht="28">
-      <c r="B52" s="24">
+      <c r="O52" s="39"/>
+    </row>
+    <row r="53" spans="2:15" ht="28" hidden="1">
+      <c r="B53" s="24">
         <v>11223</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C53" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="D52" s="26">
+      <c r="D53" s="26">
         <v>77175</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E53" s="27" t="s">
         <v>898</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F53" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G53" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H52" s="28" t="s">
+      <c r="H53" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="29" t="s">
+      <c r="I53" s="29"/>
+      <c r="J53" s="86" t="s">
         <v>1047</v>
       </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="30">
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O52" s="31"/>
-    </row>
-    <row r="53" spans="2:15" ht="42">
-      <c r="B53" s="32">
+      <c r="O53" s="31"/>
+    </row>
+    <row r="54" spans="2:15" ht="42" hidden="1">
+      <c r="B54" s="32">
         <v>10877</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C54" s="33" t="s">
         <v>899</v>
       </c>
-      <c r="D53" s="34">
+      <c r="D54" s="34">
         <v>85115</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E54" s="35" t="s">
         <v>900</v>
       </c>
-      <c r="F53" s="35" t="s">
+      <c r="F54" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G53" s="35" t="s">
+      <c r="G54" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H53" s="36" t="s">
+      <c r="H54" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37" t="s">
+      <c r="I54" s="37"/>
+      <c r="J54" s="87" t="s">
         <v>1047</v>
       </c>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="38">
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O53" s="39"/>
-    </row>
-    <row r="54" spans="2:15" ht="42">
-      <c r="B54" s="24">
+      <c r="O54" s="39"/>
+    </row>
+    <row r="55" spans="2:15" ht="42" hidden="1">
+      <c r="B55" s="24">
         <v>10878</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="C55" s="25" t="s">
         <v>901</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D55" s="26">
         <v>77615</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E55" s="27" t="s">
         <v>900</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F55" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="G55" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="H55" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29" t="s">
+      <c r="I55" s="29"/>
+      <c r="J55" s="86" t="s">
         <v>1047</v>
       </c>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="30">
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O54" s="31"/>
-    </row>
-    <row r="55" spans="2:15" ht="42">
-      <c r="B55" s="32">
+      <c r="O55" s="31"/>
+    </row>
+    <row r="56" spans="2:15" ht="42" hidden="1">
+      <c r="B56" s="32">
         <v>10881</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C56" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="D55" s="34">
+      <c r="D56" s="34">
         <v>300175</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E56" s="35" t="s">
         <v>900</v>
       </c>
-      <c r="F55" s="35" t="s">
+      <c r="F56" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G55" s="35" t="s">
+      <c r="G56" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H56" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37" t="s">
+      <c r="I56" s="37"/>
+      <c r="J56" s="87" t="s">
         <v>1047</v>
       </c>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="38">
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O55" s="39"/>
-    </row>
-    <row r="56" spans="2:15" ht="42">
-      <c r="B56" s="24">
+      <c r="O56" s="39"/>
+    </row>
+    <row r="57" spans="2:15" ht="42">
+      <c r="B57" s="85">
         <v>10882</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C57" s="25" t="s">
         <v>903</v>
       </c>
-      <c r="D56" s="26">
+      <c r="D57" s="26">
         <v>65790</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E57" s="27" t="s">
         <v>904</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F57" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="27" t="s">
+      <c r="G57" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="H57" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29" t="s">
-        <v>1047</v>
-      </c>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="30">
+      <c r="I57" s="29"/>
+      <c r="J57" s="92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O56" s="31"/>
-    </row>
-    <row r="57" spans="2:15" ht="56">
-      <c r="B57" s="32">
+      <c r="O57" s="31"/>
+    </row>
+    <row r="58" spans="2:15" ht="56" hidden="1">
+      <c r="B58" s="32">
         <v>10880</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C58" s="33" t="s">
         <v>905</v>
       </c>
-      <c r="D57" s="34">
+      <c r="D58" s="34">
         <v>6115</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E58" s="35" t="s">
         <v>906</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="F58" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G57" s="35" t="s">
+      <c r="G58" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H57" s="36" t="s">
+      <c r="H58" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37" t="s">
+      <c r="I58" s="37"/>
+      <c r="J58" s="87" t="s">
         <v>1047</v>
       </c>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="38">
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O57" s="39"/>
-    </row>
-    <row r="58" spans="2:15" ht="42">
-      <c r="B58" s="24">
+      <c r="O58" s="39"/>
+    </row>
+    <row r="59" spans="2:15" ht="42" hidden="1">
+      <c r="B59" s="24">
         <v>10657</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C59" s="25" t="s">
         <v>907</v>
       </c>
-      <c r="D58" s="26">
+      <c r="D59" s="26">
         <v>10155</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E59" s="27" t="s">
         <v>908</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F59" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G58" s="27" t="s">
+      <c r="G59" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="H59" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="30">
+      <c r="I59" s="29"/>
+      <c r="J59" s="86"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O58" s="31"/>
-    </row>
-    <row r="59" spans="2:15" ht="42">
-      <c r="B59" s="32">
+      <c r="O59" s="31"/>
+    </row>
+    <row r="60" spans="2:15" ht="42" hidden="1">
+      <c r="B60" s="32">
         <v>10655</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C60" s="33" t="s">
         <v>909</v>
       </c>
-      <c r="D59" s="34">
+      <c r="D60" s="34">
         <v>16115</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E60" s="35" t="s">
         <v>910</v>
       </c>
-      <c r="F59" s="35" t="s">
+      <c r="F60" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G59" s="35" t="s">
+      <c r="G60" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H60" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="38">
+      <c r="I60" s="37"/>
+      <c r="J60" s="87"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O59" s="39"/>
-    </row>
-    <row r="60" spans="2:15" ht="28">
-      <c r="B60" s="24">
+      <c r="O60" s="39"/>
+    </row>
+    <row r="61" spans="2:15" ht="28" hidden="1">
+      <c r="B61" s="24">
         <v>10205</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D61" s="26">
         <v>1385</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E61" s="27" t="s">
         <v>912</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F61" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G61" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="H61" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="30">
+      <c r="I61" s="29"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O60" s="31"/>
-    </row>
-    <row r="61" spans="2:15" ht="42">
-      <c r="B61" s="32">
+      <c r="O61" s="31"/>
+    </row>
+    <row r="62" spans="2:15" ht="42">
+      <c r="B62" s="84">
         <v>10204</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C62" s="33" t="s">
         <v>913</v>
       </c>
-      <c r="D61" s="34">
+      <c r="D62" s="34">
         <v>2245</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E62" s="35" t="s">
         <v>914</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F62" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G61" s="35" t="s">
+      <c r="G62" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="H62" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="38">
+      <c r="I62" s="37"/>
+      <c r="J62" s="92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O61" s="39"/>
-    </row>
-    <row r="62" spans="2:15" ht="28">
-      <c r="B62" s="24">
+      <c r="O62" s="39"/>
+    </row>
+    <row r="63" spans="2:15" ht="28" hidden="1">
+      <c r="B63" s="24">
         <v>9497</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C63" s="25" t="s">
         <v>915</v>
       </c>
-      <c r="D62" s="26">
+      <c r="D63" s="26">
         <v>25150</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E63" s="27" t="s">
         <v>916</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F63" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G63" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H62" s="28" t="s">
+      <c r="H63" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I62" s="29"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="30">
+      <c r="I63" s="29"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O62" s="31"/>
-    </row>
-    <row r="63" spans="2:15" ht="42">
-      <c r="B63" s="32">
+      <c r="O63" s="31"/>
+    </row>
+    <row r="64" spans="2:15" ht="42">
+      <c r="B64" s="84">
         <v>8658</v>
       </c>
-      <c r="C63" s="33" t="s">
+      <c r="C64" s="33" t="s">
         <v>917</v>
       </c>
-      <c r="D63" s="34">
+      <c r="D64" s="34">
         <v>25160</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E64" s="35" t="s">
         <v>918</v>
       </c>
-      <c r="F63" s="35" t="s">
+      <c r="F64" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G63" s="35" t="s">
+      <c r="G64" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H64" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="38">
+      <c r="I64" s="37"/>
+      <c r="J64" s="92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O63" s="39"/>
-    </row>
-    <row r="64" spans="2:15" ht="28">
-      <c r="B64" s="24">
+      <c r="O64" s="39"/>
+    </row>
+    <row r="65" spans="2:15" ht="28">
+      <c r="B65" s="85">
         <v>8659</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C65" s="25" t="s">
         <v>919</v>
       </c>
-      <c r="D64" s="26">
+      <c r="D65" s="26">
         <v>10490</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E65" s="27" t="s">
         <v>920</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F65" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G65" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H64" s="28" t="s">
+      <c r="H65" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I64" s="29"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="30">
+      <c r="I65" s="29"/>
+      <c r="J65" s="92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O64" s="31"/>
-    </row>
-    <row r="65" spans="2:15" ht="28">
-      <c r="B65" s="32">
+      <c r="O65" s="31"/>
+    </row>
+    <row r="66" spans="2:15" ht="28">
+      <c r="B66" s="84">
         <v>8475</v>
       </c>
-      <c r="C65" s="33" t="s">
+      <c r="C66" s="33" t="s">
         <v>921</v>
       </c>
-      <c r="D65" s="34">
+      <c r="D66" s="34">
         <v>10050</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E66" s="35" t="s">
         <v>922</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F66" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G65" s="35" t="s">
+      <c r="G66" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H65" s="36" t="s">
+      <c r="H66" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="38">
+      <c r="I66" s="37"/>
+      <c r="J66" s="92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O65" s="39"/>
-    </row>
-    <row r="66" spans="2:15" ht="42">
-      <c r="B66" s="24">
+      <c r="O66" s="39"/>
+    </row>
+    <row r="67" spans="2:15" ht="42" hidden="1">
+      <c r="B67" s="24">
         <v>8315</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>923</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D67" s="26">
         <v>25650</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E67" s="27" t="s">
         <v>924</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F67" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G66" s="27" t="s">
+      <c r="G67" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H66" s="28" t="s">
+      <c r="H67" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="30">
+      <c r="I67" s="29"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O66" s="31"/>
-    </row>
-    <row r="67" spans="2:15" ht="28">
-      <c r="B67" s="32">
+      <c r="O67" s="31"/>
+    </row>
+    <row r="68" spans="2:15" ht="28">
+      <c r="B68" s="84">
         <v>8414</v>
       </c>
-      <c r="C67" s="33" t="s">
+      <c r="C68" s="33" t="s">
         <v>925</v>
       </c>
-      <c r="D67" s="34">
+      <c r="D68" s="34">
         <v>20350</v>
       </c>
-      <c r="E67" s="35" t="s">
+      <c r="E68" s="35" t="s">
         <v>926</v>
       </c>
-      <c r="F67" s="35" t="s">
+      <c r="F68" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G67" s="35" t="s">
+      <c r="G68" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H67" s="36" t="s">
+      <c r="H68" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="38">
+      <c r="I68" s="37"/>
+      <c r="J68" s="92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O67" s="39"/>
-    </row>
-    <row r="68" spans="2:15" ht="42">
-      <c r="B68" s="24">
+      <c r="O68" s="39"/>
+    </row>
+    <row r="69" spans="2:15" ht="42" hidden="1">
+      <c r="B69" s="24">
         <v>7800</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="C69" s="25" t="s">
         <v>927</v>
       </c>
-      <c r="D68" s="26">
+      <c r="D69" s="26">
         <v>140150</v>
       </c>
-      <c r="E68" s="27" t="s">
+      <c r="E69" s="27" t="s">
         <v>928</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F69" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G68" s="27" t="s">
+      <c r="G69" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H68" s="28" t="s">
+      <c r="H69" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="30">
+      <c r="I69" s="29"/>
+      <c r="J69" s="86"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O68" s="31"/>
-    </row>
-    <row r="69" spans="2:15" ht="28">
-      <c r="B69" s="32">
+      <c r="O69" s="31"/>
+    </row>
+    <row r="70" spans="2:15" ht="28" hidden="1">
+      <c r="B70" s="32">
         <v>7897</v>
       </c>
-      <c r="C69" s="33" t="s">
+      <c r="C70" s="33" t="s">
         <v>929</v>
       </c>
-      <c r="D69" s="34">
+      <c r="D70" s="34">
         <v>56550</v>
       </c>
-      <c r="E69" s="35" t="s">
+      <c r="E70" s="35" t="s">
         <v>930</v>
       </c>
-      <c r="F69" s="35" t="s">
+      <c r="F70" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G69" s="35" t="s">
+      <c r="G70" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H69" s="36" t="s">
+      <c r="H70" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="38">
+      <c r="I70" s="37"/>
+      <c r="J70" s="87"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O69" s="39"/>
-    </row>
-    <row r="70" spans="2:15" ht="28">
-      <c r="B70" s="24">
+      <c r="O70" s="39"/>
+    </row>
+    <row r="71" spans="2:15" ht="28">
+      <c r="B71" s="85">
         <v>7425</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C71" s="25" t="s">
         <v>931</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D71" s="26">
         <v>140150</v>
       </c>
-      <c r="E70" s="27" t="s">
+      <c r="E71" s="27" t="s">
         <v>932</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F71" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="G71" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H70" s="28" t="s">
+      <c r="H71" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="30">
+      <c r="I71" s="29"/>
+      <c r="J71" s="92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O70" s="31"/>
-    </row>
-    <row r="71" spans="2:15" ht="42">
-      <c r="B71" s="32">
+      <c r="O71" s="31"/>
+    </row>
+    <row r="72" spans="2:15" ht="42" hidden="1">
+      <c r="B72" s="32">
         <v>7219</v>
       </c>
-      <c r="C71" s="33" t="s">
+      <c r="C72" s="33" t="s">
         <v>933</v>
       </c>
-      <c r="D71" s="34">
+      <c r="D72" s="34">
         <v>4800</v>
       </c>
-      <c r="E71" s="35" t="s">
+      <c r="E72" s="35" t="s">
         <v>934</v>
       </c>
-      <c r="F71" s="35" t="s">
+      <c r="F72" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G71" s="35" t="s">
+      <c r="G72" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H71" s="36" t="s">
+      <c r="H72" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="38">
+      <c r="I72" s="37"/>
+      <c r="J72" s="87"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O71" s="39"/>
-    </row>
-    <row r="72" spans="2:15" ht="28">
-      <c r="B72" s="24">
+      <c r="O72" s="39"/>
+    </row>
+    <row r="73" spans="2:15" ht="28" hidden="1">
+      <c r="B73" s="24">
         <v>7399</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C73" s="25" t="s">
         <v>935</v>
       </c>
-      <c r="D72" s="26">
+      <c r="D73" s="26">
         <v>62950</v>
       </c>
-      <c r="E72" s="27" t="s">
+      <c r="E73" s="27" t="s">
         <v>936</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F73" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G72" s="27" t="s">
+      <c r="G73" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H72" s="28" t="s">
+      <c r="H73" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I72" s="29"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="30">
+      <c r="I73" s="29"/>
+      <c r="J73" s="86"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O72" s="31"/>
-    </row>
-    <row r="73" spans="2:15" ht="28">
-      <c r="B73" s="32">
+      <c r="O73" s="31"/>
+    </row>
+    <row r="74" spans="2:15" ht="28">
+      <c r="B74" s="84">
         <v>7342</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C74" s="33" t="s">
         <v>937</v>
       </c>
-      <c r="D73" s="34">
+      <c r="D74" s="34">
         <v>182150</v>
       </c>
-      <c r="E73" s="35" t="s">
+      <c r="E74" s="35" t="s">
         <v>938</v>
       </c>
-      <c r="F73" s="35" t="s">
+      <c r="F74" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G73" s="35" t="s">
+      <c r="G74" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H73" s="36" t="s">
+      <c r="H74" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="38">
+      <c r="I74" s="37"/>
+      <c r="J74" s="92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O73" s="39"/>
-    </row>
-    <row r="74" spans="2:15" ht="28">
-      <c r="B74" s="24">
+      <c r="O74" s="39"/>
+    </row>
+    <row r="75" spans="2:15" ht="28">
+      <c r="B75" s="85">
         <v>7341</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C75" s="25" t="s">
         <v>939</v>
       </c>
-      <c r="D74" s="26">
+      <c r="D75" s="26">
         <v>8350</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E75" s="27" t="s">
         <v>940</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F75" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G74" s="27" t="s">
+      <c r="G75" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H74" s="28" t="s">
+      <c r="H75" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I74" s="29"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="30">
+      <c r="I75" s="29"/>
+      <c r="J75" s="92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K75" s="29"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O74" s="31"/>
-    </row>
-    <row r="75" spans="2:15" ht="28">
-      <c r="B75" s="32">
+      <c r="O75" s="31"/>
+    </row>
+    <row r="76" spans="2:15" ht="28">
+      <c r="B76" s="84">
         <v>7297</v>
       </c>
-      <c r="C75" s="33" t="s">
+      <c r="C76" s="33" t="s">
         <v>941</v>
       </c>
-      <c r="D75" s="34">
+      <c r="D76" s="34">
         <v>17750</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E76" s="35" t="s">
         <v>942</v>
       </c>
-      <c r="F75" s="35" t="s">
+      <c r="F76" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="35" t="s">
+      <c r="G76" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H75" s="36" t="s">
+      <c r="H76" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="38">
+      <c r="I76" s="37"/>
+      <c r="J76" s="92" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O75" s="39"/>
-    </row>
-    <row r="76" spans="2:15" ht="28">
-      <c r="B76" s="24">
+      <c r="O76" s="39"/>
+    </row>
+    <row r="77" spans="2:15" ht="28" hidden="1">
+      <c r="B77" s="24">
         <v>7296</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="C77" s="25" t="s">
         <v>943</v>
       </c>
-      <c r="D76" s="26">
+      <c r="D77" s="26">
         <v>1750</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E77" s="27" t="s">
         <v>944</v>
       </c>
-      <c r="F76" s="27" t="s">
+      <c r="F77" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G76" s="27" t="s">
+      <c r="G77" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H76" s="28" t="s">
+      <c r="H77" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I76" s="29"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="30">
+      <c r="I77" s="29"/>
+      <c r="J77" s="86"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O76" s="31"/>
-    </row>
-    <row r="77" spans="2:15" ht="28">
-      <c r="B77" s="32">
+      <c r="O77" s="31"/>
+    </row>
+    <row r="78" spans="2:15" ht="28" hidden="1">
+      <c r="B78" s="32">
         <v>7295</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C78" s="33" t="s">
         <v>945</v>
       </c>
-      <c r="D77" s="34">
+      <c r="D78" s="34">
         <v>975</v>
       </c>
-      <c r="E77" s="35" t="s">
+      <c r="E78" s="35" t="s">
         <v>946</v>
       </c>
-      <c r="F77" s="35" t="s">
+      <c r="F78" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G77" s="35" t="s">
+      <c r="G78" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H77" s="36" t="s">
+      <c r="H78" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="38">
+      <c r="I78" s="37"/>
+      <c r="J78" s="87"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O77" s="39"/>
-    </row>
-    <row r="78" spans="2:15" ht="28">
-      <c r="B78" s="24">
+      <c r="O78" s="39"/>
+    </row>
+    <row r="79" spans="2:15" ht="28" hidden="1">
+      <c r="B79" s="24">
         <v>7290</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="C79" s="25" t="s">
         <v>947</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D79" s="26">
         <v>1450</v>
       </c>
-      <c r="E78" s="27" t="s">
+      <c r="E79" s="27" t="s">
         <v>948</v>
       </c>
-      <c r="F78" s="27" t="s">
+      <c r="F79" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G78" s="27" t="s">
+      <c r="G79" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H78" s="28" t="s">
+      <c r="H79" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I78" s="29"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="30">
+      <c r="I79" s="29"/>
+      <c r="J79" s="86"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O78" s="31"/>
-    </row>
-    <row r="79" spans="2:15" ht="28">
-      <c r="B79" s="32">
+      <c r="O79" s="31"/>
+    </row>
+    <row r="80" spans="2:15" ht="28" hidden="1">
+      <c r="B80" s="32">
         <v>7101</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C80" s="33" t="s">
         <v>949</v>
       </c>
-      <c r="D79" s="34">
+      <c r="D80" s="34">
         <v>75200</v>
       </c>
-      <c r="E79" s="35" t="s">
+      <c r="E80" s="35" t="s">
         <v>950</v>
       </c>
-      <c r="F79" s="35" t="s">
+      <c r="F80" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G79" s="35" t="s">
+      <c r="G80" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H79" s="36" t="s">
+      <c r="H80" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="37"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="38">
+      <c r="I80" s="37"/>
+      <c r="J80" s="87"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O79" s="39"/>
-    </row>
-    <row r="80" spans="2:15" ht="28">
-      <c r="B80" s="24">
+      <c r="O80" s="39"/>
+    </row>
+    <row r="81" spans="2:15" ht="28" hidden="1">
+      <c r="B81" s="24">
         <v>7097</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C81" s="25" t="s">
         <v>951</v>
       </c>
-      <c r="D80" s="26">
+      <c r="D81" s="26">
         <v>4350</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="E81" s="27" t="s">
         <v>952</v>
       </c>
-      <c r="F80" s="27" t="s">
+      <c r="F81" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G80" s="27" t="s">
+      <c r="G81" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H80" s="28" t="s">
+      <c r="H81" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="30">
+      <c r="I81" s="29"/>
+      <c r="J81" s="86"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="29"/>
+      <c r="N81" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O80" s="31"/>
-    </row>
-    <row r="81" spans="2:15" ht="28">
-      <c r="B81" s="32">
+      <c r="O81" s="31"/>
+    </row>
+    <row r="82" spans="2:15" ht="28" hidden="1">
+      <c r="B82" s="32">
         <v>7094</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C82" s="33" t="s">
         <v>953</v>
       </c>
-      <c r="D81" s="34">
+      <c r="D82" s="34">
         <v>24550</v>
       </c>
-      <c r="E81" s="35" t="s">
+      <c r="E82" s="35" t="s">
         <v>954</v>
       </c>
-      <c r="F81" s="35" t="s">
+      <c r="F82" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G81" s="35" t="s">
+      <c r="G82" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H81" s="36" t="s">
+      <c r="H82" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="37"/>
-      <c r="L81" s="37"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="38">
+      <c r="I82" s="37"/>
+      <c r="J82" s="87"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O81" s="39"/>
-    </row>
-    <row r="82" spans="2:15" ht="28">
-      <c r="B82" s="24">
+      <c r="O82" s="39"/>
+    </row>
+    <row r="83" spans="2:15" ht="28" hidden="1">
+      <c r="B83" s="24">
         <v>6879</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C83" s="25" t="s">
         <v>955</v>
       </c>
-      <c r="D82" s="26">
+      <c r="D83" s="26">
         <v>3800</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E83" s="27" t="s">
         <v>956</v>
       </c>
-      <c r="F82" s="27" t="s">
+      <c r="F83" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G82" s="27" t="s">
+      <c r="G83" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H82" s="28" t="s">
+      <c r="H83" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="30">
+      <c r="I83" s="29"/>
+      <c r="J83" s="86"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="29"/>
+      <c r="N83" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O82" s="31"/>
-    </row>
-    <row r="83" spans="2:15" ht="28">
-      <c r="B83" s="32">
+      <c r="O83" s="31"/>
+    </row>
+    <row r="84" spans="2:15" ht="28" hidden="1">
+      <c r="B84" s="32">
         <v>6878</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C84" s="33" t="s">
         <v>957</v>
       </c>
-      <c r="D83" s="34">
+      <c r="D84" s="34">
         <v>6700</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E84" s="35" t="s">
         <v>958</v>
       </c>
-      <c r="F83" s="35" t="s">
+      <c r="F84" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G83" s="35" t="s">
+      <c r="G84" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H83" s="36" t="s">
+      <c r="H84" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-      <c r="L83" s="37"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="38">
+      <c r="I84" s="37"/>
+      <c r="J84" s="87"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O83" s="39"/>
-    </row>
-    <row r="84" spans="2:15" ht="28">
-      <c r="B84" s="24">
+      <c r="O84" s="39"/>
+    </row>
+    <row r="85" spans="2:15" ht="28" hidden="1">
+      <c r="B85" s="24">
         <v>6848</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="C85" s="25" t="s">
         <v>959</v>
       </c>
-      <c r="D84" s="26">
+      <c r="D85" s="26">
         <v>32550</v>
       </c>
-      <c r="E84" s="27" t="s">
+      <c r="E85" s="27" t="s">
         <v>960</v>
       </c>
-      <c r="F84" s="27" t="s">
+      <c r="F85" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G84" s="27" t="s">
+      <c r="G85" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H84" s="28" t="s">
+      <c r="H85" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="30">
+      <c r="I85" s="29"/>
+      <c r="J85" s="86"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O84" s="31"/>
-    </row>
-    <row r="85" spans="2:15" ht="28">
-      <c r="B85" s="32">
+      <c r="O85" s="31"/>
+    </row>
+    <row r="86" spans="2:15" ht="28" hidden="1">
+      <c r="B86" s="32">
         <v>6752</v>
       </c>
-      <c r="C85" s="33" t="s">
+      <c r="C86" s="33" t="s">
         <v>961</v>
       </c>
-      <c r="D85" s="34">
+      <c r="D86" s="34">
         <v>10250</v>
       </c>
-      <c r="E85" s="35" t="s">
+      <c r="E86" s="35" t="s">
         <v>962</v>
       </c>
-      <c r="F85" s="35" t="s">
+      <c r="F86" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G85" s="35" t="s">
+      <c r="G86" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H85" s="36" t="s">
+      <c r="H86" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="38">
+      <c r="I86" s="37"/>
+      <c r="J86" s="87"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O85" s="39"/>
-    </row>
-    <row r="86" spans="2:15" ht="28">
-      <c r="B86" s="24">
+      <c r="O86" s="39"/>
+    </row>
+    <row r="87" spans="2:15" ht="28" hidden="1">
+      <c r="B87" s="24">
         <v>6744</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C87" s="25" t="s">
         <v>963</v>
       </c>
-      <c r="D86" s="26">
+      <c r="D87" s="26">
         <v>14950</v>
       </c>
-      <c r="E86" s="27" t="s">
+      <c r="E87" s="27" t="s">
         <v>964</v>
       </c>
-      <c r="F86" s="27" t="s">
+      <c r="F87" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G86" s="27" t="s">
+      <c r="G87" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H86" s="28" t="s">
+      <c r="H87" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I86" s="29"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="30">
+      <c r="I87" s="29"/>
+      <c r="J87" s="86"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O86" s="31"/>
-    </row>
-    <row r="87" spans="2:15" ht="28">
-      <c r="B87" s="32">
+      <c r="O87" s="31"/>
+    </row>
+    <row r="88" spans="2:15" ht="28" hidden="1">
+      <c r="B88" s="32">
         <v>6294</v>
       </c>
-      <c r="C87" s="33" t="s">
+      <c r="C88" s="33" t="s">
         <v>965</v>
       </c>
-      <c r="D87" s="34">
+      <c r="D88" s="34">
         <v>21320</v>
       </c>
-      <c r="E87" s="35" t="s">
+      <c r="E88" s="35" t="s">
         <v>966</v>
       </c>
-      <c r="F87" s="35" t="s">
+      <c r="F88" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G87" s="35" t="s">
+      <c r="G88" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H87" s="36" t="s">
+      <c r="H88" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="38">
+      <c r="I88" s="37"/>
+      <c r="J88" s="87"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O87" s="39"/>
-    </row>
-    <row r="88" spans="2:15" ht="28">
-      <c r="B88" s="24">
+      <c r="O88" s="39"/>
+    </row>
+    <row r="89" spans="2:15" ht="28" hidden="1">
+      <c r="B89" s="24">
         <v>6293</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="C89" s="25" t="s">
         <v>967</v>
       </c>
-      <c r="D88" s="26">
+      <c r="D89" s="26">
         <v>7095</v>
       </c>
-      <c r="E88" s="27" t="s">
+      <c r="E89" s="27" t="s">
         <v>968</v>
       </c>
-      <c r="F88" s="27" t="s">
+      <c r="F89" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G88" s="27" t="s">
+      <c r="G89" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H88" s="28" t="s">
+      <c r="H89" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I88" s="29"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="30">
+      <c r="I89" s="29"/>
+      <c r="J89" s="86"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O88" s="31"/>
-    </row>
-    <row r="89" spans="2:15" ht="28">
-      <c r="B89" s="32">
+      <c r="O89" s="31"/>
+    </row>
+    <row r="90" spans="2:15" ht="28" hidden="1">
+      <c r="B90" s="32">
         <v>6292</v>
       </c>
-      <c r="C89" s="33" t="s">
+      <c r="C90" s="33" t="s">
         <v>969</v>
       </c>
-      <c r="D89" s="34">
+      <c r="D90" s="34">
         <v>66285</v>
       </c>
-      <c r="E89" s="35" t="s">
+      <c r="E90" s="35" t="s">
         <v>970</v>
       </c>
-      <c r="F89" s="35" t="s">
+      <c r="F90" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G89" s="35" t="s">
+      <c r="G90" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H89" s="36" t="s">
+      <c r="H90" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="38">
+      <c r="I90" s="37"/>
+      <c r="J90" s="87"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O89" s="39"/>
-    </row>
-    <row r="90" spans="2:15" ht="28">
-      <c r="B90" s="24">
+      <c r="O90" s="39"/>
+    </row>
+    <row r="91" spans="2:15" ht="28" hidden="1">
+      <c r="B91" s="24">
         <v>6291</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C91" s="25" t="s">
         <v>971</v>
       </c>
-      <c r="D90" s="26">
+      <c r="D91" s="26">
         <v>416885</v>
       </c>
-      <c r="E90" s="27" t="s">
+      <c r="E91" s="27" t="s">
         <v>972</v>
       </c>
-      <c r="F90" s="27" t="s">
+      <c r="F91" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G90" s="27" t="s">
+      <c r="G91" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H90" s="28" t="s">
+      <c r="H91" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="30">
+      <c r="I91" s="29"/>
+      <c r="J91" s="86"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O90" s="31"/>
-    </row>
-    <row r="91" spans="2:15" ht="28">
-      <c r="B91" s="32">
+      <c r="O91" s="31"/>
+    </row>
+    <row r="92" spans="2:15" ht="28" hidden="1">
+      <c r="B92" s="32">
         <v>6290</v>
       </c>
-      <c r="C91" s="33" t="s">
+      <c r="C92" s="33" t="s">
         <v>973</v>
       </c>
-      <c r="D91" s="34">
+      <c r="D92" s="34">
         <v>22185</v>
       </c>
-      <c r="E91" s="35" t="s">
+      <c r="E92" s="35" t="s">
         <v>974</v>
       </c>
-      <c r="F91" s="35" t="s">
+      <c r="F92" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G91" s="35" t="s">
+      <c r="G92" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H91" s="36" t="s">
+      <c r="H92" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="37"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="38">
+      <c r="I92" s="37"/>
+      <c r="J92" s="87"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O91" s="39"/>
-    </row>
-    <row r="92" spans="2:15" ht="42">
-      <c r="B92" s="24">
+      <c r="O92" s="39"/>
+    </row>
+    <row r="93" spans="2:15" ht="42" hidden="1">
+      <c r="B93" s="24">
         <v>6289</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C93" s="25" t="s">
         <v>975</v>
       </c>
-      <c r="D92" s="26">
+      <c r="D93" s="26">
         <v>5780</v>
       </c>
-      <c r="E92" s="27" t="s">
+      <c r="E93" s="27" t="s">
         <v>976</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F93" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G92" s="27" t="s">
+      <c r="G93" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H92" s="28" t="s">
+      <c r="H93" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I92" s="29"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="30">
+      <c r="I93" s="29"/>
+      <c r="J93" s="86"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="29"/>
+      <c r="N93" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O92" s="31"/>
-    </row>
-    <row r="93" spans="2:15" ht="28">
-      <c r="B93" s="32">
+      <c r="O93" s="31"/>
+    </row>
+    <row r="94" spans="2:15" ht="28" hidden="1">
+      <c r="B94" s="32">
         <v>6288</v>
       </c>
-      <c r="C93" s="33" t="s">
+      <c r="C94" s="33" t="s">
         <v>977</v>
       </c>
-      <c r="D93" s="34">
+      <c r="D94" s="34">
         <v>68285</v>
       </c>
-      <c r="E93" s="35" t="s">
+      <c r="E94" s="35" t="s">
         <v>978</v>
       </c>
-      <c r="F93" s="35" t="s">
+      <c r="F94" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G93" s="35" t="s">
+      <c r="G94" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H93" s="36" t="s">
+      <c r="H94" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="38">
+      <c r="I94" s="37"/>
+      <c r="J94" s="87"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O93" s="39"/>
-    </row>
-    <row r="94" spans="2:15" ht="42">
-      <c r="B94" s="24">
+      <c r="O94" s="39"/>
+    </row>
+    <row r="95" spans="2:15" ht="42" hidden="1">
+      <c r="B95" s="24">
         <v>6286</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C95" s="25" t="s">
         <v>979</v>
       </c>
-      <c r="D94" s="26">
+      <c r="D95" s="26">
         <v>10770</v>
       </c>
-      <c r="E94" s="27" t="s">
+      <c r="E95" s="27" t="s">
         <v>980</v>
       </c>
-      <c r="F94" s="27" t="s">
+      <c r="F95" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G94" s="27" t="s">
+      <c r="G95" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H94" s="28" t="s">
+      <c r="H95" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="30">
+      <c r="I95" s="29"/>
+      <c r="J95" s="86"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O94" s="31"/>
-    </row>
-    <row r="95" spans="2:15" ht="28">
-      <c r="B95" s="32">
+      <c r="O95" s="31"/>
+    </row>
+    <row r="96" spans="2:15" ht="28" hidden="1">
+      <c r="B96" s="32">
         <v>6285</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C96" s="33" t="s">
         <v>981</v>
       </c>
-      <c r="D95" s="34">
+      <c r="D96" s="34">
         <v>11510</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E96" s="35" t="s">
         <v>982</v>
       </c>
-      <c r="F95" s="35" t="s">
+      <c r="F96" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G95" s="35" t="s">
+      <c r="G96" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H95" s="36" t="s">
+      <c r="H96" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="37"/>
-      <c r="L95" s="37"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="38">
+      <c r="I96" s="37"/>
+      <c r="J96" s="87"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O95" s="39"/>
-    </row>
-    <row r="96" spans="2:15" ht="28">
-      <c r="B96" s="24">
+      <c r="O96" s="39"/>
+    </row>
+    <row r="97" spans="2:15" ht="28" hidden="1">
+      <c r="B97" s="24">
         <v>6284</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C97" s="25" t="s">
         <v>983</v>
       </c>
-      <c r="D96" s="26">
+      <c r="D97" s="26">
         <v>64085</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E97" s="27" t="s">
         <v>984</v>
       </c>
-      <c r="F96" s="27" t="s">
+      <c r="F97" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G96" s="27" t="s">
+      <c r="G97" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H96" s="28" t="s">
+      <c r="H97" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="30">
+      <c r="I97" s="29"/>
+      <c r="J97" s="86"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="29"/>
+      <c r="N97" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O96" s="31"/>
-    </row>
-    <row r="97" spans="2:15" ht="42">
-      <c r="B97" s="32">
+      <c r="O97" s="31"/>
+    </row>
+    <row r="98" spans="2:15" ht="42" hidden="1">
+      <c r="B98" s="32">
         <v>6283</v>
       </c>
-      <c r="C97" s="33" t="s">
+      <c r="C98" s="33" t="s">
         <v>985</v>
       </c>
-      <c r="D97" s="34">
+      <c r="D98" s="34">
         <v>4745</v>
       </c>
-      <c r="E97" s="35" t="s">
+      <c r="E98" s="35" t="s">
         <v>986</v>
       </c>
-      <c r="F97" s="35" t="s">
+      <c r="F98" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G97" s="35" t="s">
+      <c r="G98" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H97" s="36" t="s">
+      <c r="H98" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="37"/>
-      <c r="L97" s="37"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="38">
+      <c r="I98" s="37"/>
+      <c r="J98" s="87"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O97" s="39"/>
-    </row>
-    <row r="98" spans="2:15" ht="28">
-      <c r="B98" s="24">
+      <c r="O98" s="39"/>
+    </row>
+    <row r="99" spans="2:15" ht="28" hidden="1">
+      <c r="B99" s="24">
         <v>6282</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C99" s="25" t="s">
         <v>987</v>
       </c>
-      <c r="D98" s="26">
+      <c r="D99" s="26">
         <v>16035</v>
       </c>
-      <c r="E98" s="27" t="s">
+      <c r="E99" s="27" t="s">
         <v>988</v>
       </c>
-      <c r="F98" s="27" t="s">
+      <c r="F99" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G98" s="27" t="s">
+      <c r="G99" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H98" s="28" t="s">
+      <c r="H99" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="30">
+      <c r="I99" s="29"/>
+      <c r="J99" s="86"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O98" s="31"/>
-    </row>
-    <row r="99" spans="2:15" ht="28">
-      <c r="B99" s="32">
+      <c r="O99" s="31"/>
+    </row>
+    <row r="100" spans="2:15" ht="28" hidden="1">
+      <c r="B100" s="32">
         <v>6607</v>
       </c>
-      <c r="C99" s="33" t="s">
+      <c r="C100" s="33" t="s">
         <v>989</v>
       </c>
-      <c r="D99" s="34">
+      <c r="D100" s="34">
         <v>5950</v>
       </c>
-      <c r="E99" s="35" t="s">
+      <c r="E100" s="35" t="s">
         <v>990</v>
       </c>
-      <c r="F99" s="35" t="s">
+      <c r="F100" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G99" s="35" t="s">
+      <c r="G100" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H99" s="36" t="s">
+      <c r="H100" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="37"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="38">
+      <c r="I100" s="37"/>
+      <c r="J100" s="87"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O99" s="39"/>
-    </row>
-    <row r="100" spans="2:15" ht="28">
-      <c r="B100" s="24">
+      <c r="O100" s="39"/>
+    </row>
+    <row r="101" spans="2:15" ht="28" hidden="1">
+      <c r="B101" s="24">
         <v>6598</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C101" s="25" t="s">
         <v>991</v>
       </c>
-      <c r="D100" s="26">
+      <c r="D101" s="26">
         <v>8450</v>
       </c>
-      <c r="E100" s="27" t="s">
+      <c r="E101" s="27" t="s">
         <v>992</v>
       </c>
-      <c r="F100" s="27" t="s">
+      <c r="F101" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G100" s="27" t="s">
+      <c r="G101" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H100" s="28" t="s">
+      <c r="H101" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I100" s="29"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="30">
+      <c r="I101" s="29"/>
+      <c r="J101" s="86"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O100" s="31"/>
-    </row>
-    <row r="101" spans="2:15" ht="28">
-      <c r="B101" s="32">
+      <c r="O101" s="31"/>
+    </row>
+    <row r="102" spans="2:15" ht="28" hidden="1">
+      <c r="B102" s="32">
         <v>6597</v>
       </c>
-      <c r="C101" s="33" t="s">
+      <c r="C102" s="33" t="s">
         <v>993</v>
       </c>
-      <c r="D101" s="34">
+      <c r="D102" s="34">
         <v>11950</v>
       </c>
-      <c r="E101" s="35" t="s">
+      <c r="E102" s="35" t="s">
         <v>994</v>
       </c>
-      <c r="F101" s="35" t="s">
+      <c r="F102" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G101" s="35" t="s">
+      <c r="G102" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H101" s="36" t="s">
+      <c r="H102" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="37"/>
-      <c r="L101" s="37"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="38">
+      <c r="I102" s="37"/>
+      <c r="J102" s="87"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O101" s="39"/>
-    </row>
-    <row r="102" spans="2:15" ht="28">
-      <c r="B102" s="24">
+      <c r="O102" s="39"/>
+    </row>
+    <row r="103" spans="2:15" ht="28" hidden="1">
+      <c r="B103" s="24">
         <v>6596</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="C103" s="25" t="s">
         <v>995</v>
       </c>
-      <c r="D102" s="26">
+      <c r="D103" s="26">
         <v>8650</v>
       </c>
-      <c r="E102" s="27" t="s">
+      <c r="E103" s="27" t="s">
         <v>996</v>
       </c>
-      <c r="F102" s="27" t="s">
+      <c r="F103" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G102" s="27" t="s">
+      <c r="G103" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H102" s="28" t="s">
+      <c r="H103" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="30">
+      <c r="I103" s="29"/>
+      <c r="J103" s="86"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O102" s="31"/>
-    </row>
-    <row r="103" spans="2:15" ht="28">
-      <c r="B103" s="32">
+      <c r="O103" s="31"/>
+    </row>
+    <row r="104" spans="2:15" ht="28" hidden="1">
+      <c r="B104" s="32">
         <v>6591</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C104" s="33" t="s">
         <v>997</v>
       </c>
-      <c r="D103" s="34">
+      <c r="D104" s="34">
         <v>31550</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E104" s="35" t="s">
         <v>998</v>
       </c>
-      <c r="F103" s="35" t="s">
+      <c r="F104" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G103" s="35" t="s">
+      <c r="G104" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H103" s="36" t="s">
+      <c r="H104" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I103" s="37"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="38">
+      <c r="I104" s="37"/>
+      <c r="J104" s="87"/>
+      <c r="K104" s="37"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O103" s="39"/>
-    </row>
-    <row r="104" spans="2:15" ht="28">
-      <c r="B104" s="24">
+      <c r="O104" s="39"/>
+    </row>
+    <row r="105" spans="2:15" ht="28" hidden="1">
+      <c r="B105" s="24">
         <v>6476</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="C105" s="25" t="s">
         <v>999</v>
       </c>
-      <c r="D104" s="26">
+      <c r="D105" s="26">
         <v>3400</v>
       </c>
-      <c r="E104" s="27" t="s">
+      <c r="E105" s="27" t="s">
         <v>1000</v>
       </c>
-      <c r="F104" s="27" t="s">
+      <c r="F105" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G104" s="27" t="s">
+      <c r="G105" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H104" s="28" t="s">
+      <c r="H105" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="30">
+      <c r="I105" s="29"/>
+      <c r="J105" s="86"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="29"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O104" s="31"/>
-    </row>
-    <row r="105" spans="2:15" ht="42">
-      <c r="B105" s="32">
+      <c r="O105" s="31"/>
+    </row>
+    <row r="106" spans="2:15" ht="42" hidden="1">
+      <c r="B106" s="32">
         <v>6473</v>
       </c>
-      <c r="C105" s="33" t="s">
+      <c r="C106" s="33" t="s">
         <v>1001</v>
       </c>
-      <c r="D105" s="34">
+      <c r="D106" s="34">
         <v>39650</v>
       </c>
-      <c r="E105" s="35" t="s">
+      <c r="E106" s="35" t="s">
         <v>1002</v>
       </c>
-      <c r="F105" s="35" t="s">
+      <c r="F106" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G105" s="35" t="s">
+      <c r="G106" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H105" s="36" t="s">
+      <c r="H106" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="37"/>
-      <c r="L105" s="37"/>
-      <c r="M105" s="37"/>
-      <c r="N105" s="38">
+      <c r="I106" s="37"/>
+      <c r="J106" s="87"/>
+      <c r="K106" s="37"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O105" s="39"/>
-    </row>
-    <row r="106" spans="2:15" ht="28">
-      <c r="B106" s="24">
+      <c r="O106" s="39"/>
+    </row>
+    <row r="107" spans="2:15" ht="28" hidden="1">
+      <c r="B107" s="24">
         <v>6508</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="C107" s="25" t="s">
         <v>1003</v>
       </c>
-      <c r="D106" s="26">
+      <c r="D107" s="26">
         <v>1552.25</v>
       </c>
-      <c r="E106" s="27" t="s">
+      <c r="E107" s="27" t="s">
         <v>1004</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F107" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G106" s="27" t="s">
+      <c r="G107" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H106" s="28" t="s">
+      <c r="H107" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I106" s="29"/>
-      <c r="J106" s="29"/>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="30">
+      <c r="I107" s="29"/>
+      <c r="J107" s="86"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="29"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O106" s="31"/>
-    </row>
-    <row r="107" spans="2:15" ht="28">
-      <c r="B107" s="32">
+      <c r="O107" s="31"/>
+    </row>
+    <row r="108" spans="2:15" ht="28" hidden="1">
+      <c r="B108" s="32">
         <v>6507</v>
       </c>
-      <c r="C107" s="33" t="s">
+      <c r="C108" s="33" t="s">
         <v>1005</v>
       </c>
-      <c r="D107" s="34">
+      <c r="D108" s="34">
         <v>2007.5</v>
       </c>
-      <c r="E107" s="35" t="s">
+      <c r="E108" s="35" t="s">
         <v>1006</v>
       </c>
-      <c r="F107" s="35" t="s">
+      <c r="F108" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G107" s="35" t="s">
+      <c r="G108" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H107" s="36" t="s">
+      <c r="H108" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
-      <c r="K107" s="37"/>
-      <c r="L107" s="37"/>
-      <c r="M107" s="37"/>
-      <c r="N107" s="38">
+      <c r="I108" s="37"/>
+      <c r="J108" s="87"/>
+      <c r="K108" s="37"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O107" s="39"/>
-    </row>
-    <row r="108" spans="2:15" ht="42">
-      <c r="B108" s="24">
+      <c r="O108" s="39"/>
+    </row>
+    <row r="109" spans="2:15" ht="42" hidden="1">
+      <c r="B109" s="24">
         <v>5636</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C109" s="25" t="s">
         <v>1007</v>
       </c>
-      <c r="D108" s="26">
+      <c r="D109" s="26">
         <v>25125</v>
       </c>
-      <c r="E108" s="27" t="s">
+      <c r="E109" s="27" t="s">
         <v>1008</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="F109" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G109" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H108" s="28" t="s">
+      <c r="H109" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I108" s="29"/>
-      <c r="J108" s="29"/>
-      <c r="K108" s="29"/>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="30">
+      <c r="I109" s="29"/>
+      <c r="J109" s="86"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O108" s="31"/>
-    </row>
-    <row r="109" spans="2:15" ht="42">
-      <c r="B109" s="32">
+      <c r="O109" s="31"/>
+    </row>
+    <row r="110" spans="2:15" ht="42" hidden="1">
+      <c r="B110" s="32">
         <v>5776</v>
       </c>
-      <c r="C109" s="33" t="s">
+      <c r="C110" s="33" t="s">
         <v>1009</v>
       </c>
-      <c r="D109" s="34">
+      <c r="D110" s="34">
         <v>6185</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E110" s="35" t="s">
         <v>1010</v>
       </c>
-      <c r="F109" s="35" t="s">
+      <c r="F110" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G109" s="35" t="s">
+      <c r="G110" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H109" s="36" t="s">
+      <c r="H110" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I109" s="37"/>
-      <c r="J109" s="37"/>
-      <c r="K109" s="37"/>
-      <c r="L109" s="37"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="38">
+      <c r="I110" s="37"/>
+      <c r="J110" s="87"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O109" s="39"/>
-    </row>
-    <row r="110" spans="2:15" ht="42">
-      <c r="B110" s="24">
+      <c r="O110" s="39"/>
+    </row>
+    <row r="111" spans="2:15" ht="42" hidden="1">
+      <c r="B111" s="24">
         <v>5774</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="C111" s="25" t="s">
         <v>1011</v>
       </c>
-      <c r="D110" s="26">
+      <c r="D111" s="26">
         <v>6220</v>
       </c>
-      <c r="E110" s="27" t="s">
+      <c r="E111" s="27" t="s">
         <v>1012</v>
       </c>
-      <c r="F110" s="27" t="s">
+      <c r="F111" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G110" s="27" t="s">
+      <c r="G111" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H110" s="28" t="s">
+      <c r="H111" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I110" s="29"/>
-      <c r="J110" s="29"/>
-      <c r="K110" s="29"/>
-      <c r="L110" s="29"/>
-      <c r="M110" s="29"/>
-      <c r="N110" s="30">
+      <c r="I111" s="29"/>
+      <c r="J111" s="86"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="29"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O110" s="31"/>
-    </row>
-    <row r="111" spans="2:15" ht="28">
-      <c r="B111" s="32">
+      <c r="O111" s="31"/>
+    </row>
+    <row r="112" spans="2:15" ht="28" hidden="1">
+      <c r="B112" s="32">
         <v>5773</v>
       </c>
-      <c r="C111" s="33" t="s">
+      <c r="C112" s="33" t="s">
         <v>1013</v>
       </c>
-      <c r="D111" s="34">
+      <c r="D112" s="34">
         <v>2890</v>
       </c>
-      <c r="E111" s="35" t="s">
+      <c r="E112" s="35" t="s">
         <v>1014</v>
       </c>
-      <c r="F111" s="35" t="s">
+      <c r="F112" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G111" s="35" t="s">
+      <c r="G112" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H111" s="36" t="s">
+      <c r="H112" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="37"/>
-      <c r="M111" s="37"/>
-      <c r="N111" s="38">
+      <c r="I112" s="37"/>
+      <c r="J112" s="87"/>
+      <c r="K112" s="37"/>
+      <c r="L112" s="37"/>
+      <c r="M112" s="37"/>
+      <c r="N112" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O111" s="39"/>
-    </row>
-    <row r="112" spans="2:15" ht="28">
-      <c r="B112" s="24">
+      <c r="O112" s="39"/>
+    </row>
+    <row r="113" spans="2:15" ht="28" hidden="1">
+      <c r="B113" s="24">
         <v>5772</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C113" s="25" t="s">
         <v>1015</v>
       </c>
-      <c r="D112" s="26">
+      <c r="D113" s="26">
         <v>3385</v>
       </c>
-      <c r="E112" s="27" t="s">
+      <c r="E113" s="27" t="s">
         <v>1016</v>
       </c>
-      <c r="F112" s="27" t="s">
+      <c r="F113" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G112" s="27" t="s">
+      <c r="G113" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H112" s="28" t="s">
+      <c r="H113" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I112" s="29"/>
-      <c r="J112" s="29"/>
-      <c r="K112" s="29"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="30">
+      <c r="I113" s="29"/>
+      <c r="J113" s="86"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="29"/>
+      <c r="M113" s="29"/>
+      <c r="N113" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O112" s="31"/>
-    </row>
-    <row r="113" spans="2:15" ht="42">
-      <c r="B113" s="32">
+      <c r="O113" s="31"/>
+    </row>
+    <row r="114" spans="2:15" ht="42" hidden="1">
+      <c r="B114" s="32">
         <v>5770</v>
       </c>
-      <c r="C113" s="33" t="s">
+      <c r="C114" s="33" t="s">
         <v>1017</v>
       </c>
-      <c r="D113" s="34">
+      <c r="D114" s="34">
         <v>4125</v>
       </c>
-      <c r="E113" s="35" t="s">
+      <c r="E114" s="35" t="s">
         <v>1018</v>
       </c>
-      <c r="F113" s="35" t="s">
+      <c r="F114" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G113" s="35" t="s">
+      <c r="G114" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H113" s="36" t="s">
+      <c r="H114" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="37"/>
-      <c r="L113" s="37"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="38">
+      <c r="I114" s="37"/>
+      <c r="J114" s="87"/>
+      <c r="K114" s="37"/>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O113" s="39"/>
-    </row>
-    <row r="114" spans="2:15" ht="28">
-      <c r="B114" s="24">
+      <c r="O114" s="39"/>
+    </row>
+    <row r="115" spans="2:15" ht="28" hidden="1">
+      <c r="B115" s="24">
         <v>5768</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C115" s="25" t="s">
         <v>1019</v>
       </c>
-      <c r="D114" s="26">
+      <c r="D115" s="26">
         <v>20170</v>
       </c>
-      <c r="E114" s="27" t="s">
+      <c r="E115" s="27" t="s">
         <v>1020</v>
       </c>
-      <c r="F114" s="27" t="s">
+      <c r="F115" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G114" s="27" t="s">
+      <c r="G115" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H114" s="28" t="s">
+      <c r="H115" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I114" s="29"/>
-      <c r="J114" s="29"/>
-      <c r="K114" s="29"/>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29"/>
-      <c r="N114" s="30">
+      <c r="I115" s="29"/>
+      <c r="J115" s="86"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="29"/>
+      <c r="M115" s="29"/>
+      <c r="N115" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O114" s="31"/>
-    </row>
-    <row r="115" spans="2:15" ht="28">
-      <c r="B115" s="32">
+      <c r="O115" s="31"/>
+    </row>
+    <row r="116" spans="2:15" ht="28" hidden="1">
+      <c r="B116" s="32">
         <v>5765</v>
       </c>
-      <c r="C115" s="33" t="s">
+      <c r="C116" s="33" t="s">
         <v>1021</v>
       </c>
-      <c r="D115" s="34">
+      <c r="D116" s="34">
         <v>17640</v>
       </c>
-      <c r="E115" s="35" t="s">
+      <c r="E116" s="35" t="s">
         <v>1022</v>
       </c>
-      <c r="F115" s="35" t="s">
+      <c r="F116" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G115" s="35" t="s">
+      <c r="G116" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H115" s="36" t="s">
+      <c r="H116" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="37"/>
-      <c r="L115" s="37"/>
-      <c r="M115" s="37"/>
-      <c r="N115" s="38">
+      <c r="I116" s="37"/>
+      <c r="J116" s="87"/>
+      <c r="K116" s="37"/>
+      <c r="L116" s="37"/>
+      <c r="M116" s="37"/>
+      <c r="N116" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O115" s="39"/>
-    </row>
-    <row r="116" spans="2:15" ht="28">
-      <c r="B116" s="24">
+      <c r="O116" s="39"/>
+    </row>
+    <row r="117" spans="2:15" ht="28" hidden="1">
+      <c r="B117" s="24">
         <v>5764</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="C117" s="25" t="s">
         <v>1023</v>
       </c>
-      <c r="D116" s="26">
+      <c r="D117" s="26">
         <v>21185</v>
       </c>
-      <c r="E116" s="27" t="s">
+      <c r="E117" s="27" t="s">
         <v>1024</v>
       </c>
-      <c r="F116" s="27" t="s">
+      <c r="F117" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G116" s="27" t="s">
+      <c r="G117" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H116" s="28" t="s">
+      <c r="H117" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I116" s="29"/>
-      <c r="J116" s="29"/>
-      <c r="K116" s="29"/>
-      <c r="L116" s="29"/>
-      <c r="M116" s="29"/>
-      <c r="N116" s="30">
+      <c r="I117" s="29"/>
+      <c r="J117" s="86"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="29"/>
+      <c r="M117" s="29"/>
+      <c r="N117" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O116" s="31"/>
-    </row>
-    <row r="117" spans="2:15" ht="28">
-      <c r="B117" s="32">
+      <c r="O117" s="31"/>
+    </row>
+    <row r="118" spans="2:15" ht="28" hidden="1">
+      <c r="B118" s="32">
         <v>5763</v>
       </c>
-      <c r="C117" s="33" t="s">
+      <c r="C118" s="33" t="s">
         <v>1025</v>
       </c>
-      <c r="D117" s="34">
+      <c r="D118" s="34">
         <v>10150</v>
       </c>
-      <c r="E117" s="35" t="s">
+      <c r="E118" s="35" t="s">
         <v>1026</v>
       </c>
-      <c r="F117" s="35" t="s">
+      <c r="F118" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G117" s="35" t="s">
+      <c r="G118" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H117" s="36" t="s">
+      <c r="H118" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I117" s="37"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="37"/>
-      <c r="L117" s="37"/>
-      <c r="M117" s="37"/>
-      <c r="N117" s="38">
+      <c r="I118" s="37"/>
+      <c r="J118" s="87"/>
+      <c r="K118" s="37"/>
+      <c r="L118" s="37"/>
+      <c r="M118" s="37"/>
+      <c r="N118" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O117" s="39"/>
-    </row>
-    <row r="118" spans="2:15" ht="28">
-      <c r="B118" s="24">
+      <c r="O118" s="39"/>
+    </row>
+    <row r="119" spans="2:15" ht="28" hidden="1">
+      <c r="B119" s="24">
         <v>5762</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="C119" s="25" t="s">
         <v>1027</v>
       </c>
-      <c r="D118" s="26">
+      <c r="D119" s="26">
         <v>5195</v>
       </c>
-      <c r="E118" s="27" t="s">
+      <c r="E119" s="27" t="s">
         <v>1028</v>
       </c>
-      <c r="F118" s="27" t="s">
+      <c r="F119" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G118" s="27" t="s">
+      <c r="G119" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H118" s="28" t="s">
+      <c r="H119" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I118" s="29"/>
-      <c r="J118" s="29"/>
-      <c r="K118" s="29"/>
-      <c r="L118" s="29"/>
-      <c r="M118" s="29"/>
-      <c r="N118" s="30">
+      <c r="I119" s="29"/>
+      <c r="J119" s="86"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="29"/>
+      <c r="M119" s="29"/>
+      <c r="N119" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O118" s="31"/>
-    </row>
-    <row r="119" spans="2:15" ht="28">
-      <c r="B119" s="32">
+      <c r="O119" s="31"/>
+    </row>
+    <row r="120" spans="2:15" ht="28" hidden="1">
+      <c r="B120" s="32">
         <v>4971</v>
       </c>
-      <c r="C119" s="33" t="s">
+      <c r="C120" s="33" t="s">
         <v>1029</v>
       </c>
-      <c r="D119" s="34">
+      <c r="D120" s="34">
         <v>66900</v>
       </c>
-      <c r="E119" s="35" t="s">
+      <c r="E120" s="35" t="s">
         <v>1030</v>
       </c>
-      <c r="F119" s="35" t="s">
+      <c r="F120" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G119" s="35" t="s">
+      <c r="G120" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H119" s="36" t="s">
+      <c r="H120" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I119" s="37"/>
-      <c r="J119" s="37"/>
-      <c r="K119" s="37"/>
-      <c r="L119" s="37"/>
-      <c r="M119" s="37"/>
-      <c r="N119" s="38">
+      <c r="I120" s="37"/>
+      <c r="J120" s="87"/>
+      <c r="K120" s="37"/>
+      <c r="L120" s="37"/>
+      <c r="M120" s="37"/>
+      <c r="N120" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O119" s="39"/>
-    </row>
-    <row r="120" spans="2:15" ht="28">
-      <c r="B120" s="24">
+      <c r="O120" s="39"/>
+    </row>
+    <row r="121" spans="2:15" ht="28" hidden="1">
+      <c r="B121" s="24">
         <v>4950</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="C121" s="25" t="s">
         <v>1031</v>
       </c>
-      <c r="D120" s="26">
+      <c r="D121" s="26">
         <v>41700</v>
       </c>
-      <c r="E120" s="27" t="s">
+      <c r="E121" s="27" t="s">
         <v>1032</v>
       </c>
-      <c r="F120" s="27" t="s">
+      <c r="F121" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G120" s="27" t="s">
+      <c r="G121" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H120" s="28" t="s">
+      <c r="H121" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I120" s="29"/>
-      <c r="J120" s="29"/>
-      <c r="K120" s="29"/>
-      <c r="L120" s="29"/>
-      <c r="M120" s="29"/>
-      <c r="N120" s="30">
+      <c r="I121" s="29"/>
+      <c r="J121" s="86"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="29"/>
+      <c r="M121" s="29"/>
+      <c r="N121" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O120" s="31"/>
-    </row>
-    <row r="121" spans="2:15" ht="28">
-      <c r="B121" s="32">
+      <c r="O121" s="31"/>
+    </row>
+    <row r="122" spans="2:15" ht="28" hidden="1">
+      <c r="B122" s="32">
         <v>4947</v>
       </c>
-      <c r="C121" s="33" t="s">
+      <c r="C122" s="33" t="s">
         <v>1031</v>
       </c>
-      <c r="D121" s="34">
+      <c r="D122" s="34">
         <v>40800</v>
       </c>
-      <c r="E121" s="35" t="s">
+      <c r="E122" s="35" t="s">
         <v>1033</v>
       </c>
-      <c r="F121" s="35" t="s">
+      <c r="F122" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G121" s="35" t="s">
+      <c r="G122" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H121" s="36" t="s">
+      <c r="H122" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="37"/>
-      <c r="L121" s="37"/>
-      <c r="M121" s="37"/>
-      <c r="N121" s="38">
+      <c r="I122" s="37"/>
+      <c r="J122" s="87"/>
+      <c r="K122" s="37"/>
+      <c r="L122" s="37"/>
+      <c r="M122" s="37"/>
+      <c r="N122" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O121" s="39"/>
-    </row>
-    <row r="122" spans="2:15" ht="28">
-      <c r="B122" s="24">
+      <c r="O122" s="39"/>
+    </row>
+    <row r="123" spans="2:15" ht="28" hidden="1">
+      <c r="B123" s="24">
         <v>4946</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C123" s="25" t="s">
         <v>1031</v>
       </c>
-      <c r="D122" s="26">
+      <c r="D123" s="26">
         <v>32700</v>
       </c>
-      <c r="E122" s="27" t="s">
+      <c r="E123" s="27" t="s">
         <v>1034</v>
       </c>
-      <c r="F122" s="27" t="s">
+      <c r="F123" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G122" s="27" t="s">
+      <c r="G123" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H122" s="28" t="s">
+      <c r="H123" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I122" s="29"/>
-      <c r="J122" s="29"/>
-      <c r="K122" s="29"/>
-      <c r="L122" s="29"/>
-      <c r="M122" s="29"/>
-      <c r="N122" s="30">
+      <c r="I123" s="29"/>
+      <c r="J123" s="86"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="29"/>
+      <c r="M123" s="29"/>
+      <c r="N123" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O122" s="31"/>
-    </row>
-    <row r="123" spans="2:15" ht="56">
-      <c r="B123" s="32">
+      <c r="O123" s="31"/>
+    </row>
+    <row r="124" spans="2:15" ht="56" hidden="1">
+      <c r="B124" s="32">
         <v>4217</v>
       </c>
-      <c r="C123" s="33" t="s">
+      <c r="C124" s="33" t="s">
         <v>1035</v>
       </c>
-      <c r="D123" s="34">
+      <c r="D124" s="34">
         <v>1695</v>
       </c>
-      <c r="E123" s="35" t="s">
+      <c r="E124" s="35" t="s">
         <v>1036</v>
       </c>
-      <c r="F123" s="35" t="s">
+      <c r="F124" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G123" s="35" t="s">
+      <c r="G124" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H123" s="36" t="s">
+      <c r="H124" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="37"/>
-      <c r="L123" s="37"/>
-      <c r="M123" s="37"/>
-      <c r="N123" s="38">
+      <c r="I124" s="37"/>
+      <c r="J124" s="87"/>
+      <c r="K124" s="37"/>
+      <c r="L124" s="37"/>
+      <c r="M124" s="37"/>
+      <c r="N124" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O123" s="39"/>
-    </row>
-    <row r="124" spans="2:15" ht="42">
-      <c r="B124" s="24">
+      <c r="O124" s="39"/>
+    </row>
+    <row r="125" spans="2:15" ht="42" hidden="1">
+      <c r="B125" s="24">
         <v>4223</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="C125" s="25" t="s">
         <v>1037</v>
       </c>
-      <c r="D124" s="26">
+      <c r="D125" s="26">
         <v>2145</v>
       </c>
-      <c r="E124" s="27" t="s">
+      <c r="E125" s="27" t="s">
         <v>1038</v>
       </c>
-      <c r="F124" s="27" t="s">
+      <c r="F125" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="G124" s="27" t="s">
+      <c r="G125" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H124" s="28" t="s">
+      <c r="H125" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I124" s="29"/>
-      <c r="J124" s="29"/>
-      <c r="K124" s="29"/>
-      <c r="L124" s="29"/>
-      <c r="M124" s="29"/>
-      <c r="N124" s="30">
+      <c r="I125" s="29"/>
+      <c r="J125" s="86"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="29"/>
+      <c r="M125" s="29"/>
+      <c r="N125" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O124" s="31"/>
-    </row>
-    <row r="125" spans="2:15" ht="42">
-      <c r="B125" s="32">
+      <c r="O125" s="31"/>
+    </row>
+    <row r="126" spans="2:15" ht="42" hidden="1">
+      <c r="B126" s="32">
         <v>4216</v>
       </c>
-      <c r="C125" s="33" t="s">
+      <c r="C126" s="33" t="s">
         <v>1039</v>
       </c>
-      <c r="D125" s="34">
+      <c r="D126" s="34">
         <v>2105</v>
       </c>
-      <c r="E125" s="35" t="s">
+      <c r="E126" s="35" t="s">
         <v>1040</v>
       </c>
-      <c r="F125" s="35" t="s">
+      <c r="F126" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="G125" s="35" t="s">
+      <c r="G126" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H125" s="36" t="s">
+      <c r="H126" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="37"/>
-      <c r="L125" s="37"/>
-      <c r="M125" s="37"/>
-      <c r="N125" s="38">
+      <c r="I126" s="37"/>
+      <c r="J126" s="87"/>
+      <c r="K126" s="37"/>
+      <c r="L126" s="37"/>
+      <c r="M126" s="37"/>
+      <c r="N126" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O125" s="39"/>
-    </row>
-    <row r="126" spans="2:15" ht="43" thickBot="1">
-      <c r="B126" s="24">
+      <c r="O126" s="39"/>
+    </row>
+    <row r="127" spans="2:15" ht="42" hidden="1">
+      <c r="B127" s="24">
         <v>2121</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C127" s="25" t="s">
         <v>1041</v>
       </c>
-      <c r="D126" s="26">
+      <c r="D127" s="26">
         <v>227210</v>
       </c>
-      <c r="E126" s="27" t="s">
+      <c r="E127" s="27" t="s">
         <v>1042</v>
       </c>
-      <c r="F126" s="27" t="s">
+      <c r="F127" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="G126" s="27" t="s">
+      <c r="G127" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H126" s="28" t="s">
+      <c r="H127" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I126" s="29"/>
-      <c r="J126" s="29"/>
-      <c r="K126" s="29"/>
-      <c r="L126" s="29"/>
-      <c r="M126" s="29"/>
-      <c r="N126" s="30">
+      <c r="I127" s="29"/>
+      <c r="J127" s="86"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="29"/>
+      <c r="M127" s="29"/>
+      <c r="N127" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O126" s="31"/>
-    </row>
-    <row r="127" spans="2:15" ht="15" thickTop="1">
-      <c r="B127" s="18" t="s">
+      <c r="O127" s="31"/>
+    </row>
+    <row r="128" spans="2:15" ht="15" hidden="1" thickTop="1">
+      <c r="B128" s="18" t="s">
         <v>1043</v>
       </c>
-      <c r="C127" s="19">
+      <c r="C128" s="19">
         <v>109</v>
       </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19">
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19">
         <v>109</v>
       </c>
-      <c r="G127" s="19">
+      <c r="G128" s="19">
         <v>109</v>
       </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
-      <c r="M127" s="19"/>
-      <c r="N127" s="74">
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="93"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="74">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O127" s="20"/>
+      <c r="O128" s="20"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G13:H14 G4:K12 I13:K13 C34:F63">
-    <cfRule type="expression" dxfId="35" priority="1">
+  <mergeCells count="1">
+    <mergeCell ref="B1:O1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G13:H14 G4:K12 I13:K13 C42:F64">
+    <cfRule type="expression" dxfId="68" priority="1">
       <formula>L68="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:K126 L34:O66">
-    <cfRule type="expression" dxfId="34" priority="6">
-      <formula>P84="Y"</formula>
+  <conditionalFormatting sqref="H69:K70 L42:O67 H68:I68 K68 H72:K73 H71:I71 K71 H77:K127 H74:I76 K74:K76">
+    <cfRule type="expression" dxfId="67" priority="6">
+      <formula>P91="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:O14">
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="66" priority="12">
       <formula>T77="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="32" priority="13">
-      <formula>J82="Y"</formula>
+    <cfRule type="expression" dxfId="65" priority="13">
+      <formula>J83="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64:F126 L4:O13 B34:B126">
-    <cfRule type="expression" dxfId="31" priority="14">
+  <conditionalFormatting sqref="C65:F127 L4:O13 B42:B127">
+    <cfRule type="expression" dxfId="64" priority="14">
       <formula>J68="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L67:O126">
-    <cfRule type="expression" dxfId="30" priority="21">
+  <conditionalFormatting sqref="L68:O127">
+    <cfRule type="expression" dxfId="63" priority="21">
       <formula>S117="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:K28">
-    <cfRule type="expression" dxfId="29" priority="22">
+    <cfRule type="expression" dxfId="62" priority="22">
       <formula>P77="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:K14">
-    <cfRule type="expression" dxfId="28" priority="26">
+    <cfRule type="expression" dxfId="61" priority="26">
       <formula>R77="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F14">
-    <cfRule type="expression" dxfId="27" priority="29">
-      <formula>L82="Y"</formula>
+    <cfRule type="expression" dxfId="60" priority="29">
+      <formula>L83="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G67:G126 N22">
-    <cfRule type="expression" dxfId="26" priority="31">
+  <conditionalFormatting sqref="G68:G127 N22">
+    <cfRule type="expression" dxfId="59" priority="31">
       <formula>O83="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:O20 N21 O21:O28 L21:M28">
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="58" priority="34">
       <formula>T77="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29 G29:J33">
-    <cfRule type="expression" dxfId="24" priority="39">
+    <cfRule type="expression" dxfId="57" priority="39">
       <formula>P84="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28 L29:O29 M30:M33">
-    <cfRule type="expression" dxfId="23" priority="114">
+    <cfRule type="expression" dxfId="56" priority="114">
       <formula>T83="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="22" priority="123">
+    <cfRule type="expression" dxfId="55" priority="123">
       <formula>V83="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="21" priority="132">
+    <cfRule type="expression" dxfId="54" priority="132">
       <formula>V83="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="expression" dxfId="20" priority="141">
+    <cfRule type="expression" dxfId="53" priority="141">
       <formula>V83="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="19" priority="150">
+    <cfRule type="expression" dxfId="52" priority="150">
       <formula>V83="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="expression" dxfId="18" priority="159">
+    <cfRule type="expression" dxfId="51" priority="159">
       <formula>V83="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F28">
-    <cfRule type="expression" dxfId="17" priority="162">
-      <formula>L91="Y"</formula>
+    <cfRule type="expression" dxfId="50" priority="162">
+      <formula>L92="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B28">
-    <cfRule type="expression" dxfId="16" priority="164">
-      <formula>J91="Y"</formula>
+    <cfRule type="expression" dxfId="49" priority="164">
+      <formula>J92="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:K66">
-    <cfRule type="expression" dxfId="15" priority="172">
+  <conditionalFormatting sqref="G34:K41">
+    <cfRule type="expression" dxfId="48" priority="172">
       <formula>P84="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="14" priority="175">
+    <cfRule type="expression" dxfId="47" priority="175">
       <formula>T84="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33 N33:O33">
-    <cfRule type="expression" dxfId="13" priority="179">
+    <cfRule type="expression" dxfId="46" priority="179">
       <formula>T84="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="12" priority="183">
+    <cfRule type="expression" dxfId="45" priority="183">
       <formula>T84="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32 N32:O32">
-    <cfRule type="expression" dxfId="11" priority="185">
+    <cfRule type="expression" dxfId="44" priority="185">
       <formula>T84="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="10" priority="191">
+    <cfRule type="expression" dxfId="43" priority="191">
       <formula>T84="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31 N31:O31">
-    <cfRule type="expression" dxfId="9" priority="193">
+    <cfRule type="expression" dxfId="42" priority="193">
       <formula>T84="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="8" priority="199">
+    <cfRule type="expression" dxfId="41" priority="199">
       <formula>T84="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30 N30:O30">
-    <cfRule type="expression" dxfId="7" priority="201">
+    <cfRule type="expression" dxfId="40" priority="201">
       <formula>T84="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F33">
-    <cfRule type="expression" dxfId="6" priority="202">
-      <formula>L98="Y"</formula>
+    <cfRule type="expression" dxfId="39" priority="202">
+      <formula>L99="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B33">
-    <cfRule type="expression" dxfId="5" priority="204">
-      <formula>J98="Y"</formula>
+    <cfRule type="expression" dxfId="38" priority="204">
+      <formula>J99="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:F41">
+    <cfRule type="expression" dxfId="37" priority="205">
+      <formula>L99="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:O41">
+    <cfRule type="expression" dxfId="36" priority="207">
+      <formula>T84="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B41">
+    <cfRule type="expression" dxfId="35" priority="209">
+      <formula>J99="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:K67 J68 J71 J74:J76">
+    <cfRule type="expression" dxfId="34" priority="212">
+      <formula>P91="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15169,7 +15459,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Control'!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J126</xm:sqref>
+          <xm:sqref>J4:J127</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15204,30 +15494,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="20">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="83" t="s">
         <v>1050</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="4" spans="1:12" ht="25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="82" t="s">
         <v>1051</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
     </row>
     <row r="5" spans="1:12" s="13" customFormat="1" ht="81" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -27715,17 +28005,17 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:D500">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="30" priority="1">
       <formula>I70="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:L500">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="29" priority="3">
       <formula>M70="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E500">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="28" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EnergyNet Lots - Minerals Master.xlsx
+++ b/EnergyNet Lots - Minerals Master.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="42640" yWindow="6960" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34160" windowHeight="18440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Draft Minerals Spreadsheet" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1128">
   <si>
     <t>Lot #</t>
   </si>
@@ -3337,6 +3337,129 @@
   <si>
     <t>S/2 Section 21, T16S-R37E, N.M.P.M., Lea County, New Mexico
 BELOW THE BASE OF THE ATOKA FORMATION</t>
+  </si>
+  <si>
+    <t>300 acres of land, more or less, being a part of the
+Northwest Quarter of the Peter D. Moyer Survey, A-303,
+Newton County, Texas, and being the same land more
+particularly described as follows: Beginning at the Northwest corner of the Peter D. Moyer Survey, A-303;
+Thence South 1297.9 varas to a stake; Thence East 1305
+varas to a point in the West line of a tract conveyed by
+Peter D. Moyer to Sarah Jane Frazier; Thence North
+1297.9 varas to the North line of said Survey; Thence
+West 1305 varas to the point of beginning.</t>
+  </si>
+  <si>
+    <t>Mishaun:  See plat in the package folder for plotting this lease - mineral percentage ownership is unknown</t>
+  </si>
+  <si>
+    <t>512.72 acres of land, more or less, in the William Massey Survey, A-342, and the William Birch Survey, A-74, Montgomery County, Texas, being more particularly described in Deed dated July 2, 1971, from William H. Craig, Trustee to Texaco Inc., recorded in Volume 742,
+Page 872, Deed Records of said County.</t>
+  </si>
+  <si>
+    <t>64.18 acres of land, more or less, in the John Bevil Headright League, A-2,
+Jasper County, Texas, being the same land described in Deed dated
+November 18, 1944, from The Texas Pipeline Company to The Texas
+Company, recorded in Volume 82, Page 503, Deed Records of said County.</t>
+  </si>
+  <si>
+    <t>Mishaun:  See plat in the package folder for plotting this lease</t>
+  </si>
+  <si>
+    <t>257.62 acres of land, more or less, being Lots 1 to 26 inclusive, Lots 39 to 44
+inclusive, Lots 48 to 63 inclusive and Lots 45 to 47 inclusive, all in Block 5 of
+Schwind and Maher's Subdivision of Ward Lands West of Francitas Farms,
+according to plat of said Subdivision recorded in plat record Volume 1, Page
+22, in the Office of County Clerk of Jackson County, Texas.</t>
+  </si>
+  <si>
+    <t>3200 acres of land, more or less, being all of the following Surveys: the S.M.&amp;
+S. Survey, A-1932, the H.&amp; O.B.R.R. Co. Survey, A-2232, the J. Poitevent
+Survey, A-2597, the H.&amp; O.B.R.R. Co. Survey, A-1397, and the H. &amp; O.B.R.R.
+Co. Survey, A-1399, Webb County, Texas, said land being more particularly
+described in Deed dated July 10, 1924, from R. F. Duggan to Associated Oil
+Company, recorded in Volume 91, Page 458, Deed Records of said County,
+reference being made to said Deed for descriptive purposes only.</t>
+  </si>
+  <si>
+    <t>30 acres of land, more or less, being all of the Claiborne Hughes Survey, No.
+262, A-1493, Webb County, Texas.</t>
+  </si>
+  <si>
+    <t>1577.4 acres of land, more or less, Jared Groce Two League Survey, A-30,
+and the John Irons League, A-39, Waller County, Texas, being the same land
+described in Deed dated January 29, 1935, from Employers Reinsurance
+Corporation to W. N. Blanton et al, recorded in Volume 66, Page 129, Deed
+Records of said County.</t>
+  </si>
+  <si>
+    <t>0.43 acre of land, more or less, in the Wm. R. Roberts Survey, A-1457,
+Nueces County, Texas, and being the same land described in Deed dated
+June 14, 1911, from Wm. R. Roberts to The Texas Company, recorded in
+Volume 73, Page 169, Deed Records of said County.</t>
+  </si>
+  <si>
+    <t>80 acres of land, more or less, being the W/2 of the NW/4 of Section 131 of the
+George H. Paul Subdivision of the Driscoll Ranch, as shown by map thereof
+recorded in Volume A, Page 81, of the Map Records, Nueces County, Texas.</t>
+  </si>
+  <si>
+    <t>176 acres of land, more or less, in the Walter F. Hamilton League, A-52, Fayette County, Texas, being of Lots or tracts numbered 86, 87, 88, and 89, and that portion of lots or tracts. numbered 85 and 90, lying west of the old S.A &amp; A.P. R.R.  line, (now S.P.R.R. line), said lots or tracts of land beingshown on map or plat of said Hamilton League, recorded in
+Book Y, Page 500, Deed Records said County.</t>
+  </si>
+  <si>
+    <t>Anish:  Copied descriptions and NMA from Leasehold description. (No plat on record)</t>
+  </si>
+  <si>
+    <t>T14N R15: 1) 100 acres in NE/4 of Section 15; 2) 16.35 acres in S/2 and NW/4.</t>
+  </si>
+  <si>
+    <t>Anish: Reference to 29 different tracts- will take a long time to complete this package</t>
+  </si>
+  <si>
+    <t>Anish:  Copied descriptions from deed and assignment. NMA from Lease Information. (No plat on record)</t>
+  </si>
+  <si>
+    <t>This property is situated in the Joseph Black League in Bastrop County, Texas and is described in that certain Deed and Assignment from Shell Oil Company to Shell Western E&amp;P Inc., dated April 22, 1988, which recorded in Book 551 at Page 652 of the Public Records of Bastrop County, Texas as follows: BEGINNING at Northwest corner of the Twin Oaks Cemetery (Kellermeier Church and Graveyard Tract); THENCE, with fenceline N 44 deg. 30'W, 1929.15' to a corner fence post for Northwest corner hereof; THENCE, with fenceline N 30 deg. 10' E, 3772.99' to a corner fence post for Northeast corner hereof; THENCE, with fenceline S 45 deg. 30' E, 3308.23 1 to a corner fence post for Southeast corner hereof; THENCE, with fenceline ~ 44 deg. 75' W, 3490.99' to corner fence post; THENCE, with fenceline along aforementioned church and grave yard tract N 44 deg. 30' E, 416.37' to a corner fence post; THENCE, with fence1ine S 44 deg. 57'W, 206.48' to PLACE OF BEGINNING.</t>
+  </si>
+  <si>
+    <t>Anish:  Copied descriptions from mineral deed. NMA copied from spreadsheet. (See plats in the package folder for plotting this lease)</t>
+  </si>
+  <si>
+    <t>74.61 acres of land, more or less, in the Thomas. W. Grayson League, A-196, being the same land described in Deed dated July 11, 1919, from R. E. Breeding to The Texas Company, recorded in Volume 156, Page 258, Deed Records, Brazoria County, Texas.</t>
+  </si>
+  <si>
+    <t>100 acres of land, more or less, in the Ira Ingram Survey, A-49, Matagorda County, Texas, and being the same land more particularly described in Deed dated September 20, 1916, from J.C. Wood et al to Producers Oil Company, recorded in Volume 49, Page 537, Deed Records of said County.</t>
+  </si>
+  <si>
+    <t>700 acres of land, more or less, in the Jose Maria Carrubias League, A-9, and the James Reynolds Grant, A-101, Victoria County, Texas, being the same land described in Deed dated July 31, 1935, from Adolph Fetters et ux to The Texas Company, recorded in Volume 150, Page 83, Deed Records of said County.</t>
+  </si>
+  <si>
+    <t>35.5 acres of land, more or less, in the John Hughes Survey, A-182, Victoria County, Texas, being the same described in deed executed by Charles F. Starr et ux in favor of J. W. Neal et ux under date of August 23, 1924, recorded in Volume 107, Page 212, Deed Records of said County.</t>
+  </si>
+  <si>
+    <t>1.32 acres of land, more or less, partly in Farm Lot 2 and partly in Farm Lot 3, Block 3, Range 4, East Above Town, in the Original Four League Grant to the Town of Victoria, Victoria County, Texas, being the same land described in Deed dated May 25, 1982 from Crossroads Investment Co. to Getty Oil Company, recorded in Volume 1149, Page 690, Deed Records of said County.</t>
+  </si>
+  <si>
+    <t>2000 acres of land, more or less, located in the N. Tatman Lge., A-631, Brice Wheat Sur., A-658, Robert Conn Sur., A-171, R. White Sur., A-656, G. W. Pullen Sur., A-512, B. Bentley Sur., A-86, Porter Green Sur., A-918, M. Granger Sur., A-285, E. B. Grissum Sur., A-303, J. C. Robertson Sur., A-551, Jno. Works Sur., A-684, W. Phelps Sur., A-264, T. Ard Sur., A-52, J. R. Jordan Sur., A-768, Porter Green Sur., A-961, C. C. Young Sur., A-972, l&amp;GNRR Sur., A-720, Tyler County, Texas, being the same land described in seventeen (17) tracts in Mineral Deed dated August 27, 1930, from J.B. Reid et ux to Mineral Investing Corporation, recorded in Volume 64, Page 443, Deed Records of said County.</t>
+  </si>
+  <si>
+    <t>Anish:  Copied descriptions from mineral deed. NMA copied from spreadsheet. (See plat in the package folder for plotting this lease)</t>
+  </si>
+  <si>
+    <t>50 acres of land, more or less, in the J. J. Pemberton League, A-502, Tyler County, Texas, being the same land described in Mineral Deed dated October 10, 1932, from D. D. Ford to Simms Oil Company, recorded in Volume 71, Page 354, Deed records in said County.</t>
+  </si>
+  <si>
+    <t>2 acres of land, more or less, being a part of the SE/4 of the SE/4 of Section No. 29 of the Geo. H. Paul Subdivision of the J. J. Welder Ranch as shown on a plat or map of said Subdivision known as "Map A", recorded in Book 2, Page 12, Map Records of San Patricio County, Texas, and being more particularly described in Mineral Deed dated May 2, 1939, from E.T. Gillett et ux to Seaboard Oil Company, recorded in Volume 34, Page 101, Oil and Gas Lease records of said County.</t>
+  </si>
+  <si>
+    <t>204.63 acres of land, more or less, in the John Smith Survey, A-244, and the S. S. Gilette Survey, A-133, being Lot 6 of 104.63 acres and Lot 17 containing 100 acres of the Roos Brothers Subdivision of the Anna S. Taft Lands, as platted in Volume 1, Page 26, Map Records of San Patricio County, Texas.</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>Anish: Multiple reference to assignments leases, wells and ORRI - it will take time to complete this package</t>
   </si>
 </sst>
 </file>
@@ -3840,7 +3963,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3850,8 +3973,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4075,15 +4214,6 @@
     <xf numFmtId="1" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4112,138 +4242,103 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="116">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC4D79B"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -4460,7 +4555,25 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -4748,8 +4861,443 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -9752,7 +10300,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="1" showAll="0"/>
@@ -10304,12 +10852,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:O128" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32">
-  <autoFilter ref="B3:O128">
-    <filterColumn colId="0">
-      <colorFilter dxfId="8"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B3:O132" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18">
+  <autoFilter ref="B3:O132"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Lot #"/>
     <tableColumn id="2" name="Name"/>
@@ -10318,12 +10862,12 @@
     <tableColumn id="5" name="Conveyance"/>
     <tableColumn id="6" name="Invoice"/>
     <tableColumn id="7" name="Contains &quot;BLM&quot; Y/N"/>
-    <tableColumn id="8" name="Mishaun/Anish Comments" dataDxfId="11"/>
-    <tableColumn id="9" name="Plot (Y/N/Maybe)" dataDxfId="9"/>
-    <tableColumn id="14" name="Tract Number" dataDxfId="10"/>
+    <tableColumn id="8" name="Mishaun/Anish Comments" dataDxfId="17"/>
+    <tableColumn id="9" name="Plot (Y/N/Maybe)" dataDxfId="16"/>
+    <tableColumn id="14" name="Tract Number" dataDxfId="15"/>
     <tableColumn id="10" name="Gross Mineral Acreage"/>
     <tableColumn id="11" name="Decimal Interest"/>
-    <tableColumn id="12" name="Net Mineral Acreage" dataDxfId="31">
+    <tableColumn id="12" name="Net Mineral Acreage" dataDxfId="0">
       <calculatedColumnFormula>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" name="Description"/>
@@ -10333,7 +10877,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:L501" totalsRowCount="1" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:L501" totalsRowCount="1" headerRowDxfId="11">
   <autoFilter ref="A5:L500">
     <filterColumn colId="4">
       <filters>
@@ -10349,20 +10893,20 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" name="Lot #" totalsRowLabel="Total" dataDxfId="26"/>
+    <tableColumn id="1" name="Lot #" totalsRowLabel="Total" dataDxfId="10"/>
     <tableColumn id="2" name="Name" totalsRowFunction="count"/>
-    <tableColumn id="3" name="Sale Price *" dataDxfId="25"/>
+    <tableColumn id="3" name="Sale Price *" dataDxfId="9"/>
     <tableColumn id="4" name="Sale Date"/>
     <tableColumn id="5" name="Conveyance" totalsRowFunction="count"/>
     <tableColumn id="6" name="Invoice" totalsRowFunction="count"/>
-    <tableColumn id="7" name="Contains &quot;BLM&quot; Y/N" dataDxfId="24">
+    <tableColumn id="7" name="Contains &quot;BLM&quot; Y/N" dataDxfId="8">
       <calculatedColumnFormula>IF(ISNUMBER(SEARCH("BLM",Table2[[#This Row],[Name]])), "Y", "N")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Mishaun/Anish Comments"/>
-    <tableColumn id="10" name="Plot (Y/N/Maybe)" dataDxfId="23"/>
-    <tableColumn id="12" name="Gross Mineral Acreage" dataDxfId="22"/>
-    <tableColumn id="13" name="Decimal Interest" dataDxfId="21"/>
-    <tableColumn id="11" name="Net Mineral Acreage" dataDxfId="20"/>
+    <tableColumn id="10" name="Plot (Y/N/Maybe)" dataDxfId="7"/>
+    <tableColumn id="12" name="Gross Mineral Acreage" dataDxfId="6"/>
+    <tableColumn id="13" name="Decimal Interest" dataDxfId="5"/>
+    <tableColumn id="11" name="Net Mineral Acreage" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10690,10 +11234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O128"/>
+  <dimension ref="B1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10716,22 +11260,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="36">
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="110" t="s">
         <v>1094</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
     </row>
     <row r="3" spans="2:15" ht="70" thickBot="1">
       <c r="B3" s="21" t="s">
@@ -10777,7 +11321,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="71" hidden="1" thickTop="1">
+    <row r="4" spans="2:15" ht="71" thickTop="1">
       <c r="B4" s="24">
         <v>64094</v>
       </c>
@@ -10802,7 +11346,7 @@
       <c r="I4" s="29" t="s">
         <v>1054</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="83" t="s">
         <v>1047</v>
       </c>
       <c r="K4" s="29"/>
@@ -10814,7 +11358,7 @@
       </c>
       <c r="O4" s="31"/>
     </row>
-    <row r="5" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="5" spans="2:15" ht="42">
       <c r="B5" s="32">
         <v>64127</v>
       </c>
@@ -10839,7 +11383,7 @@
       <c r="I5" s="37" t="s">
         <v>1055</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="84" t="s">
         <v>1047</v>
       </c>
       <c r="K5" s="37"/>
@@ -10851,7 +11395,7 @@
       </c>
       <c r="O5" s="39"/>
     </row>
-    <row r="6" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="6" spans="2:15" ht="42">
       <c r="B6" s="24">
         <v>64126</v>
       </c>
@@ -10876,7 +11420,7 @@
       <c r="I6" s="29" t="s">
         <v>1055</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="83" t="s">
         <v>1047</v>
       </c>
       <c r="K6" s="29"/>
@@ -10888,7 +11432,7 @@
       </c>
       <c r="O6" s="31"/>
     </row>
-    <row r="7" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="7" spans="2:15" ht="28">
       <c r="B7" s="32">
         <v>64113</v>
       </c>
@@ -10913,7 +11457,7 @@
       <c r="I7" s="37" t="s">
         <v>1055</v>
       </c>
-      <c r="J7" s="87" t="s">
+      <c r="J7" s="84" t="s">
         <v>1047</v>
       </c>
       <c r="K7" s="37"/>
@@ -10925,7 +11469,7 @@
       </c>
       <c r="O7" s="39"/>
     </row>
-    <row r="8" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="8" spans="2:15" ht="42">
       <c r="B8" s="24">
         <v>39896</v>
       </c>
@@ -10950,7 +11494,7 @@
       <c r="I8" s="29" t="s">
         <v>1061</v>
       </c>
-      <c r="J8" s="86" t="s">
+      <c r="J8" s="83" t="s">
         <v>1057</v>
       </c>
       <c r="K8" s="29"/>
@@ -10962,7 +11506,7 @@
       </c>
       <c r="O8" s="31"/>
     </row>
-    <row r="9" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="9" spans="2:15" ht="42">
       <c r="B9" s="32">
         <v>39358</v>
       </c>
@@ -10987,7 +11531,7 @@
       <c r="I9" s="37" t="s">
         <v>1062</v>
       </c>
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="84" t="s">
         <v>1047</v>
       </c>
       <c r="K9" s="37"/>
@@ -10999,7 +11543,7 @@
       </c>
       <c r="O9" s="39"/>
     </row>
-    <row r="10" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="10" spans="2:15" ht="42">
       <c r="B10" s="24">
         <v>42567</v>
       </c>
@@ -11024,7 +11568,7 @@
       <c r="I10" s="29" t="s">
         <v>1063</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="83" t="s">
         <v>1057</v>
       </c>
       <c r="K10" s="29"/>
@@ -11036,7 +11580,7 @@
       </c>
       <c r="O10" s="31"/>
     </row>
-    <row r="11" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="11" spans="2:15" ht="42">
       <c r="B11" s="40">
         <v>41381</v>
       </c>
@@ -11061,7 +11605,7 @@
       <c r="I11" s="45" t="s">
         <v>1065</v>
       </c>
-      <c r="J11" s="88" t="s">
+      <c r="J11" s="85" t="s">
         <v>1048</v>
       </c>
       <c r="K11" s="45">
@@ -11081,7 +11625,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="113" hidden="1" thickTop="1">
+    <row r="12" spans="2:15" ht="112">
       <c r="B12" s="78">
         <v>41380</v>
       </c>
@@ -11106,7 +11650,7 @@
       <c r="I12" s="61" t="s">
         <v>1070</v>
       </c>
-      <c r="J12" s="89" t="s">
+      <c r="J12" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K12" s="61">
@@ -11126,7 +11670,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="113" hidden="1" thickTop="1">
+    <row r="13" spans="2:15" ht="112">
       <c r="B13" s="64">
         <v>41380</v>
       </c>
@@ -11151,7 +11695,7 @@
       <c r="I13" s="29" t="s">
         <v>1070</v>
       </c>
-      <c r="J13" s="86" t="s">
+      <c r="J13" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K13" s="29">
@@ -11171,7 +11715,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="113" hidden="1" thickTop="1">
+    <row r="14" spans="2:15" ht="112">
       <c r="B14" s="66">
         <v>41380</v>
       </c>
@@ -11196,7 +11740,7 @@
       <c r="I14" s="71" t="s">
         <v>1070</v>
       </c>
-      <c r="J14" s="90" t="s">
+      <c r="J14" s="87" t="s">
         <v>1048</v>
       </c>
       <c r="K14" s="71">
@@ -11216,7 +11760,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="15" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="15" spans="2:15" ht="42">
       <c r="B15" s="48">
         <v>40353</v>
       </c>
@@ -11241,7 +11785,7 @@
       <c r="I15" s="53" t="s">
         <v>1055</v>
       </c>
-      <c r="J15" s="91" t="s">
+      <c r="J15" s="88" t="s">
         <v>1047</v>
       </c>
       <c r="K15" s="53"/>
@@ -11253,7 +11797,7 @@
       </c>
       <c r="O15" s="55"/>
     </row>
-    <row r="16" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="16" spans="2:15" ht="42">
       <c r="B16" s="24">
         <v>40350</v>
       </c>
@@ -11278,7 +11822,7 @@
       <c r="I16" s="29" t="s">
         <v>1055</v>
       </c>
-      <c r="J16" s="86" t="s">
+      <c r="J16" s="83" t="s">
         <v>1047</v>
       </c>
       <c r="K16" s="29"/>
@@ -11290,7 +11834,7 @@
       </c>
       <c r="O16" s="31"/>
     </row>
-    <row r="17" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="17" spans="2:15" ht="42">
       <c r="B17" s="32">
         <v>40352</v>
       </c>
@@ -11315,7 +11859,7 @@
       <c r="I17" s="37" t="s">
         <v>1055</v>
       </c>
-      <c r="J17" s="87" t="s">
+      <c r="J17" s="84" t="s">
         <v>1047</v>
       </c>
       <c r="K17" s="37"/>
@@ -11327,7 +11871,7 @@
       </c>
       <c r="O17" s="39"/>
     </row>
-    <row r="18" spans="2:15" ht="127" hidden="1" thickTop="1">
+    <row r="18" spans="2:15" ht="126">
       <c r="B18" s="24">
         <v>25270</v>
       </c>
@@ -11352,7 +11896,7 @@
       <c r="I18" s="75" t="s">
         <v>1073</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="J18" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K18" s="29">
@@ -11372,7 +11916,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="57" hidden="1" thickTop="1">
+    <row r="19" spans="2:15" ht="56">
       <c r="B19" s="79">
         <v>24005</v>
       </c>
@@ -11397,7 +11941,7 @@
       <c r="I19" s="37" t="s">
         <v>1074</v>
       </c>
-      <c r="J19" s="87" t="s">
+      <c r="J19" s="84" t="s">
         <v>1048</v>
       </c>
       <c r="K19" s="37"/>
@@ -11409,7 +11953,7 @@
       </c>
       <c r="O19" s="39"/>
     </row>
-    <row r="20" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="20" spans="2:15" ht="28">
       <c r="B20" s="56">
         <v>18225</v>
       </c>
@@ -11434,7 +11978,7 @@
       <c r="I20" s="61" t="s">
         <v>1084</v>
       </c>
-      <c r="J20" s="89" t="s">
+      <c r="J20" s="86" t="s">
         <v>1048</v>
       </c>
       <c r="K20" s="61">
@@ -11454,7 +11998,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="21" spans="2:15" ht="28">
       <c r="B21" s="64">
         <v>18225</v>
       </c>
@@ -11479,7 +12023,7 @@
       <c r="I21" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J21" s="86" t="s">
+      <c r="J21" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K21" s="29">
@@ -11499,7 +12043,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="22" spans="2:15" ht="28">
       <c r="B22" s="64">
         <v>18225</v>
       </c>
@@ -11524,7 +12068,7 @@
       <c r="I22" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J22" s="86" t="s">
+      <c r="J22" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K22" s="29">
@@ -11544,7 +12088,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="23" spans="2:15" ht="28">
       <c r="B23" s="64">
         <v>18225</v>
       </c>
@@ -11569,7 +12113,7 @@
       <c r="I23" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J23" s="86" t="s">
+      <c r="J23" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K23" s="29">
@@ -11589,7 +12133,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="24" spans="2:15" ht="28">
       <c r="B24" s="64">
         <v>18225</v>
       </c>
@@ -11614,7 +12158,7 @@
       <c r="I24" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J24" s="86" t="s">
+      <c r="J24" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K24" s="29">
@@ -11634,7 +12178,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="25" spans="2:15" ht="28">
       <c r="B25" s="64">
         <v>18225</v>
       </c>
@@ -11659,7 +12203,7 @@
       <c r="I25" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J25" s="86" t="s">
+      <c r="J25" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K25" s="29">
@@ -11679,7 +12223,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="26" spans="2:15" ht="28">
       <c r="B26" s="64">
         <v>18225</v>
       </c>
@@ -11704,7 +12248,7 @@
       <c r="I26" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J26" s="86" t="s">
+      <c r="J26" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K26" s="29">
@@ -11724,7 +12268,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="27" spans="2:15" ht="28">
       <c r="B27" s="64">
         <v>18225</v>
       </c>
@@ -11749,7 +12293,7 @@
       <c r="I27" s="29" t="s">
         <v>1084</v>
       </c>
-      <c r="J27" s="86" t="s">
+      <c r="J27" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K27" s="29">
@@ -11769,7 +12313,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="28" spans="2:15" ht="28">
       <c r="B28" s="66">
         <v>18225</v>
       </c>
@@ -11794,7 +12338,7 @@
       <c r="I28" s="71" t="s">
         <v>1084</v>
       </c>
-      <c r="J28" s="90" t="s">
+      <c r="J28" s="87" t="s">
         <v>1048</v>
       </c>
       <c r="K28" s="71">
@@ -11814,7 +12358,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="71" hidden="1" thickTop="1">
+    <row r="29" spans="2:15" ht="70">
       <c r="B29" s="32">
         <v>17982</v>
       </c>
@@ -11839,7 +12383,7 @@
       <c r="I29" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="J29" s="87" t="s">
+      <c r="J29" s="84" t="s">
         <v>1048</v>
       </c>
       <c r="K29" s="37">
@@ -11859,7 +12403,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="71" hidden="1" thickTop="1">
+    <row r="30" spans="2:15" ht="70">
       <c r="B30" s="32">
         <v>17982</v>
       </c>
@@ -11884,7 +12428,7 @@
       <c r="I30" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="J30" s="87" t="s">
+      <c r="J30" s="84" t="s">
         <v>1048</v>
       </c>
       <c r="K30" s="37">
@@ -11904,7 +12448,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="71" hidden="1" thickTop="1">
+    <row r="31" spans="2:15" ht="70">
       <c r="B31" s="32">
         <v>17982</v>
       </c>
@@ -11929,7 +12473,7 @@
       <c r="I31" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="J31" s="87" t="s">
+      <c r="J31" s="84" t="s">
         <v>1048</v>
       </c>
       <c r="K31" s="37">
@@ -11949,7 +12493,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="71" hidden="1" thickTop="1">
+    <row r="32" spans="2:15" ht="70">
       <c r="B32" s="32">
         <v>17982</v>
       </c>
@@ -11974,7 +12518,7 @@
       <c r="I32" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="J32" s="87" t="s">
+      <c r="J32" s="84" t="s">
         <v>1048</v>
       </c>
       <c r="K32" s="37">
@@ -11994,7 +12538,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="71" hidden="1" thickTop="1">
+    <row r="33" spans="2:15" ht="70">
       <c r="B33" s="32">
         <v>17982</v>
       </c>
@@ -12019,7 +12563,7 @@
       <c r="I33" s="37" t="s">
         <v>1090</v>
       </c>
-      <c r="J33" s="87" t="s">
+      <c r="J33" s="84" t="s">
         <v>1048</v>
       </c>
       <c r="K33" s="37">
@@ -12039,7 +12583,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="127" hidden="1" thickTop="1">
+    <row r="34" spans="2:15" ht="126">
       <c r="B34" s="80">
         <v>16663</v>
       </c>
@@ -12064,7 +12608,7 @@
       <c r="I34" s="29" t="s">
         <v>1092</v>
       </c>
-      <c r="J34" s="86" t="s">
+      <c r="J34" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K34" s="29">
@@ -12084,7 +12628,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="35" spans="2:15" ht="42">
       <c r="B35" s="32">
         <v>14319</v>
       </c>
@@ -12107,7 +12651,7 @@
         <v>1047</v>
       </c>
       <c r="I35" s="37"/>
-      <c r="J35" s="87" t="s">
+      <c r="J35" s="84" t="s">
         <v>1047</v>
       </c>
       <c r="K35" s="37"/>
@@ -12119,7 +12663,7 @@
       </c>
       <c r="O35" s="39"/>
     </row>
-    <row r="36" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="36" spans="2:15" ht="42">
       <c r="B36" s="24">
         <v>14129</v>
       </c>
@@ -12142,7 +12686,7 @@
         <v>1047</v>
       </c>
       <c r="I36" s="29"/>
-      <c r="J36" s="86" t="s">
+      <c r="J36" s="83" t="s">
         <v>1047</v>
       </c>
       <c r="K36" s="29"/>
@@ -12154,7 +12698,7 @@
       </c>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="37" spans="2:15" ht="28">
       <c r="B37" s="32">
         <v>13305</v>
       </c>
@@ -12177,7 +12721,7 @@
         <v>1047</v>
       </c>
       <c r="I37" s="37"/>
-      <c r="J37" s="87" t="s">
+      <c r="J37" s="84" t="s">
         <v>1047</v>
       </c>
       <c r="K37" s="37"/>
@@ -12189,7 +12733,7 @@
       </c>
       <c r="O37" s="39"/>
     </row>
-    <row r="38" spans="2:15" ht="29" hidden="1" thickTop="1">
+    <row r="38" spans="2:15" ht="28">
       <c r="B38" s="24">
         <v>12527</v>
       </c>
@@ -12212,7 +12756,7 @@
         <v>1047</v>
       </c>
       <c r="I38" s="29"/>
-      <c r="J38" s="86" t="s">
+      <c r="J38" s="83" t="s">
         <v>1047</v>
       </c>
       <c r="K38" s="29"/>
@@ -12224,7 +12768,7 @@
       </c>
       <c r="O38" s="31"/>
     </row>
-    <row r="39" spans="2:15" ht="71" hidden="1" thickTop="1">
+    <row r="39" spans="2:15" ht="70">
       <c r="B39" s="32">
         <v>11511</v>
       </c>
@@ -12249,7 +12793,7 @@
       <c r="I39" s="76" t="s">
         <v>1093</v>
       </c>
-      <c r="J39" s="87" t="s">
+      <c r="J39" s="84" t="s">
         <v>1048</v>
       </c>
       <c r="K39" s="37"/>
@@ -12261,7 +12805,7 @@
       </c>
       <c r="O39" s="77"/>
     </row>
-    <row r="40" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="40" spans="2:15" ht="42">
       <c r="B40" s="80">
         <v>11405</v>
       </c>
@@ -12286,7 +12830,7 @@
       <c r="I40" s="29" t="s">
         <v>1095</v>
       </c>
-      <c r="J40" s="86" t="s">
+      <c r="J40" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K40" s="29">
@@ -12306,7 +12850,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="43" hidden="1" thickTop="1">
+    <row r="41" spans="2:15" ht="42">
       <c r="B41" s="80">
         <v>11405</v>
       </c>
@@ -12331,7 +12875,7 @@
       <c r="I41" s="29" t="s">
         <v>1095</v>
       </c>
-      <c r="J41" s="86" t="s">
+      <c r="J41" s="83" t="s">
         <v>1048</v>
       </c>
       <c r="K41" s="29">
@@ -12351,8 +12895,8 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="42" spans="2:15" ht="29" thickTop="1">
-      <c r="B42" s="84">
+    <row r="42" spans="2:15" ht="140">
+      <c r="B42" s="81">
         <v>11421</v>
       </c>
       <c r="C42" s="33" t="s">
@@ -12373,21 +12917,31 @@
       <c r="H42" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="92" t="s">
+      <c r="I42" s="37" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J42" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
+      <c r="K42" s="37">
+        <v>1</v>
+      </c>
+      <c r="L42" s="37">
+        <v>300</v>
+      </c>
+      <c r="M42" s="37">
+        <v>1</v>
+      </c>
       <c r="N42" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="39"/>
-    </row>
-    <row r="43" spans="2:15" ht="28">
-      <c r="B43" s="85">
+        <v>300</v>
+      </c>
+      <c r="O42" s="39" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="70">
+      <c r="B43" s="82">
         <v>11417</v>
       </c>
       <c r="C43" s="25" t="s">
@@ -12408,21 +12962,31 @@
       <c r="H43" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="92" t="s">
+      <c r="I43" s="29" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J43" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
+      <c r="K43" s="29">
+        <v>1</v>
+      </c>
+      <c r="L43" s="29">
+        <v>512.72</v>
+      </c>
+      <c r="M43" s="29">
+        <v>0.8705726332</v>
+      </c>
       <c r="N43" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="31"/>
-    </row>
-    <row r="44" spans="2:15" ht="28">
-      <c r="B44" s="84">
+        <v>446.36000049430402</v>
+      </c>
+      <c r="O43" s="31" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="56">
+      <c r="B44" s="81">
         <v>11415</v>
       </c>
       <c r="C44" s="33" t="s">
@@ -12443,21 +13007,31 @@
       <c r="H44" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I44" s="37"/>
-      <c r="J44" s="92" t="s">
+      <c r="I44" s="37" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J44" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
+      <c r="K44" s="37">
+        <v>1</v>
+      </c>
+      <c r="L44" s="37">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="M44" s="37">
+        <v>1</v>
+      </c>
       <c r="N44" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="39"/>
-    </row>
-    <row r="45" spans="2:15" ht="28">
-      <c r="B45" s="85">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="O44" s="39" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="70">
+      <c r="B45" s="82">
         <v>11379</v>
       </c>
       <c r="C45" s="25" t="s">
@@ -12478,20 +13052,30 @@
       <c r="H45" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="92" t="s">
+      <c r="I45" s="29" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J45" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
+      <c r="K45" s="29">
+        <v>1</v>
+      </c>
+      <c r="L45" s="29">
+        <v>257.62</v>
+      </c>
+      <c r="M45" s="29">
+        <v>1</v>
+      </c>
       <c r="N45" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="31"/>
-    </row>
-    <row r="46" spans="2:15" ht="28" hidden="1">
+        <v>257.62</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="28">
       <c r="B46" s="32">
         <v>11376</v>
       </c>
@@ -12514,7 +13098,7 @@
         <v>1047</v>
       </c>
       <c r="I46" s="37"/>
-      <c r="J46" s="92" t="s">
+      <c r="J46" s="89" t="s">
         <v>1048</v>
       </c>
       <c r="K46" s="37"/>
@@ -12526,8 +13110,8 @@
       </c>
       <c r="O46" s="39"/>
     </row>
-    <row r="47" spans="2:15" ht="28">
-      <c r="B47" s="85">
+    <row r="47" spans="2:15" ht="98">
+      <c r="B47" s="82">
         <v>11232</v>
       </c>
       <c r="C47" s="25" t="s">
@@ -12548,21 +13132,31 @@
       <c r="H47" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="92" t="s">
+      <c r="I47" s="29" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J47" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
+      <c r="K47" s="29">
+        <v>1</v>
+      </c>
+      <c r="L47" s="29">
+        <v>3200</v>
+      </c>
+      <c r="M47" s="29">
+        <v>0.125</v>
+      </c>
       <c r="N47" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="31"/>
-    </row>
-    <row r="48" spans="2:15" ht="28">
-      <c r="B48" s="84">
+        <v>400</v>
+      </c>
+      <c r="O47" s="31" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="42">
+      <c r="B48" s="81">
         <v>11231</v>
       </c>
       <c r="C48" s="33" t="s">
@@ -12583,21 +13177,31 @@
       <c r="H48" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I48" s="37"/>
-      <c r="J48" s="92" t="s">
+      <c r="I48" s="37" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J48" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37"/>
-      <c r="M48" s="37"/>
+      <c r="K48" s="37">
+        <v>1</v>
+      </c>
+      <c r="L48" s="37">
+        <v>30</v>
+      </c>
+      <c r="M48" s="37">
+        <v>0.5</v>
+      </c>
       <c r="N48" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="39"/>
-    </row>
-    <row r="49" spans="2:15" ht="28">
-      <c r="B49" s="85">
+        <v>15</v>
+      </c>
+      <c r="O48" s="39" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" ht="70">
+      <c r="B49" s="82">
         <v>11230</v>
       </c>
       <c r="C49" s="25" t="s">
@@ -12618,21 +13222,31 @@
       <c r="H49" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="92" t="s">
+      <c r="I49" s="29" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J49" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
+      <c r="K49" s="29">
+        <v>1</v>
+      </c>
+      <c r="L49" s="29">
+        <v>1577.4</v>
+      </c>
+      <c r="M49" s="29">
+        <v>0.25</v>
+      </c>
       <c r="N49" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="31"/>
-    </row>
-    <row r="50" spans="2:15" ht="28">
-      <c r="B50" s="84">
+        <v>394.35</v>
+      </c>
+      <c r="O49" s="31" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" ht="56">
+      <c r="B50" s="81">
         <v>11228</v>
       </c>
       <c r="C50" s="33" t="s">
@@ -12653,1055 +13267,1213 @@
       <c r="H50" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I50" s="37"/>
-      <c r="J50" s="92" t="s">
+      <c r="I50" s="37" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J50" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
+      <c r="K50" s="37">
+        <v>1</v>
+      </c>
+      <c r="L50" s="37">
+        <v>0.43</v>
+      </c>
+      <c r="M50" s="37">
+        <v>1</v>
+      </c>
       <c r="N50" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="39"/>
-    </row>
-    <row r="51" spans="2:15" ht="28">
-      <c r="B51" s="85">
+        <v>0.43</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" ht="56">
+      <c r="B51" s="81">
+        <v>11228</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>891</v>
+      </c>
+      <c r="D51" s="34">
+        <v>10300</v>
+      </c>
+      <c r="E51" s="35" t="s">
+        <v>892</v>
+      </c>
+      <c r="F51" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>809</v>
+      </c>
+      <c r="H51" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J51" s="89"/>
+      <c r="K51" s="37">
+        <v>2</v>
+      </c>
+      <c r="L51" s="37">
+        <v>80</v>
+      </c>
+      <c r="M51" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="N51" s="38">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>20</v>
+      </c>
+      <c r="O51" s="39" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" ht="84">
+      <c r="B52" s="82">
         <v>11225</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C52" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="D51" s="26">
+      <c r="D52" s="26">
         <v>21550</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E52" s="27" t="s">
         <v>894</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F52" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="G52" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="H52" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="92" t="s">
+      <c r="I52" s="29" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J52" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="30">
+      <c r="K52" s="29">
+        <v>1</v>
+      </c>
+      <c r="L52" s="29">
+        <v>176</v>
+      </c>
+      <c r="M52" s="29">
+        <v>1</v>
+      </c>
+      <c r="N52" s="30">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>176</v>
+      </c>
+      <c r="O52" s="31" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" ht="28">
+      <c r="B53" s="32">
+        <v>11224</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>895</v>
+      </c>
+      <c r="D53" s="34">
+        <v>8362.75</v>
+      </c>
+      <c r="E53" s="35" t="s">
+        <v>896</v>
+      </c>
+      <c r="F53" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>809</v>
+      </c>
+      <c r="H53" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I53" s="37"/>
+      <c r="J53" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O51" s="31"/>
-    </row>
-    <row r="52" spans="2:15" ht="28" hidden="1">
-      <c r="B52" s="32">
-        <v>11224</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>895</v>
-      </c>
-      <c r="D52" s="34">
-        <v>8362.75</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>896</v>
-      </c>
-      <c r="F52" s="35" t="s">
+      <c r="O53" s="39"/>
+    </row>
+    <row r="54" spans="2:15" ht="28">
+      <c r="B54" s="24">
+        <v>11223</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="D54" s="26">
+        <v>77175</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>898</v>
+      </c>
+      <c r="F54" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G52" s="35" t="s">
+      <c r="G54" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H52" s="36" t="s">
+      <c r="H54" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I52" s="37"/>
-      <c r="J52" s="92" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="38">
+      <c r="I54" s="29"/>
+      <c r="J54" s="83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O52" s="39"/>
-    </row>
-    <row r="53" spans="2:15" ht="28" hidden="1">
-      <c r="B53" s="24">
-        <v>11223</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>897</v>
-      </c>
-      <c r="D53" s="26">
-        <v>77175</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>898</v>
-      </c>
-      <c r="F53" s="27" t="s">
+      <c r="O54" s="31"/>
+    </row>
+    <row r="55" spans="2:15" ht="42">
+      <c r="B55" s="32">
+        <v>10877</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>899</v>
+      </c>
+      <c r="D55" s="34">
+        <v>85115</v>
+      </c>
+      <c r="E55" s="35" t="s">
+        <v>900</v>
+      </c>
+      <c r="F55" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G55" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H53" s="28" t="s">
+      <c r="H55" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="86" t="s">
+      <c r="I55" s="37"/>
+      <c r="J55" s="84" t="s">
         <v>1047</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="30">
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O53" s="31"/>
-    </row>
-    <row r="54" spans="2:15" ht="42" hidden="1">
-      <c r="B54" s="32">
-        <v>10877</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>899</v>
-      </c>
-      <c r="D54" s="34">
-        <v>85115</v>
-      </c>
-      <c r="E54" s="35" t="s">
+      <c r="O55" s="39"/>
+    </row>
+    <row r="56" spans="2:15" ht="42">
+      <c r="B56" s="24">
+        <v>10878</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="D56" s="26">
+        <v>77615</v>
+      </c>
+      <c r="E56" s="27" t="s">
         <v>900</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="F56" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G54" s="35" t="s">
+      <c r="G56" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H54" s="36" t="s">
+      <c r="H56" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I54" s="37"/>
-      <c r="J54" s="87" t="s">
+      <c r="I56" s="29"/>
+      <c r="J56" s="83" t="s">
         <v>1047</v>
       </c>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="38">
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O54" s="39"/>
-    </row>
-    <row r="55" spans="2:15" ht="42" hidden="1">
-      <c r="B55" s="24">
-        <v>10878</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>901</v>
-      </c>
-      <c r="D55" s="26">
-        <v>77615</v>
-      </c>
-      <c r="E55" s="27" t="s">
+      <c r="O56" s="31"/>
+    </row>
+    <row r="57" spans="2:15" ht="42">
+      <c r="B57" s="32">
+        <v>10881</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>902</v>
+      </c>
+      <c r="D57" s="34">
+        <v>300175</v>
+      </c>
+      <c r="E57" s="35" t="s">
         <v>900</v>
       </c>
-      <c r="F55" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="G55" s="27" t="s">
+      <c r="F57" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H57" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="86" t="s">
+      <c r="I57" s="37"/>
+      <c r="J57" s="84" t="s">
         <v>1047</v>
       </c>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="30">
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O55" s="31"/>
-    </row>
-    <row r="56" spans="2:15" ht="42" hidden="1">
-      <c r="B56" s="32">
-        <v>10881</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>902</v>
-      </c>
-      <c r="D56" s="34">
-        <v>300175</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>900</v>
-      </c>
-      <c r="F56" s="35" t="s">
+      <c r="O57" s="39"/>
+    </row>
+    <row r="58" spans="2:15" ht="56">
+      <c r="B58" s="82">
+        <v>10882</v>
+      </c>
+      <c r="C58" s="92" t="s">
+        <v>903</v>
+      </c>
+      <c r="D58" s="93">
+        <v>65790</v>
+      </c>
+      <c r="E58" s="94" t="s">
+        <v>904</v>
+      </c>
+      <c r="F58" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="G56" s="35" t="s">
+      <c r="G58" s="94" t="s">
         <v>809</v>
       </c>
-      <c r="H56" s="36" t="s">
+      <c r="H58" s="95" t="s">
         <v>1047</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="87" t="s">
+      <c r="I58" s="107" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J58" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K58" s="97" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L58" s="97" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M58" s="97" t="s">
+        <v>1126</v>
+      </c>
+      <c r="N58" s="98" t="e">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O58" s="108" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" ht="56">
+      <c r="B59" s="32">
+        <v>10880</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>905</v>
+      </c>
+      <c r="D59" s="34">
+        <v>6115</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>906</v>
+      </c>
+      <c r="F59" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>809</v>
+      </c>
+      <c r="H59" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="38">
+      <c r="I59" s="37"/>
+      <c r="J59" s="84" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O56" s="39"/>
-    </row>
-    <row r="57" spans="2:15" ht="42">
-      <c r="B57" s="85">
-        <v>10882</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>903</v>
-      </c>
-      <c r="D57" s="26">
-        <v>65790</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>904</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="G57" s="27" t="s">
+      <c r="O59" s="39"/>
+    </row>
+    <row r="60" spans="2:15" ht="42">
+      <c r="B60" s="24">
+        <v>10657</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="D60" s="26">
+        <v>10155</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>908</v>
+      </c>
+      <c r="F60" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G60" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="H60" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I57" s="29"/>
-      <c r="J57" s="92" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="30">
+      <c r="I60" s="29"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O57" s="31"/>
-    </row>
-    <row r="58" spans="2:15" ht="56" hidden="1">
-      <c r="B58" s="32">
-        <v>10880</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>905</v>
-      </c>
-      <c r="D58" s="34">
-        <v>6115</v>
-      </c>
-      <c r="E58" s="35" t="s">
-        <v>906</v>
-      </c>
-      <c r="F58" s="35" t="s">
+      <c r="O60" s="31"/>
+    </row>
+    <row r="61" spans="2:15" ht="42">
+      <c r="B61" s="32">
+        <v>10655</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>909</v>
+      </c>
+      <c r="D61" s="34">
+        <v>16115</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>910</v>
+      </c>
+      <c r="F61" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G58" s="35" t="s">
+      <c r="G61" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H61" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I58" s="37"/>
-      <c r="J58" s="87" t="s">
-        <v>1047</v>
-      </c>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="38">
+      <c r="I61" s="37"/>
+      <c r="J61" s="84"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O58" s="39"/>
-    </row>
-    <row r="59" spans="2:15" ht="42" hidden="1">
-      <c r="B59" s="24">
-        <v>10657</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>907</v>
-      </c>
-      <c r="D59" s="26">
-        <v>10155</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>908</v>
-      </c>
-      <c r="F59" s="27" t="s">
+      <c r="O61" s="39"/>
+    </row>
+    <row r="62" spans="2:15" ht="28">
+      <c r="B62" s="24">
+        <v>10205</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="D62" s="26">
+        <v>1385</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>912</v>
+      </c>
+      <c r="F62" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G62" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H62" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="30">
+      <c r="I62" s="29"/>
+      <c r="J62" s="83"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O59" s="31"/>
-    </row>
-    <row r="60" spans="2:15" ht="42" hidden="1">
-      <c r="B60" s="32">
-        <v>10655</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>909</v>
-      </c>
-      <c r="D60" s="34">
-        <v>16115</v>
-      </c>
-      <c r="E60" s="35" t="s">
-        <v>910</v>
-      </c>
-      <c r="F60" s="35" t="s">
+      <c r="O62" s="31"/>
+    </row>
+    <row r="63" spans="2:15" ht="42">
+      <c r="B63" s="81">
+        <v>10204</v>
+      </c>
+      <c r="C63" s="92" t="s">
+        <v>913</v>
+      </c>
+      <c r="D63" s="93">
+        <v>2245</v>
+      </c>
+      <c r="E63" s="94" t="s">
+        <v>914</v>
+      </c>
+      <c r="F63" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="G60" s="35" t="s">
+      <c r="G63" s="94" t="s">
         <v>809</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H63" s="95" t="s">
         <v>1047</v>
       </c>
-      <c r="I60" s="37"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="38">
+      <c r="I63" s="99" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J63" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K63" s="96">
+        <v>1</v>
+      </c>
+      <c r="L63" s="96">
+        <v>116.35</v>
+      </c>
+      <c r="M63" s="96">
+        <v>1</v>
+      </c>
+      <c r="N63" s="98">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>116.35</v>
+      </c>
+      <c r="O63" s="100" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" ht="28">
+      <c r="B64" s="24">
+        <v>9497</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>915</v>
+      </c>
+      <c r="D64" s="26">
+        <v>25150</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>916</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I64" s="29"/>
+      <c r="J64" s="83"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O60" s="39"/>
-    </row>
-    <row r="61" spans="2:15" ht="28" hidden="1">
-      <c r="B61" s="24">
-        <v>10205</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>911</v>
-      </c>
-      <c r="D61" s="26">
-        <v>1385</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>912</v>
-      </c>
-      <c r="F61" s="27" t="s">
+      <c r="O64" s="31"/>
+    </row>
+    <row r="65" spans="2:15" ht="42">
+      <c r="B65" s="81">
+        <v>8658</v>
+      </c>
+      <c r="C65" s="92" t="s">
+        <v>917</v>
+      </c>
+      <c r="D65" s="93">
+        <v>25160</v>
+      </c>
+      <c r="E65" s="94" t="s">
+        <v>918</v>
+      </c>
+      <c r="F65" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G65" s="94" t="s">
         <v>809</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H65" s="95" t="s">
         <v>1047</v>
       </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="86"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="30">
+      <c r="I65" s="107" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J65" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K65" s="96"/>
+      <c r="L65" s="96"/>
+      <c r="M65" s="96"/>
+      <c r="N65" s="98">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O61" s="31"/>
-    </row>
-    <row r="62" spans="2:15" ht="42">
-      <c r="B62" s="84">
-        <v>10204</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>913</v>
-      </c>
-      <c r="D62" s="34">
-        <v>2245</v>
-      </c>
-      <c r="E62" s="35" t="s">
-        <v>914</v>
-      </c>
-      <c r="F62" s="35" t="s">
+      <c r="O65" s="109"/>
+    </row>
+    <row r="66" spans="2:15" ht="182">
+      <c r="B66" s="91">
+        <v>8659</v>
+      </c>
+      <c r="C66" s="101" t="s">
+        <v>919</v>
+      </c>
+      <c r="D66" s="102">
+        <v>10490</v>
+      </c>
+      <c r="E66" s="103" t="s">
+        <v>920</v>
+      </c>
+      <c r="F66" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="G62" s="35" t="s">
+      <c r="G66" s="103" t="s">
         <v>809</v>
       </c>
-      <c r="H62" s="36" t="s">
+      <c r="H66" s="104" t="s">
         <v>1047</v>
       </c>
-      <c r="I62" s="37"/>
-      <c r="J62" s="92" t="s">
+      <c r="I66" s="99" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J66" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="38">
+      <c r="K66" s="99">
+        <v>1</v>
+      </c>
+      <c r="L66" s="99">
+        <v>236.39</v>
+      </c>
+      <c r="M66" s="99">
+        <v>1</v>
+      </c>
+      <c r="N66" s="105">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>236.39</v>
+      </c>
+      <c r="O66" s="106" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="70">
+      <c r="B67" s="81">
+        <v>8475</v>
+      </c>
+      <c r="C67" s="92" t="s">
+        <v>921</v>
+      </c>
+      <c r="D67" s="93">
+        <v>10050</v>
+      </c>
+      <c r="E67" s="94" t="s">
+        <v>922</v>
+      </c>
+      <c r="F67" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="G67" s="94" t="s">
+        <v>809</v>
+      </c>
+      <c r="H67" s="95" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I67" s="99" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J67" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K67" s="96">
+        <v>1</v>
+      </c>
+      <c r="L67" s="96">
+        <v>74.61</v>
+      </c>
+      <c r="M67" s="96">
+        <v>1</v>
+      </c>
+      <c r="N67" s="98">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>74.61</v>
+      </c>
+      <c r="O67" s="100" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" ht="42">
+      <c r="B68" s="24">
+        <v>8315</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="D68" s="26">
+        <v>25650</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>924</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I68" s="29"/>
+      <c r="J68" s="83"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O62" s="39"/>
-    </row>
-    <row r="63" spans="2:15" ht="28" hidden="1">
-      <c r="B63" s="24">
-        <v>9497</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>915</v>
-      </c>
-      <c r="D63" s="26">
-        <v>25150</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>916</v>
-      </c>
-      <c r="F63" s="27" t="s">
+      <c r="O68" s="31"/>
+    </row>
+    <row r="69" spans="2:15" ht="70">
+      <c r="B69" s="81">
+        <v>8414</v>
+      </c>
+      <c r="C69" s="92" t="s">
+        <v>925</v>
+      </c>
+      <c r="D69" s="93">
+        <v>20350</v>
+      </c>
+      <c r="E69" s="94" t="s">
+        <v>926</v>
+      </c>
+      <c r="F69" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="G63" s="27" t="s">
+      <c r="G69" s="94" t="s">
         <v>809</v>
       </c>
-      <c r="H63" s="28" t="s">
+      <c r="H69" s="95" t="s">
         <v>1047</v>
       </c>
-      <c r="I63" s="29"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="30">
+      <c r="I69" s="99" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J69" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K69" s="96">
+        <v>1</v>
+      </c>
+      <c r="L69" s="96">
+        <v>100</v>
+      </c>
+      <c r="M69" s="96">
+        <v>1</v>
+      </c>
+      <c r="N69" s="98">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>100</v>
+      </c>
+      <c r="O69" s="100" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" ht="42">
+      <c r="B70" s="24">
+        <v>7800</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>927</v>
+      </c>
+      <c r="D70" s="26">
+        <v>140150</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>928</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I70" s="29"/>
+      <c r="J70" s="83"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O63" s="31"/>
-    </row>
-    <row r="64" spans="2:15" ht="42">
-      <c r="B64" s="84">
-        <v>8658</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>917</v>
-      </c>
-      <c r="D64" s="34">
-        <v>25160</v>
-      </c>
-      <c r="E64" s="35" t="s">
-        <v>918</v>
-      </c>
-      <c r="F64" s="35" t="s">
+      <c r="O70" s="31"/>
+    </row>
+    <row r="71" spans="2:15" ht="28">
+      <c r="B71" s="32">
+        <v>7897</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>929</v>
+      </c>
+      <c r="D71" s="34">
+        <v>56550</v>
+      </c>
+      <c r="E71" s="35" t="s">
+        <v>930</v>
+      </c>
+      <c r="F71" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="G64" s="35" t="s">
+      <c r="G71" s="35" t="s">
         <v>809</v>
       </c>
-      <c r="H64" s="36" t="s">
+      <c r="H71" s="36" t="s">
         <v>1047</v>
       </c>
-      <c r="I64" s="37"/>
-      <c r="J64" s="92" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="38">
+      <c r="I71" s="37"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O64" s="39"/>
-    </row>
-    <row r="65" spans="2:15" ht="28">
-      <c r="B65" s="85">
-        <v>8659</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>919</v>
-      </c>
-      <c r="D65" s="26">
-        <v>10490</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>920</v>
-      </c>
-      <c r="F65" s="27" t="s">
+      <c r="O71" s="39"/>
+    </row>
+    <row r="72" spans="2:15" ht="70">
+      <c r="B72" s="82">
+        <v>7425</v>
+      </c>
+      <c r="C72" s="92" t="s">
+        <v>931</v>
+      </c>
+      <c r="D72" s="93">
+        <v>140150</v>
+      </c>
+      <c r="E72" s="94" t="s">
+        <v>932</v>
+      </c>
+      <c r="F72" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="G65" s="27" t="s">
+      <c r="G72" s="94" t="s">
         <v>809</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H72" s="95" t="s">
         <v>1047</v>
       </c>
-      <c r="I65" s="29"/>
-      <c r="J65" s="92" t="s">
+      <c r="I72" s="99" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J72" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="30">
+      <c r="K72" s="96">
+        <v>1</v>
+      </c>
+      <c r="L72" s="96">
+        <v>700</v>
+      </c>
+      <c r="M72" s="96">
+        <v>1</v>
+      </c>
+      <c r="N72" s="98">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>700</v>
+      </c>
+      <c r="O72" s="100" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" ht="70">
+      <c r="B73" s="82">
+        <v>7425</v>
+      </c>
+      <c r="C73" s="92" t="s">
+        <v>931</v>
+      </c>
+      <c r="D73" s="93">
+        <v>140150</v>
+      </c>
+      <c r="E73" s="94" t="s">
+        <v>932</v>
+      </c>
+      <c r="F73" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="G73" s="94" t="s">
+        <v>809</v>
+      </c>
+      <c r="H73" s="95" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I73" s="99" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J73" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K73" s="96">
+        <v>2</v>
+      </c>
+      <c r="L73" s="96">
+        <v>35.5</v>
+      </c>
+      <c r="M73" s="96">
+        <v>1</v>
+      </c>
+      <c r="N73" s="98">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>35.5</v>
+      </c>
+      <c r="O73" s="100" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" ht="70">
+      <c r="B74" s="82">
+        <v>7425</v>
+      </c>
+      <c r="C74" s="92" t="s">
+        <v>931</v>
+      </c>
+      <c r="D74" s="93">
+        <v>140150</v>
+      </c>
+      <c r="E74" s="94" t="s">
+        <v>932</v>
+      </c>
+      <c r="F74" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="G74" s="94" t="s">
+        <v>809</v>
+      </c>
+      <c r="H74" s="95" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I74" s="99" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J74" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K74" s="96">
+        <v>3</v>
+      </c>
+      <c r="L74" s="96">
+        <v>1.32</v>
+      </c>
+      <c r="M74" s="96">
+        <v>1</v>
+      </c>
+      <c r="N74" s="98">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>1.32</v>
+      </c>
+      <c r="O74" s="100" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" ht="42">
+      <c r="B75" s="32">
+        <v>7219</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>933</v>
+      </c>
+      <c r="D75" s="34">
+        <v>4800</v>
+      </c>
+      <c r="E75" s="35" t="s">
+        <v>934</v>
+      </c>
+      <c r="F75" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" s="35" t="s">
+        <v>809</v>
+      </c>
+      <c r="H75" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I75" s="37"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O65" s="31"/>
-    </row>
-    <row r="66" spans="2:15" ht="28">
-      <c r="B66" s="84">
-        <v>8475</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>921</v>
-      </c>
-      <c r="D66" s="34">
-        <v>10050</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>922</v>
-      </c>
-      <c r="F66" s="35" t="s">
+      <c r="O75" s="39"/>
+    </row>
+    <row r="76" spans="2:15" ht="28">
+      <c r="B76" s="24">
+        <v>7399</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="D76" s="26">
+        <v>62950</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>936</v>
+      </c>
+      <c r="F76" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="G66" s="35" t="s">
+      <c r="G76" s="27" t="s">
         <v>809</v>
       </c>
-      <c r="H66" s="36" t="s">
+      <c r="H76" s="28" t="s">
         <v>1047</v>
       </c>
-      <c r="I66" s="37"/>
-      <c r="J66" s="92" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="38">
+      <c r="I76" s="29"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="29"/>
+      <c r="N76" s="30">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O66" s="39"/>
-    </row>
-    <row r="67" spans="2:15" ht="42" hidden="1">
-      <c r="B67" s="24">
-        <v>8315</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>923</v>
-      </c>
-      <c r="D67" s="26">
-        <v>25650</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>924</v>
-      </c>
-      <c r="F67" s="27" t="s">
+      <c r="O76" s="31"/>
+    </row>
+    <row r="77" spans="2:15" ht="126">
+      <c r="B77" s="81">
+        <v>7342</v>
+      </c>
+      <c r="C77" s="101" t="s">
+        <v>937</v>
+      </c>
+      <c r="D77" s="102">
+        <v>182150</v>
+      </c>
+      <c r="E77" s="103" t="s">
+        <v>938</v>
+      </c>
+      <c r="F77" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="G67" s="27" t="s">
+      <c r="G77" s="103" t="s">
         <v>809</v>
       </c>
-      <c r="H67" s="28" t="s">
+      <c r="H77" s="104" t="s">
         <v>1047</v>
       </c>
-      <c r="I67" s="29"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="30">
+      <c r="I77" s="99" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J77" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K77" s="99">
+        <v>1</v>
+      </c>
+      <c r="L77" s="99">
+        <v>2000</v>
+      </c>
+      <c r="M77" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="N77" s="105">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O67" s="31"/>
-    </row>
-    <row r="68" spans="2:15" ht="28">
-      <c r="B68" s="84">
-        <v>8414</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>925</v>
-      </c>
-      <c r="D68" s="34">
-        <v>20350</v>
-      </c>
-      <c r="E68" s="35" t="s">
-        <v>926</v>
-      </c>
-      <c r="F68" s="35" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O77" s="106" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="70">
+      <c r="B78" s="82">
+        <v>7341</v>
+      </c>
+      <c r="C78" s="92" t="s">
+        <v>939</v>
+      </c>
+      <c r="D78" s="93">
+        <v>8350</v>
+      </c>
+      <c r="E78" s="94" t="s">
+        <v>940</v>
+      </c>
+      <c r="F78" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="G68" s="35" t="s">
+      <c r="G78" s="94" t="s">
         <v>809</v>
       </c>
-      <c r="H68" s="36" t="s">
+      <c r="H78" s="95" t="s">
         <v>1047</v>
       </c>
-      <c r="I68" s="37"/>
-      <c r="J68" s="92" t="s">
+      <c r="I78" s="99" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J78" s="89" t="s">
         <v>1048</v>
       </c>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="38">
+      <c r="K78" s="96">
+        <v>1</v>
+      </c>
+      <c r="L78" s="96">
+        <v>50</v>
+      </c>
+      <c r="M78" s="96">
+        <v>1</v>
+      </c>
+      <c r="N78" s="98">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O68" s="39"/>
-    </row>
-    <row r="69" spans="2:15" ht="42" hidden="1">
-      <c r="B69" s="24">
-        <v>7800</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>927</v>
-      </c>
-      <c r="D69" s="26">
-        <v>140150</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>928</v>
-      </c>
-      <c r="F69" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="O78" s="100" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" ht="98">
+      <c r="B79" s="81">
+        <v>7297</v>
+      </c>
+      <c r="C79" s="92" t="s">
+        <v>941</v>
+      </c>
+      <c r="D79" s="93">
+        <v>17750</v>
+      </c>
+      <c r="E79" s="94" t="s">
+        <v>942</v>
+      </c>
+      <c r="F79" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="G69" s="27" t="s">
+      <c r="G79" s="94" t="s">
         <v>809</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H79" s="95" t="s">
         <v>1047</v>
       </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="86"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="30">
+      <c r="I79" s="99" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J79" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K79" s="96">
+        <v>1</v>
+      </c>
+      <c r="L79" s="96">
+        <v>2</v>
+      </c>
+      <c r="M79" s="96">
+        <v>0.4375</v>
+      </c>
+      <c r="N79" s="98">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="31"/>
-    </row>
-    <row r="70" spans="2:15" ht="28" hidden="1">
-      <c r="B70" s="32">
-        <v>7897</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>929</v>
-      </c>
-      <c r="D70" s="34">
-        <v>56550</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>930</v>
-      </c>
-      <c r="F70" s="35" t="s">
+        <v>0.875</v>
+      </c>
+      <c r="O79" s="100" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15" ht="70">
+      <c r="B80" s="81">
+        <v>7297</v>
+      </c>
+      <c r="C80" s="92" t="s">
+        <v>941</v>
+      </c>
+      <c r="D80" s="93">
+        <v>17750</v>
+      </c>
+      <c r="E80" s="94" t="s">
+        <v>942</v>
+      </c>
+      <c r="F80" s="94" t="s">
         <v>188</v>
       </c>
-      <c r="G70" s="35" t="s">
+      <c r="G80" s="94" t="s">
         <v>809</v>
       </c>
-      <c r="H70" s="36" t="s">
+      <c r="H80" s="95" t="s">
         <v>1047</v>
       </c>
-      <c r="I70" s="37"/>
-      <c r="J70" s="87"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="38">
+      <c r="I80" s="99" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J80" s="89" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K80" s="96">
+        <v>2</v>
+      </c>
+      <c r="L80" s="96">
+        <v>204.63</v>
+      </c>
+      <c r="M80" s="96">
+        <v>1</v>
+      </c>
+      <c r="N80" s="98">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O70" s="39"/>
-    </row>
-    <row r="71" spans="2:15" ht="28">
-      <c r="B71" s="85">
-        <v>7425</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>931</v>
-      </c>
-      <c r="D71" s="26">
-        <v>140150</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>932</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="G71" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I71" s="29"/>
-      <c r="J71" s="92" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="30">
-        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O71" s="31"/>
-    </row>
-    <row r="72" spans="2:15" ht="42" hidden="1">
-      <c r="B72" s="32">
-        <v>7219</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>933</v>
-      </c>
-      <c r="D72" s="34">
-        <v>4800</v>
-      </c>
-      <c r="E72" s="35" t="s">
-        <v>934</v>
-      </c>
-      <c r="F72" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>809</v>
-      </c>
-      <c r="H72" s="36" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I72" s="37"/>
-      <c r="J72" s="87"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="38">
-        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O72" s="39"/>
-    </row>
-    <row r="73" spans="2:15" ht="28" hidden="1">
-      <c r="B73" s="24">
-        <v>7399</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>935</v>
-      </c>
-      <c r="D73" s="26">
-        <v>62950</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>936</v>
-      </c>
-      <c r="F73" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="G73" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="H73" s="28" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I73" s="29"/>
-      <c r="J73" s="86"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="30">
-        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O73" s="31"/>
-    </row>
-    <row r="74" spans="2:15" ht="28">
-      <c r="B74" s="84">
-        <v>7342</v>
-      </c>
-      <c r="C74" s="33" t="s">
-        <v>937</v>
-      </c>
-      <c r="D74" s="34">
-        <v>182150</v>
-      </c>
-      <c r="E74" s="35" t="s">
-        <v>938</v>
-      </c>
-      <c r="F74" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>809</v>
-      </c>
-      <c r="H74" s="36" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I74" s="37"/>
-      <c r="J74" s="92" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="38">
-        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O74" s="39"/>
-    </row>
-    <row r="75" spans="2:15" ht="28">
-      <c r="B75" s="85">
-        <v>7341</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>939</v>
-      </c>
-      <c r="D75" s="26">
-        <v>8350</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>940</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I75" s="29"/>
-      <c r="J75" s="92" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="30">
-        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O75" s="31"/>
-    </row>
-    <row r="76" spans="2:15" ht="28">
-      <c r="B76" s="84">
-        <v>7297</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>941</v>
-      </c>
-      <c r="D76" s="34">
-        <v>17750</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>942</v>
-      </c>
-      <c r="F76" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G76" s="35" t="s">
-        <v>809</v>
-      </c>
-      <c r="H76" s="36" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I76" s="37"/>
-      <c r="J76" s="92" t="s">
-        <v>1048</v>
-      </c>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="38">
-        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O76" s="39"/>
-    </row>
-    <row r="77" spans="2:15" ht="28" hidden="1">
-      <c r="B77" s="24">
+        <v>204.63</v>
+      </c>
+      <c r="O80" s="100" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" ht="28">
+      <c r="B81" s="24">
         <v>7296</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="C81" s="25" t="s">
         <v>943</v>
       </c>
-      <c r="D77" s="26">
+      <c r="D81" s="26">
         <v>1750</v>
       </c>
-      <c r="E77" s="27" t="s">
+      <c r="E81" s="27" t="s">
         <v>944</v>
-      </c>
-      <c r="F77" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="G77" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="H77" s="28" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I77" s="29"/>
-      <c r="J77" s="86"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="30">
-        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O77" s="31"/>
-    </row>
-    <row r="78" spans="2:15" ht="28" hidden="1">
-      <c r="B78" s="32">
-        <v>7295</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>945</v>
-      </c>
-      <c r="D78" s="34">
-        <v>975</v>
-      </c>
-      <c r="E78" s="35" t="s">
-        <v>946</v>
-      </c>
-      <c r="F78" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G78" s="35" t="s">
-        <v>809</v>
-      </c>
-      <c r="H78" s="36" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I78" s="37"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="38">
-        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O78" s="39"/>
-    </row>
-    <row r="79" spans="2:15" ht="28" hidden="1">
-      <c r="B79" s="24">
-        <v>7290</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>947</v>
-      </c>
-      <c r="D79" s="26">
-        <v>1450</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>948</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="G79" s="27" t="s">
-        <v>809</v>
-      </c>
-      <c r="H79" s="28" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I79" s="29"/>
-      <c r="J79" s="86"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="30">
-        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O79" s="31"/>
-    </row>
-    <row r="80" spans="2:15" ht="28" hidden="1">
-      <c r="B80" s="32">
-        <v>7101</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>949</v>
-      </c>
-      <c r="D80" s="34">
-        <v>75200</v>
-      </c>
-      <c r="E80" s="35" t="s">
-        <v>950</v>
-      </c>
-      <c r="F80" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>809</v>
-      </c>
-      <c r="H80" s="36" t="s">
-        <v>1047</v>
-      </c>
-      <c r="I80" s="37"/>
-      <c r="J80" s="87"/>
-      <c r="K80" s="37"/>
-      <c r="L80" s="37"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="38">
-        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
-        <v>0</v>
-      </c>
-      <c r="O80" s="39"/>
-    </row>
-    <row r="81" spans="2:15" ht="28" hidden="1">
-      <c r="B81" s="24">
-        <v>7097</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>951</v>
-      </c>
-      <c r="D81" s="26">
-        <v>4350</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>952</v>
       </c>
       <c r="F81" s="27" t="s">
         <v>188</v>
@@ -13713,7 +14485,7 @@
         <v>1047</v>
       </c>
       <c r="I81" s="29"/>
-      <c r="J81" s="86"/>
+      <c r="J81" s="83"/>
       <c r="K81" s="29"/>
       <c r="L81" s="29"/>
       <c r="M81" s="29"/>
@@ -13723,18 +14495,18 @@
       </c>
       <c r="O81" s="31"/>
     </row>
-    <row r="82" spans="2:15" ht="28" hidden="1">
+    <row r="82" spans="2:15" ht="28">
       <c r="B82" s="32">
-        <v>7094</v>
+        <v>7295</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="D82" s="34">
-        <v>24550</v>
+        <v>975</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="F82" s="35" t="s">
         <v>188</v>
@@ -13746,7 +14518,7 @@
         <v>1047</v>
       </c>
       <c r="I82" s="37"/>
-      <c r="J82" s="87"/>
+      <c r="J82" s="84"/>
       <c r="K82" s="37"/>
       <c r="L82" s="37"/>
       <c r="M82" s="37"/>
@@ -13756,18 +14528,18 @@
       </c>
       <c r="O82" s="39"/>
     </row>
-    <row r="83" spans="2:15" ht="28" hidden="1">
+    <row r="83" spans="2:15" ht="28">
       <c r="B83" s="24">
-        <v>6879</v>
+        <v>7290</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="D83" s="26">
-        <v>3800</v>
+        <v>1450</v>
       </c>
       <c r="E83" s="27" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="F83" s="27" t="s">
         <v>188</v>
@@ -13779,7 +14551,7 @@
         <v>1047</v>
       </c>
       <c r="I83" s="29"/>
-      <c r="J83" s="86"/>
+      <c r="J83" s="83"/>
       <c r="K83" s="29"/>
       <c r="L83" s="29"/>
       <c r="M83" s="29"/>
@@ -13789,18 +14561,18 @@
       </c>
       <c r="O83" s="31"/>
     </row>
-    <row r="84" spans="2:15" ht="28" hidden="1">
+    <row r="84" spans="2:15" ht="28">
       <c r="B84" s="32">
-        <v>6878</v>
+        <v>7101</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="D84" s="34">
-        <v>6700</v>
+        <v>75200</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="F84" s="35" t="s">
         <v>188</v>
@@ -13812,7 +14584,7 @@
         <v>1047</v>
       </c>
       <c r="I84" s="37"/>
-      <c r="J84" s="87"/>
+      <c r="J84" s="84"/>
       <c r="K84" s="37"/>
       <c r="L84" s="37"/>
       <c r="M84" s="37"/>
@@ -13822,18 +14594,18 @@
       </c>
       <c r="O84" s="39"/>
     </row>
-    <row r="85" spans="2:15" ht="28" hidden="1">
+    <row r="85" spans="2:15" ht="28">
       <c r="B85" s="24">
-        <v>6848</v>
+        <v>7097</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="D85" s="26">
-        <v>32550</v>
+        <v>4350</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F85" s="27" t="s">
         <v>188</v>
@@ -13845,7 +14617,7 @@
         <v>1047</v>
       </c>
       <c r="I85" s="29"/>
-      <c r="J85" s="86"/>
+      <c r="J85" s="83"/>
       <c r="K85" s="29"/>
       <c r="L85" s="29"/>
       <c r="M85" s="29"/>
@@ -13855,18 +14627,18 @@
       </c>
       <c r="O85" s="31"/>
     </row>
-    <row r="86" spans="2:15" ht="28" hidden="1">
+    <row r="86" spans="2:15" ht="28">
       <c r="B86" s="32">
-        <v>6752</v>
+        <v>7094</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="D86" s="34">
-        <v>10250</v>
+        <v>24550</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="F86" s="35" t="s">
         <v>188</v>
@@ -13878,7 +14650,7 @@
         <v>1047</v>
       </c>
       <c r="I86" s="37"/>
-      <c r="J86" s="87"/>
+      <c r="J86" s="84"/>
       <c r="K86" s="37"/>
       <c r="L86" s="37"/>
       <c r="M86" s="37"/>
@@ -13888,18 +14660,18 @@
       </c>
       <c r="O86" s="39"/>
     </row>
-    <row r="87" spans="2:15" ht="28" hidden="1">
+    <row r="87" spans="2:15" ht="28">
       <c r="B87" s="24">
-        <v>6744</v>
+        <v>6879</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="D87" s="26">
-        <v>14950</v>
+        <v>3800</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="F87" s="27" t="s">
         <v>188</v>
@@ -13911,7 +14683,7 @@
         <v>1047</v>
       </c>
       <c r="I87" s="29"/>
-      <c r="J87" s="86"/>
+      <c r="J87" s="83"/>
       <c r="K87" s="29"/>
       <c r="L87" s="29"/>
       <c r="M87" s="29"/>
@@ -13921,21 +14693,21 @@
       </c>
       <c r="O87" s="31"/>
     </row>
-    <row r="88" spans="2:15" ht="28" hidden="1">
+    <row r="88" spans="2:15" ht="28">
       <c r="B88" s="32">
-        <v>6294</v>
+        <v>6878</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="D88" s="34">
-        <v>21320</v>
+        <v>6700</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="F88" s="35" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="G88" s="35" t="s">
         <v>809</v>
@@ -13944,7 +14716,7 @@
         <v>1047</v>
       </c>
       <c r="I88" s="37"/>
-      <c r="J88" s="87"/>
+      <c r="J88" s="84"/>
       <c r="K88" s="37"/>
       <c r="L88" s="37"/>
       <c r="M88" s="37"/>
@@ -13954,18 +14726,18 @@
       </c>
       <c r="O88" s="39"/>
     </row>
-    <row r="89" spans="2:15" ht="28" hidden="1">
+    <row r="89" spans="2:15" ht="28">
       <c r="B89" s="24">
-        <v>6293</v>
+        <v>6848</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="D89" s="26">
-        <v>7095</v>
+        <v>32550</v>
       </c>
       <c r="E89" s="27" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="F89" s="27" t="s">
         <v>188</v>
@@ -13977,7 +14749,7 @@
         <v>1047</v>
       </c>
       <c r="I89" s="29"/>
-      <c r="J89" s="86"/>
+      <c r="J89" s="83"/>
       <c r="K89" s="29"/>
       <c r="L89" s="29"/>
       <c r="M89" s="29"/>
@@ -13987,18 +14759,18 @@
       </c>
       <c r="O89" s="31"/>
     </row>
-    <row r="90" spans="2:15" ht="28" hidden="1">
+    <row r="90" spans="2:15" ht="28">
       <c r="B90" s="32">
-        <v>6292</v>
+        <v>6752</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D90" s="34">
-        <v>66285</v>
+        <v>10250</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="F90" s="35" t="s">
         <v>188</v>
@@ -14010,7 +14782,7 @@
         <v>1047</v>
       </c>
       <c r="I90" s="37"/>
-      <c r="J90" s="87"/>
+      <c r="J90" s="84"/>
       <c r="K90" s="37"/>
       <c r="L90" s="37"/>
       <c r="M90" s="37"/>
@@ -14020,18 +14792,18 @@
       </c>
       <c r="O90" s="39"/>
     </row>
-    <row r="91" spans="2:15" ht="28" hidden="1">
+    <row r="91" spans="2:15" ht="28">
       <c r="B91" s="24">
-        <v>6291</v>
+        <v>6744</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="D91" s="26">
-        <v>416885</v>
+        <v>14950</v>
       </c>
       <c r="E91" s="27" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="F91" s="27" t="s">
         <v>188</v>
@@ -14043,7 +14815,7 @@
         <v>1047</v>
       </c>
       <c r="I91" s="29"/>
-      <c r="J91" s="86"/>
+      <c r="J91" s="83"/>
       <c r="K91" s="29"/>
       <c r="L91" s="29"/>
       <c r="M91" s="29"/>
@@ -14053,21 +14825,21 @@
       </c>
       <c r="O91" s="31"/>
     </row>
-    <row r="92" spans="2:15" ht="28" hidden="1">
+    <row r="92" spans="2:15" ht="28">
       <c r="B92" s="32">
-        <v>6290</v>
+        <v>6294</v>
       </c>
       <c r="C92" s="33" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="D92" s="34">
-        <v>22185</v>
+        <v>21320</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="F92" s="35" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="G92" s="35" t="s">
         <v>809</v>
@@ -14076,7 +14848,7 @@
         <v>1047</v>
       </c>
       <c r="I92" s="37"/>
-      <c r="J92" s="87"/>
+      <c r="J92" s="84"/>
       <c r="K92" s="37"/>
       <c r="L92" s="37"/>
       <c r="M92" s="37"/>
@@ -14086,21 +14858,21 @@
       </c>
       <c r="O92" s="39"/>
     </row>
-    <row r="93" spans="2:15" ht="42" hidden="1">
+    <row r="93" spans="2:15" ht="28">
       <c r="B93" s="24">
-        <v>6289</v>
+        <v>6293</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="D93" s="26">
-        <v>5780</v>
+        <v>7095</v>
       </c>
       <c r="E93" s="27" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="G93" s="27" t="s">
         <v>809</v>
@@ -14109,7 +14881,7 @@
         <v>1047</v>
       </c>
       <c r="I93" s="29"/>
-      <c r="J93" s="86"/>
+      <c r="J93" s="83"/>
       <c r="K93" s="29"/>
       <c r="L93" s="29"/>
       <c r="M93" s="29"/>
@@ -14119,18 +14891,18 @@
       </c>
       <c r="O93" s="31"/>
     </row>
-    <row r="94" spans="2:15" ht="28" hidden="1">
+    <row r="94" spans="2:15" ht="28">
       <c r="B94" s="32">
-        <v>6288</v>
+        <v>6292</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="D94" s="34">
-        <v>68285</v>
+        <v>66285</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="F94" s="35" t="s">
         <v>188</v>
@@ -14142,7 +14914,7 @@
         <v>1047</v>
       </c>
       <c r="I94" s="37"/>
-      <c r="J94" s="87"/>
+      <c r="J94" s="84"/>
       <c r="K94" s="37"/>
       <c r="L94" s="37"/>
       <c r="M94" s="37"/>
@@ -14152,18 +14924,18 @@
       </c>
       <c r="O94" s="39"/>
     </row>
-    <row r="95" spans="2:15" ht="42" hidden="1">
+    <row r="95" spans="2:15" ht="28">
       <c r="B95" s="24">
-        <v>6286</v>
+        <v>6291</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="D95" s="26">
-        <v>10770</v>
+        <v>416885</v>
       </c>
       <c r="E95" s="27" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="F95" s="27" t="s">
         <v>188</v>
@@ -14175,7 +14947,7 @@
         <v>1047</v>
       </c>
       <c r="I95" s="29"/>
-      <c r="J95" s="86"/>
+      <c r="J95" s="83"/>
       <c r="K95" s="29"/>
       <c r="L95" s="29"/>
       <c r="M95" s="29"/>
@@ -14185,18 +14957,18 @@
       </c>
       <c r="O95" s="31"/>
     </row>
-    <row r="96" spans="2:15" ht="28" hidden="1">
+    <row r="96" spans="2:15" ht="28">
       <c r="B96" s="32">
-        <v>6285</v>
+        <v>6290</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="D96" s="34">
-        <v>11510</v>
+        <v>22185</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="F96" s="35" t="s">
         <v>188</v>
@@ -14208,7 +14980,7 @@
         <v>1047</v>
       </c>
       <c r="I96" s="37"/>
-      <c r="J96" s="87"/>
+      <c r="J96" s="84"/>
       <c r="K96" s="37"/>
       <c r="L96" s="37"/>
       <c r="M96" s="37"/>
@@ -14218,21 +14990,21 @@
       </c>
       <c r="O96" s="39"/>
     </row>
-    <row r="97" spans="2:15" ht="28" hidden="1">
+    <row r="97" spans="2:15" ht="42">
       <c r="B97" s="24">
-        <v>6284</v>
+        <v>6289</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="D97" s="26">
-        <v>64085</v>
+        <v>5780</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="G97" s="27" t="s">
         <v>809</v>
@@ -14241,7 +15013,7 @@
         <v>1047</v>
       </c>
       <c r="I97" s="29"/>
-      <c r="J97" s="86"/>
+      <c r="J97" s="83"/>
       <c r="K97" s="29"/>
       <c r="L97" s="29"/>
       <c r="M97" s="29"/>
@@ -14251,18 +15023,18 @@
       </c>
       <c r="O97" s="31"/>
     </row>
-    <row r="98" spans="2:15" ht="42" hidden="1">
+    <row r="98" spans="2:15" ht="28">
       <c r="B98" s="32">
-        <v>6283</v>
+        <v>6288</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="D98" s="34">
-        <v>4745</v>
+        <v>68285</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="F98" s="35" t="s">
         <v>188</v>
@@ -14274,7 +15046,7 @@
         <v>1047</v>
       </c>
       <c r="I98" s="37"/>
-      <c r="J98" s="87"/>
+      <c r="J98" s="84"/>
       <c r="K98" s="37"/>
       <c r="L98" s="37"/>
       <c r="M98" s="37"/>
@@ -14284,21 +15056,21 @@
       </c>
       <c r="O98" s="39"/>
     </row>
-    <row r="99" spans="2:15" ht="28" hidden="1">
+    <row r="99" spans="2:15" ht="42">
       <c r="B99" s="24">
-        <v>6282</v>
+        <v>6286</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="D99" s="26">
-        <v>16035</v>
+        <v>10770</v>
       </c>
       <c r="E99" s="27" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="F99" s="27" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="G99" s="27" t="s">
         <v>809</v>
@@ -14307,7 +15079,7 @@
         <v>1047</v>
       </c>
       <c r="I99" s="29"/>
-      <c r="J99" s="86"/>
+      <c r="J99" s="83"/>
       <c r="K99" s="29"/>
       <c r="L99" s="29"/>
       <c r="M99" s="29"/>
@@ -14317,21 +15089,21 @@
       </c>
       <c r="O99" s="31"/>
     </row>
-    <row r="100" spans="2:15" ht="28" hidden="1">
+    <row r="100" spans="2:15" ht="28">
       <c r="B100" s="32">
-        <v>6607</v>
+        <v>6285</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="D100" s="34">
-        <v>5950</v>
+        <v>11510</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="F100" s="35" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="G100" s="35" t="s">
         <v>809</v>
@@ -14340,7 +15112,7 @@
         <v>1047</v>
       </c>
       <c r="I100" s="37"/>
-      <c r="J100" s="87"/>
+      <c r="J100" s="84"/>
       <c r="K100" s="37"/>
       <c r="L100" s="37"/>
       <c r="M100" s="37"/>
@@ -14350,18 +15122,18 @@
       </c>
       <c r="O100" s="39"/>
     </row>
-    <row r="101" spans="2:15" ht="28" hidden="1">
+    <row r="101" spans="2:15" ht="28">
       <c r="B101" s="24">
-        <v>6598</v>
+        <v>6284</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="D101" s="26">
-        <v>8450</v>
+        <v>64085</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F101" s="27" t="s">
         <v>188</v>
@@ -14373,7 +15145,7 @@
         <v>1047</v>
       </c>
       <c r="I101" s="29"/>
-      <c r="J101" s="86"/>
+      <c r="J101" s="83"/>
       <c r="K101" s="29"/>
       <c r="L101" s="29"/>
       <c r="M101" s="29"/>
@@ -14383,18 +15155,18 @@
       </c>
       <c r="O101" s="31"/>
     </row>
-    <row r="102" spans="2:15" ht="28" hidden="1">
+    <row r="102" spans="2:15" ht="42">
       <c r="B102" s="32">
-        <v>6597</v>
+        <v>6283</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="D102" s="34">
-        <v>11950</v>
+        <v>4745</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="F102" s="35" t="s">
         <v>188</v>
@@ -14406,7 +15178,7 @@
         <v>1047</v>
       </c>
       <c r="I102" s="37"/>
-      <c r="J102" s="87"/>
+      <c r="J102" s="84"/>
       <c r="K102" s="37"/>
       <c r="L102" s="37"/>
       <c r="M102" s="37"/>
@@ -14416,21 +15188,21 @@
       </c>
       <c r="O102" s="39"/>
     </row>
-    <row r="103" spans="2:15" ht="28" hidden="1">
+    <row r="103" spans="2:15" ht="28">
       <c r="B103" s="24">
-        <v>6596</v>
+        <v>6282</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D103" s="26">
-        <v>8650</v>
+        <v>16035</v>
       </c>
       <c r="E103" s="27" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="F103" s="27" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="G103" s="27" t="s">
         <v>809</v>
@@ -14439,7 +15211,7 @@
         <v>1047</v>
       </c>
       <c r="I103" s="29"/>
-      <c r="J103" s="86"/>
+      <c r="J103" s="83"/>
       <c r="K103" s="29"/>
       <c r="L103" s="29"/>
       <c r="M103" s="29"/>
@@ -14449,21 +15221,21 @@
       </c>
       <c r="O103" s="31"/>
     </row>
-    <row r="104" spans="2:15" ht="28" hidden="1">
+    <row r="104" spans="2:15" ht="28">
       <c r="B104" s="32">
-        <v>6591</v>
+        <v>6607</v>
       </c>
       <c r="C104" s="33" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="D104" s="34">
-        <v>31550</v>
+        <v>5950</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="F104" s="35" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="G104" s="35" t="s">
         <v>809</v>
@@ -14472,7 +15244,7 @@
         <v>1047</v>
       </c>
       <c r="I104" s="37"/>
-      <c r="J104" s="87"/>
+      <c r="J104" s="84"/>
       <c r="K104" s="37"/>
       <c r="L104" s="37"/>
       <c r="M104" s="37"/>
@@ -14482,18 +15254,18 @@
       </c>
       <c r="O104" s="39"/>
     </row>
-    <row r="105" spans="2:15" ht="28" hidden="1">
+    <row r="105" spans="2:15" ht="28">
       <c r="B105" s="24">
-        <v>6476</v>
+        <v>6598</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="D105" s="26">
-        <v>3400</v>
+        <v>8450</v>
       </c>
       <c r="E105" s="27" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="F105" s="27" t="s">
         <v>188</v>
@@ -14505,7 +15277,7 @@
         <v>1047</v>
       </c>
       <c r="I105" s="29"/>
-      <c r="J105" s="86"/>
+      <c r="J105" s="83"/>
       <c r="K105" s="29"/>
       <c r="L105" s="29"/>
       <c r="M105" s="29"/>
@@ -14515,18 +15287,18 @@
       </c>
       <c r="O105" s="31"/>
     </row>
-    <row r="106" spans="2:15" ht="42" hidden="1">
+    <row r="106" spans="2:15" ht="28">
       <c r="B106" s="32">
-        <v>6473</v>
+        <v>6597</v>
       </c>
       <c r="C106" s="33" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="D106" s="34">
-        <v>39650</v>
+        <v>11950</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="F106" s="35" t="s">
         <v>188</v>
@@ -14538,7 +15310,7 @@
         <v>1047</v>
       </c>
       <c r="I106" s="37"/>
-      <c r="J106" s="87"/>
+      <c r="J106" s="84"/>
       <c r="K106" s="37"/>
       <c r="L106" s="37"/>
       <c r="M106" s="37"/>
@@ -14548,18 +15320,18 @@
       </c>
       <c r="O106" s="39"/>
     </row>
-    <row r="107" spans="2:15" ht="28" hidden="1">
+    <row r="107" spans="2:15" ht="28">
       <c r="B107" s="24">
-        <v>6508</v>
+        <v>6596</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="D107" s="26">
-        <v>1552.25</v>
+        <v>8650</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="F107" s="27" t="s">
         <v>188</v>
@@ -14571,7 +15343,7 @@
         <v>1047</v>
       </c>
       <c r="I107" s="29"/>
-      <c r="J107" s="86"/>
+      <c r="J107" s="83"/>
       <c r="K107" s="29"/>
       <c r="L107" s="29"/>
       <c r="M107" s="29"/>
@@ -14581,18 +15353,18 @@
       </c>
       <c r="O107" s="31"/>
     </row>
-    <row r="108" spans="2:15" ht="28" hidden="1">
+    <row r="108" spans="2:15" ht="28">
       <c r="B108" s="32">
-        <v>6507</v>
+        <v>6591</v>
       </c>
       <c r="C108" s="33" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="D108" s="34">
-        <v>2007.5</v>
+        <v>31550</v>
       </c>
       <c r="E108" s="35" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="F108" s="35" t="s">
         <v>188</v>
@@ -14604,7 +15376,7 @@
         <v>1047</v>
       </c>
       <c r="I108" s="37"/>
-      <c r="J108" s="87"/>
+      <c r="J108" s="84"/>
       <c r="K108" s="37"/>
       <c r="L108" s="37"/>
       <c r="M108" s="37"/>
@@ -14614,18 +15386,18 @@
       </c>
       <c r="O108" s="39"/>
     </row>
-    <row r="109" spans="2:15" ht="42" hidden="1">
+    <row r="109" spans="2:15" ht="28">
       <c r="B109" s="24">
-        <v>5636</v>
+        <v>6476</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="D109" s="26">
-        <v>25125</v>
+        <v>3400</v>
       </c>
       <c r="E109" s="27" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="F109" s="27" t="s">
         <v>188</v>
@@ -14637,7 +15409,7 @@
         <v>1047</v>
       </c>
       <c r="I109" s="29"/>
-      <c r="J109" s="86"/>
+      <c r="J109" s="83"/>
       <c r="K109" s="29"/>
       <c r="L109" s="29"/>
       <c r="M109" s="29"/>
@@ -14647,21 +15419,21 @@
       </c>
       <c r="O109" s="31"/>
     </row>
-    <row r="110" spans="2:15" ht="42" hidden="1">
+    <row r="110" spans="2:15" ht="42">
       <c r="B110" s="32">
-        <v>5776</v>
+        <v>6473</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="D110" s="34">
-        <v>6185</v>
+        <v>39650</v>
       </c>
       <c r="E110" s="35" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="F110" s="35" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="G110" s="35" t="s">
         <v>809</v>
@@ -14670,7 +15442,7 @@
         <v>1047</v>
       </c>
       <c r="I110" s="37"/>
-      <c r="J110" s="87"/>
+      <c r="J110" s="84"/>
       <c r="K110" s="37"/>
       <c r="L110" s="37"/>
       <c r="M110" s="37"/>
@@ -14680,21 +15452,21 @@
       </c>
       <c r="O110" s="39"/>
     </row>
-    <row r="111" spans="2:15" ht="42" hidden="1">
+    <row r="111" spans="2:15" ht="28">
       <c r="B111" s="24">
-        <v>5774</v>
+        <v>6508</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="D111" s="26">
-        <v>6220</v>
+        <v>1552.25</v>
       </c>
       <c r="E111" s="27" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="F111" s="27" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="G111" s="27" t="s">
         <v>809</v>
@@ -14703,7 +15475,7 @@
         <v>1047</v>
       </c>
       <c r="I111" s="29"/>
-      <c r="J111" s="86"/>
+      <c r="J111" s="83"/>
       <c r="K111" s="29"/>
       <c r="L111" s="29"/>
       <c r="M111" s="29"/>
@@ -14713,18 +15485,18 @@
       </c>
       <c r="O111" s="31"/>
     </row>
-    <row r="112" spans="2:15" ht="28" hidden="1">
+    <row r="112" spans="2:15" ht="28">
       <c r="B112" s="32">
-        <v>5773</v>
+        <v>6507</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="D112" s="34">
-        <v>2890</v>
+        <v>2007.5</v>
       </c>
       <c r="E112" s="35" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="F112" s="35" t="s">
         <v>188</v>
@@ -14736,7 +15508,7 @@
         <v>1047</v>
       </c>
       <c r="I112" s="37"/>
-      <c r="J112" s="87"/>
+      <c r="J112" s="84"/>
       <c r="K112" s="37"/>
       <c r="L112" s="37"/>
       <c r="M112" s="37"/>
@@ -14746,18 +15518,18 @@
       </c>
       <c r="O112" s="39"/>
     </row>
-    <row r="113" spans="2:15" ht="28" hidden="1">
+    <row r="113" spans="2:15" ht="42">
       <c r="B113" s="24">
-        <v>5772</v>
+        <v>5636</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="D113" s="26">
-        <v>3385</v>
+        <v>25125</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="F113" s="27" t="s">
         <v>188</v>
@@ -14769,7 +15541,7 @@
         <v>1047</v>
       </c>
       <c r="I113" s="29"/>
-      <c r="J113" s="86"/>
+      <c r="J113" s="83"/>
       <c r="K113" s="29"/>
       <c r="L113" s="29"/>
       <c r="M113" s="29"/>
@@ -14779,18 +15551,18 @@
       </c>
       <c r="O113" s="31"/>
     </row>
-    <row r="114" spans="2:15" ht="42" hidden="1">
+    <row r="114" spans="2:15" ht="42">
       <c r="B114" s="32">
-        <v>5770</v>
+        <v>5776</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="D114" s="34">
-        <v>4125</v>
+        <v>6185</v>
       </c>
       <c r="E114" s="35" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="F114" s="35" t="s">
         <v>142</v>
@@ -14802,7 +15574,7 @@
         <v>1047</v>
       </c>
       <c r="I114" s="37"/>
-      <c r="J114" s="87"/>
+      <c r="J114" s="84"/>
       <c r="K114" s="37"/>
       <c r="L114" s="37"/>
       <c r="M114" s="37"/>
@@ -14812,18 +15584,18 @@
       </c>
       <c r="O114" s="39"/>
     </row>
-    <row r="115" spans="2:15" ht="28" hidden="1">
+    <row r="115" spans="2:15" ht="42">
       <c r="B115" s="24">
-        <v>5768</v>
+        <v>5774</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="D115" s="26">
-        <v>20170</v>
+        <v>6220</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="F115" s="27" t="s">
         <v>142</v>
@@ -14835,7 +15607,7 @@
         <v>1047</v>
       </c>
       <c r="I115" s="29"/>
-      <c r="J115" s="86"/>
+      <c r="J115" s="83"/>
       <c r="K115" s="29"/>
       <c r="L115" s="29"/>
       <c r="M115" s="29"/>
@@ -14845,18 +15617,18 @@
       </c>
       <c r="O115" s="31"/>
     </row>
-    <row r="116" spans="2:15" ht="28" hidden="1">
+    <row r="116" spans="2:15" ht="28">
       <c r="B116" s="32">
-        <v>5765</v>
+        <v>5773</v>
       </c>
       <c r="C116" s="33" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="D116" s="34">
-        <v>17640</v>
+        <v>2890</v>
       </c>
       <c r="E116" s="35" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="F116" s="35" t="s">
         <v>188</v>
@@ -14868,7 +15640,7 @@
         <v>1047</v>
       </c>
       <c r="I116" s="37"/>
-      <c r="J116" s="87"/>
+      <c r="J116" s="84"/>
       <c r="K116" s="37"/>
       <c r="L116" s="37"/>
       <c r="M116" s="37"/>
@@ -14878,18 +15650,18 @@
       </c>
       <c r="O116" s="39"/>
     </row>
-    <row r="117" spans="2:15" ht="28" hidden="1">
+    <row r="117" spans="2:15" ht="28">
       <c r="B117" s="24">
-        <v>5764</v>
+        <v>5772</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="D117" s="26">
-        <v>21185</v>
+        <v>3385</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
       <c r="F117" s="27" t="s">
         <v>188</v>
@@ -14901,7 +15673,7 @@
         <v>1047</v>
       </c>
       <c r="I117" s="29"/>
-      <c r="J117" s="86"/>
+      <c r="J117" s="83"/>
       <c r="K117" s="29"/>
       <c r="L117" s="29"/>
       <c r="M117" s="29"/>
@@ -14911,18 +15683,18 @@
       </c>
       <c r="O117" s="31"/>
     </row>
-    <row r="118" spans="2:15" ht="28" hidden="1">
+    <row r="118" spans="2:15" ht="42">
       <c r="B118" s="32">
-        <v>5763</v>
+        <v>5770</v>
       </c>
       <c r="C118" s="33" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="D118" s="34">
-        <v>10150</v>
+        <v>4125</v>
       </c>
       <c r="E118" s="35" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="F118" s="35" t="s">
         <v>142</v>
@@ -14934,7 +15706,7 @@
         <v>1047</v>
       </c>
       <c r="I118" s="37"/>
-      <c r="J118" s="87"/>
+      <c r="J118" s="84"/>
       <c r="K118" s="37"/>
       <c r="L118" s="37"/>
       <c r="M118" s="37"/>
@@ -14944,21 +15716,21 @@
       </c>
       <c r="O118" s="39"/>
     </row>
-    <row r="119" spans="2:15" ht="28" hidden="1">
+    <row r="119" spans="2:15" ht="28">
       <c r="B119" s="24">
-        <v>5762</v>
+        <v>5768</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
       <c r="D119" s="26">
-        <v>5195</v>
+        <v>20170</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="F119" s="27" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="G119" s="27" t="s">
         <v>809</v>
@@ -14967,7 +15739,7 @@
         <v>1047</v>
       </c>
       <c r="I119" s="29"/>
-      <c r="J119" s="86"/>
+      <c r="J119" s="83"/>
       <c r="K119" s="29"/>
       <c r="L119" s="29"/>
       <c r="M119" s="29"/>
@@ -14977,18 +15749,18 @@
       </c>
       <c r="O119" s="31"/>
     </row>
-    <row r="120" spans="2:15" ht="28" hidden="1">
+    <row r="120" spans="2:15" ht="28">
       <c r="B120" s="32">
-        <v>4971</v>
+        <v>5765</v>
       </c>
       <c r="C120" s="33" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
       <c r="D120" s="34">
-        <v>66900</v>
+        <v>17640</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="F120" s="35" t="s">
         <v>188</v>
@@ -15000,7 +15772,7 @@
         <v>1047</v>
       </c>
       <c r="I120" s="37"/>
-      <c r="J120" s="87"/>
+      <c r="J120" s="84"/>
       <c r="K120" s="37"/>
       <c r="L120" s="37"/>
       <c r="M120" s="37"/>
@@ -15010,18 +15782,18 @@
       </c>
       <c r="O120" s="39"/>
     </row>
-    <row r="121" spans="2:15" ht="28" hidden="1">
+    <row r="121" spans="2:15" ht="28">
       <c r="B121" s="24">
-        <v>4950</v>
+        <v>5764</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="D121" s="26">
-        <v>41700</v>
+        <v>21185</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="F121" s="27" t="s">
         <v>188</v>
@@ -15033,7 +15805,7 @@
         <v>1047</v>
       </c>
       <c r="I121" s="29"/>
-      <c r="J121" s="86"/>
+      <c r="J121" s="83"/>
       <c r="K121" s="29"/>
       <c r="L121" s="29"/>
       <c r="M121" s="29"/>
@@ -15043,21 +15815,21 @@
       </c>
       <c r="O121" s="31"/>
     </row>
-    <row r="122" spans="2:15" ht="28" hidden="1">
+    <row r="122" spans="2:15" ht="28">
       <c r="B122" s="32">
-        <v>4947</v>
+        <v>5763</v>
       </c>
       <c r="C122" s="33" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="D122" s="34">
-        <v>40800</v>
+        <v>10150</v>
       </c>
       <c r="E122" s="35" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="F122" s="35" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="G122" s="35" t="s">
         <v>809</v>
@@ -15066,7 +15838,7 @@
         <v>1047</v>
       </c>
       <c r="I122" s="37"/>
-      <c r="J122" s="87"/>
+      <c r="J122" s="84"/>
       <c r="K122" s="37"/>
       <c r="L122" s="37"/>
       <c r="M122" s="37"/>
@@ -15076,18 +15848,18 @@
       </c>
       <c r="O122" s="39"/>
     </row>
-    <row r="123" spans="2:15" ht="28" hidden="1">
+    <row r="123" spans="2:15" ht="28">
       <c r="B123" s="24">
-        <v>4946</v>
+        <v>5762</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="D123" s="26">
-        <v>32700</v>
+        <v>5195</v>
       </c>
       <c r="E123" s="27" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F123" s="27" t="s">
         <v>188</v>
@@ -15099,7 +15871,7 @@
         <v>1047</v>
       </c>
       <c r="I123" s="29"/>
-      <c r="J123" s="86"/>
+      <c r="J123" s="83"/>
       <c r="K123" s="29"/>
       <c r="L123" s="29"/>
       <c r="M123" s="29"/>
@@ -15109,18 +15881,18 @@
       </c>
       <c r="O123" s="31"/>
     </row>
-    <row r="124" spans="2:15" ht="56" hidden="1">
+    <row r="124" spans="2:15" ht="28">
       <c r="B124" s="32">
-        <v>4217</v>
+        <v>4971</v>
       </c>
       <c r="C124" s="33" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="D124" s="34">
-        <v>1695</v>
+        <v>66900</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="F124" s="35" t="s">
         <v>188</v>
@@ -15132,7 +15904,7 @@
         <v>1047</v>
       </c>
       <c r="I124" s="37"/>
-      <c r="J124" s="87"/>
+      <c r="J124" s="84"/>
       <c r="K124" s="37"/>
       <c r="L124" s="37"/>
       <c r="M124" s="37"/>
@@ -15142,21 +15914,21 @@
       </c>
       <c r="O124" s="39"/>
     </row>
-    <row r="125" spans="2:15" ht="42" hidden="1">
+    <row r="125" spans="2:15" ht="28">
       <c r="B125" s="24">
-        <v>4223</v>
+        <v>4950</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D125" s="26">
-        <v>2145</v>
+        <v>41700</v>
       </c>
       <c r="E125" s="27" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="F125" s="27" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="G125" s="27" t="s">
         <v>809</v>
@@ -15165,7 +15937,7 @@
         <v>1047</v>
       </c>
       <c r="I125" s="29"/>
-      <c r="J125" s="86"/>
+      <c r="J125" s="83"/>
       <c r="K125" s="29"/>
       <c r="L125" s="29"/>
       <c r="M125" s="29"/>
@@ -15175,21 +15947,21 @@
       </c>
       <c r="O125" s="31"/>
     </row>
-    <row r="126" spans="2:15" ht="42" hidden="1">
+    <row r="126" spans="2:15" ht="28">
       <c r="B126" s="32">
-        <v>4216</v>
+        <v>4947</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="D126" s="34">
-        <v>2105</v>
+        <v>40800</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="F126" s="35" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="G126" s="35" t="s">
         <v>809</v>
@@ -15198,7 +15970,7 @@
         <v>1047</v>
       </c>
       <c r="I126" s="37"/>
-      <c r="J126" s="87"/>
+      <c r="J126" s="84"/>
       <c r="K126" s="37"/>
       <c r="L126" s="37"/>
       <c r="M126" s="37"/>
@@ -15208,21 +15980,21 @@
       </c>
       <c r="O126" s="39"/>
     </row>
-    <row r="127" spans="2:15" ht="42" hidden="1">
+    <row r="127" spans="2:15" ht="28">
       <c r="B127" s="24">
-        <v>2121</v>
+        <v>4946</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="D127" s="26">
-        <v>227210</v>
+        <v>32700</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="F127" s="27" t="s">
-        <v>597</v>
+        <v>188</v>
       </c>
       <c r="G127" s="27" t="s">
         <v>809</v>
@@ -15231,7 +16003,7 @@
         <v>1047</v>
       </c>
       <c r="I127" s="29"/>
-      <c r="J127" s="86"/>
+      <c r="J127" s="83"/>
       <c r="K127" s="29"/>
       <c r="L127" s="29"/>
       <c r="M127" s="29"/>
@@ -15241,210 +16013,662 @@
       </c>
       <c r="O127" s="31"/>
     </row>
-    <row r="128" spans="2:15" ht="15" hidden="1" thickTop="1">
-      <c r="B128" s="18" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C128" s="19">
-        <v>109</v>
-      </c>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19">
-        <v>109</v>
-      </c>
-      <c r="G128" s="19">
-        <v>109</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="93"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="19"/>
-      <c r="M128" s="19"/>
-      <c r="N128" s="74">
+    <row r="128" spans="2:15" ht="56">
+      <c r="B128" s="32">
+        <v>4217</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D128" s="34">
+        <v>1695</v>
+      </c>
+      <c r="E128" s="35" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F128" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="G128" s="35" t="s">
+        <v>809</v>
+      </c>
+      <c r="H128" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I128" s="37"/>
+      <c r="J128" s="84"/>
+      <c r="K128" s="37"/>
+      <c r="L128" s="37"/>
+      <c r="M128" s="37"/>
+      <c r="N128" s="38">
         <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
         <v>0</v>
       </c>
-      <c r="O128" s="20"/>
+      <c r="O128" s="39"/>
+    </row>
+    <row r="129" spans="2:15" ht="42">
+      <c r="B129" s="24">
+        <v>4223</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D129" s="26">
+        <v>2145</v>
+      </c>
+      <c r="E129" s="27" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F129" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="G129" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="H129" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I129" s="29"/>
+      <c r="J129" s="83"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="29"/>
+      <c r="M129" s="29"/>
+      <c r="N129" s="30">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>0</v>
+      </c>
+      <c r="O129" s="31"/>
+    </row>
+    <row r="130" spans="2:15" ht="42">
+      <c r="B130" s="32">
+        <v>4216</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D130" s="34">
+        <v>2105</v>
+      </c>
+      <c r="E130" s="35" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F130" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G130" s="35" t="s">
+        <v>809</v>
+      </c>
+      <c r="H130" s="36" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I130" s="37"/>
+      <c r="J130" s="84"/>
+      <c r="K130" s="37"/>
+      <c r="L130" s="37"/>
+      <c r="M130" s="37"/>
+      <c r="N130" s="38">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>0</v>
+      </c>
+      <c r="O130" s="39"/>
+    </row>
+    <row r="131" spans="2:15" ht="43" thickBot="1">
+      <c r="B131" s="24">
+        <v>2121</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D131" s="26">
+        <v>227210</v>
+      </c>
+      <c r="E131" s="27" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F131" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="G131" s="27" t="s">
+        <v>809</v>
+      </c>
+      <c r="H131" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I131" s="29"/>
+      <c r="J131" s="83"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="29"/>
+      <c r="M131" s="29"/>
+      <c r="N131" s="30">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>0</v>
+      </c>
+      <c r="O131" s="31"/>
+    </row>
+    <row r="132" spans="2:15" ht="15" thickTop="1">
+      <c r="B132" s="18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C132" s="19">
+        <v>109</v>
+      </c>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19">
+        <v>109</v>
+      </c>
+      <c r="G132" s="19">
+        <v>109</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="90"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="N132" s="74">
+        <f>Table3[[#This Row],[Gross Mineral Acreage]]*Table3[[#This Row],[Decimal Interest]]</f>
+        <v>0</v>
+      </c>
+      <c r="O132" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G13:H14 G4:K12 I13:K13 C42:F64">
-    <cfRule type="expression" dxfId="68" priority="1">
-      <formula>L68="Y"</formula>
+  <conditionalFormatting sqref="G8:K12 C59:F62 C64:F64 I14:K14">
+    <cfRule type="expression" dxfId="115" priority="58">
+      <formula>L75="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:K70 L42:O67 H68:I68 K68 H72:K73 H71:I71 K71 H77:K127 H74:I76 K74:K76">
-    <cfRule type="expression" dxfId="67" priority="6">
-      <formula>P91="Y"</formula>
+  <conditionalFormatting sqref="H81:K131">
+    <cfRule type="expression" dxfId="114" priority="63">
+      <formula>P130="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L14:O14">
-    <cfRule type="expression" dxfId="66" priority="12">
-      <formula>T77="Y"</formula>
+  <conditionalFormatting sqref="G72 B75:B80">
+    <cfRule type="expression" dxfId="113" priority="69">
+      <formula>J137="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="expression" dxfId="65" priority="13">
-      <formula>J83="Y"</formula>
+    <cfRule type="expression" dxfId="112" priority="70">
+      <formula>J87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65:F127 L4:O13 B42:B127">
-    <cfRule type="expression" dxfId="64" priority="14">
-      <formula>J68="Y"</formula>
+  <conditionalFormatting sqref="C75:F76">
+    <cfRule type="expression" dxfId="111" priority="71">
+      <formula>K140="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L68:O127">
-    <cfRule type="expression" dxfId="63" priority="21">
-      <formula>S117="Y"</formula>
+  <conditionalFormatting sqref="L75:O76">
+    <cfRule type="expression" dxfId="110" priority="78">
+      <formula>S125="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:K28">
-    <cfRule type="expression" dxfId="62" priority="22">
-      <formula>P77="Y"</formula>
+    <cfRule type="expression" dxfId="109" priority="79">
+      <formula>P81="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:K14">
-    <cfRule type="expression" dxfId="61" priority="26">
-      <formula>R77="Y"</formula>
+  <conditionalFormatting sqref="G4:K7">
+    <cfRule type="expression" dxfId="108" priority="83">
+      <formula>P69="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:F14">
-    <cfRule type="expression" dxfId="60" priority="29">
-      <formula>L83="Y"</formula>
+    <cfRule type="expression" dxfId="107" priority="86">
+      <formula>L87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68:G127 N22">
-    <cfRule type="expression" dxfId="59" priority="31">
-      <formula>O83="Y"</formula>
+  <conditionalFormatting sqref="G75:G76">
+    <cfRule type="expression" dxfId="106" priority="88">
+      <formula>O137="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:O20 N21 O21:O28 L21:M28">
-    <cfRule type="expression" dxfId="58" priority="34">
-      <formula>T77="Y"</formula>
+  <conditionalFormatting sqref="L15:O20 O21:O28 L21:M28 N21">
+    <cfRule type="expression" dxfId="105" priority="91">
+      <formula>T81="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29 G29:J33">
-    <cfRule type="expression" dxfId="57" priority="39">
-      <formula>P84="Y"</formula>
+    <cfRule type="expression" dxfId="104" priority="96">
+      <formula>P88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28 L29:O29 M30:M33">
-    <cfRule type="expression" dxfId="56" priority="114">
-      <formula>T83="Y"</formula>
+    <cfRule type="expression" dxfId="103" priority="171">
+      <formula>T87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="55" priority="123">
-      <formula>V83="Y"</formula>
+    <cfRule type="expression" dxfId="102" priority="180">
+      <formula>V87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="54" priority="132">
-      <formula>V83="Y"</formula>
+  <conditionalFormatting sqref="N26 G81:G131">
+    <cfRule type="expression" dxfId="101" priority="189">
+      <formula>O87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="expression" dxfId="53" priority="141">
-      <formula>V83="Y"</formula>
+    <cfRule type="expression" dxfId="100" priority="198">
+      <formula>V87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="expression" dxfId="52" priority="150">
-      <formula>V83="Y"</formula>
+    <cfRule type="expression" dxfId="99" priority="207">
+      <formula>V87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
-    <cfRule type="expression" dxfId="51" priority="159">
-      <formula>V83="Y"</formula>
+  <conditionalFormatting sqref="N23 B81:F131 G70:G71">
+    <cfRule type="expression" dxfId="98" priority="216">
+      <formula>J87="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:F28">
-    <cfRule type="expression" dxfId="50" priority="162">
-      <formula>L92="Y"</formula>
+    <cfRule type="expression" dxfId="97" priority="219">
+      <formula>L96="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B28">
-    <cfRule type="expression" dxfId="49" priority="164">
-      <formula>J92="Y"</formula>
+    <cfRule type="expression" dxfId="96" priority="221">
+      <formula>J96="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:K41">
-    <cfRule type="expression" dxfId="48" priority="172">
-      <formula>P84="Y"</formula>
+    <cfRule type="expression" dxfId="95" priority="229">
+      <formula>P88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="47" priority="175">
-      <formula>T84="Y"</formula>
+    <cfRule type="expression" dxfId="94" priority="232">
+      <formula>T88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33 N33:O33">
-    <cfRule type="expression" dxfId="46" priority="179">
-      <formula>T84="Y"</formula>
+    <cfRule type="expression" dxfId="93" priority="236">
+      <formula>T88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="45" priority="183">
-      <formula>T84="Y"</formula>
+  <conditionalFormatting sqref="K32 K58:M58 K67">
+    <cfRule type="expression" dxfId="92" priority="240">
+      <formula>T88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32 N32:O32">
-    <cfRule type="expression" dxfId="44" priority="185">
-      <formula>T84="Y"</formula>
+  <conditionalFormatting sqref="L32 N32:O32 K69">
+    <cfRule type="expression" dxfId="91" priority="242">
+      <formula>S88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="expression" dxfId="43" priority="191">
-      <formula>T84="Y"</formula>
+    <cfRule type="expression" dxfId="90" priority="248">
+      <formula>T88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31 N31:O31">
-    <cfRule type="expression" dxfId="42" priority="193">
-      <formula>T84="Y"</formula>
+    <cfRule type="expression" dxfId="89" priority="250">
+      <formula>T88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30">
-    <cfRule type="expression" dxfId="41" priority="199">
-      <formula>T84="Y"</formula>
+    <cfRule type="expression" dxfId="88" priority="256">
+      <formula>T88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30 N30:O30">
-    <cfRule type="expression" dxfId="40" priority="201">
-      <formula>T84="Y"</formula>
+    <cfRule type="expression" dxfId="87" priority="258">
+      <formula>T88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F33">
-    <cfRule type="expression" dxfId="39" priority="202">
-      <formula>L99="Y"</formula>
+    <cfRule type="expression" dxfId="86" priority="259">
+      <formula>L103="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B33">
-    <cfRule type="expression" dxfId="38" priority="204">
-      <formula>J99="Y"</formula>
+    <cfRule type="expression" dxfId="85" priority="261">
+      <formula>J103="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:F41">
-    <cfRule type="expression" dxfId="37" priority="205">
-      <formula>L99="Y"</formula>
+    <cfRule type="expression" dxfId="84" priority="262">
+      <formula>L103="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34:O41">
-    <cfRule type="expression" dxfId="36" priority="207">
-      <formula>T84="Y"</formula>
+  <conditionalFormatting sqref="L34:O41 K72 H72">
+    <cfRule type="expression" dxfId="83" priority="264">
+      <formula>P88="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B41">
-    <cfRule type="expression" dxfId="35" priority="209">
-      <formula>J99="Y"</formula>
+    <cfRule type="expression" dxfId="82" priority="266">
+      <formula>J103="Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:K67 J68 J71 J74:J76">
-    <cfRule type="expression" dxfId="34" priority="212">
-      <formula>P91="Y"</formula>
+  <conditionalFormatting sqref="L42:O51 I72">
+    <cfRule type="expression" dxfId="81" priority="274">
+      <formula>Q95="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:B51 L13:O13 B72:F72">
+    <cfRule type="expression" dxfId="3" priority="276">
+      <formula>J81="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
+    <cfRule type="expression" dxfId="80" priority="279">
+      <formula>V87="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:K51">
+    <cfRule type="expression" dxfId="79" priority="290">
+      <formula>P95="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58:F58">
+    <cfRule type="expression" dxfId="78" priority="54">
+      <formula>L128="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:I58">
+    <cfRule type="expression" dxfId="77" priority="55">
+      <formula>P114="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58 B65:B66">
+    <cfRule type="expression" dxfId="76" priority="56">
+      <formula>J128="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N58">
+    <cfRule type="expression" dxfId="75" priority="57">
+      <formula>V114="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52:O57 L59:O62 L64:O64 L68:O68 H70:K71 K73:K74 K77:K78">
+    <cfRule type="expression" dxfId="74" priority="31">
+      <formula>P104="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:O7">
+    <cfRule type="expression" dxfId="2" priority="291">
+      <formula>T69="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L70:O71">
+    <cfRule type="expression" dxfId="73" priority="292">
+      <formula>S122="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C63:F63">
+    <cfRule type="expression" dxfId="72" priority="50">
+      <formula>L133="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:I63 K63">
+    <cfRule type="expression" dxfId="71" priority="51">
+      <formula>P119="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63">
+    <cfRule type="expression" dxfId="70" priority="52">
+      <formula>J133="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63:O63">
+    <cfRule type="expression" dxfId="69" priority="53">
+      <formula>T119="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O58">
+    <cfRule type="expression" dxfId="68" priority="49">
+      <formula>X114="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:F65">
+    <cfRule type="expression" dxfId="67" priority="45">
+      <formula>L135="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G65:I66 K65:K66">
+    <cfRule type="expression" dxfId="66" priority="46">
+      <formula>P121="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C66:F66">
+    <cfRule type="expression" dxfId="65" priority="47">
+      <formula>K136="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65:O66">
+    <cfRule type="expression" dxfId="64" priority="48">
+      <formula>T121="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G67:H67">
+    <cfRule type="expression" dxfId="63" priority="42">
+      <formula>P123="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B67:F67">
+    <cfRule type="expression" dxfId="62" priority="43">
+      <formula>J137="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L67:O67">
+    <cfRule type="expression" dxfId="61" priority="44">
+      <formula>T123="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I67">
+    <cfRule type="expression" dxfId="60" priority="41">
+      <formula>Q120="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G69 L8:O12 B59:B62 B64 L14:O14 B70:F71 B68:F68 B52:B57">
+    <cfRule type="expression" dxfId="1" priority="37">
+      <formula>J75="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:F69">
+    <cfRule type="expression" dxfId="59" priority="38">
+      <formula>J139="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="expression" dxfId="58" priority="39">
+      <formula>P125="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:O69">
+    <cfRule type="expression" dxfId="57" priority="40">
+      <formula>S125="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69">
+    <cfRule type="expression" dxfId="56" priority="36">
+      <formula>Q122="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L78:O78">
+    <cfRule type="expression" dxfId="55" priority="13">
+      <formula>S130="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59:K62 G64:K64 G68:K68 G52:K57 J58 J63 J65:J67 J69 J72:J74 J77:J80">
+    <cfRule type="expression" dxfId="54" priority="323">
+      <formula>P104="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:F57">
+    <cfRule type="expression" dxfId="53" priority="330">
+      <formula>L119="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L72:O72">
+    <cfRule type="expression" dxfId="52" priority="363">
+      <formula>S126="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="expression" dxfId="51" priority="27">
+      <formula>P126="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74:O74">
+    <cfRule type="expression" dxfId="50" priority="28">
+      <formula>S126="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:F74">
+    <cfRule type="expression" dxfId="49" priority="29">
+      <formula>J140="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="expression" dxfId="48" priority="30">
+      <formula>O137="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="expression" dxfId="47" priority="23">
+      <formula>P125="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73:O73">
+    <cfRule type="expression" dxfId="46" priority="24">
+      <formula>S125="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:F73">
+    <cfRule type="expression" dxfId="45" priority="25">
+      <formula>J139="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G73">
+    <cfRule type="expression" dxfId="44" priority="26">
+      <formula>O136="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73">
+    <cfRule type="expression" dxfId="43" priority="22">
+      <formula>Q124="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74">
+    <cfRule type="expression" dxfId="42" priority="21">
+      <formula>Q125="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="expression" dxfId="41" priority="17">
+      <formula>P129="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L77:O77">
+    <cfRule type="expression" dxfId="40" priority="18">
+      <formula>S129="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77:F77">
+    <cfRule type="expression" dxfId="39" priority="19">
+      <formula>K143="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G77">
+    <cfRule type="expression" dxfId="38" priority="20">
+      <formula>O140="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77">
+    <cfRule type="expression" dxfId="37" priority="16">
+      <formula>Q128="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="expression" dxfId="36" priority="12">
+      <formula>P130="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78:F78">
+    <cfRule type="expression" dxfId="35" priority="14">
+      <formula>K144="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G78">
+    <cfRule type="expression" dxfId="34" priority="15">
+      <formula>O141="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78">
+    <cfRule type="expression" dxfId="33" priority="11">
+      <formula>Q129="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:K13 C42:F51 G13:H14">
+    <cfRule type="expression" dxfId="32" priority="364">
+      <formula>L81="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75:K76">
+    <cfRule type="expression" dxfId="31" priority="367">
+      <formula>P125="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L81:O131">
+    <cfRule type="expression" dxfId="30" priority="375">
+      <formula>S130="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80:F80">
+    <cfRule type="expression" dxfId="29" priority="7">
+      <formula>K144="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L80:O80">
+    <cfRule type="expression" dxfId="28" priority="8">
+      <formula>S130="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G80">
+    <cfRule type="expression" dxfId="27" priority="9">
+      <formula>O141="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80 K80">
+    <cfRule type="expression" dxfId="26" priority="10">
+      <formula>P130="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79:F79">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>K143="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79:O79">
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>S129="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G79">
+    <cfRule type="expression" dxfId="23" priority="5">
+      <formula>O140="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79 K79">
+    <cfRule type="expression" dxfId="22" priority="6">
+      <formula>P129="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79">
+    <cfRule type="expression" dxfId="21" priority="2">
+      <formula>Q129="Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I80">
+    <cfRule type="expression" dxfId="20" priority="1">
+      <formula>Q130="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15459,7 +16683,7 @@
           <x14:formula1>
             <xm:f>'Dropdown Control'!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J127</xm:sqref>
+          <xm:sqref>J4:J131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15475,7 +16699,7 @@
   <dimension ref="A2:L501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15494,30 +16718,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="20">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="112" t="s">
         <v>1050</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="4" spans="1:12" ht="25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="111" t="s">
         <v>1051</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
     </row>
     <row r="5" spans="1:12" s="13" customFormat="1" ht="81" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -28005,17 +29229,17 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:D500">
-    <cfRule type="expression" dxfId="30" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>I70="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:L500">
-    <cfRule type="expression" dxfId="29" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>M70="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E500">
-    <cfRule type="expression" dxfId="28" priority="4">
+    <cfRule type="expression" dxfId="12" priority="4">
       <formula>#REF!="Y"</formula>
     </cfRule>
   </conditionalFormatting>
